--- a/data/uppermoon77_all_raw.xlsx
+++ b/data/uppermoon77_all_raw.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -481,23 +481,23 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BS01AGUSTUS2026</t>
+          <t>AM01JULI2026</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -506,23 +506,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BS02AGUSTUS2026</t>
+          <t>AM02JULI2026</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -531,23 +531,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BS03AGUSTUS2026</t>
+          <t>AM03JULI2026</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -556,23 +556,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BS04AGUSTUS2026</t>
+          <t>AM04JULI2026</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -581,23 +581,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BS05AGUSTUS2026</t>
+          <t>AM05JULI2026</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -606,23 +606,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BS06AGUSTUS2026</t>
+          <t>AM06JULI2026</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -631,23 +631,23 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BS07AGUSTUS2026</t>
+          <t>AM07JULI2026</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -656,23 +656,23 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BS08AGUSTUS2026</t>
+          <t>AM08JULI2026</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -681,23 +681,23 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BS09AGUSTUS2026</t>
+          <t>AM09JULI2026</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -706,23 +706,23 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BS10AGUSTUS2026</t>
+          <t>AM10JULI2026</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -731,23 +731,23 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BS11AGUSTUS2026</t>
+          <t>AM11JULI2026</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -756,23 +756,23 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BS12AGUSTUS2026</t>
+          <t>AM12JULI2026</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -781,23 +781,23 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BS13AGUSTUS2026</t>
+          <t>AM13JULI2026</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -806,23 +806,23 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BS14AGUSTUS2026</t>
+          <t>AM14JULI2026</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -831,23 +831,23 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BS15AGUSTUS2026</t>
+          <t>AM15JULI2026</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -856,23 +856,23 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BS16AGUSTUS2026</t>
+          <t>AM16JULI2026</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -881,23 +881,23 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BS17AGUSTUS2026</t>
+          <t>AM17JULI2026</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -906,23 +906,23 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BS18AGUSTUS2026</t>
+          <t>AM18JULI2026</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -931,23 +931,23 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BS19AGUSTUS2026</t>
+          <t>AM19JULI2026</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -956,23 +956,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BS20AGUSTUS2026</t>
+          <t>AM20JULI2026</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -981,23 +981,23 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BS21AGUSTUS2026</t>
+          <t>AM21JULI2026</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1006,23 +1006,23 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS21AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BS22AGUSTUS2026</t>
+          <t>AM22JULI2026</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1031,23 +1031,23 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS22AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BS23AGUSTUS2026</t>
+          <t>AM23JULI2026</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1056,23 +1056,23 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS23AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BS24AGUSTUS2026</t>
+          <t>AM24JULI2026</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1081,23 +1081,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS24AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BS25AGUSTUS2026</t>
+          <t>AM25JULI2026</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1106,23 +1106,23 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS25AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BS26AGUSTUS2026</t>
+          <t>AM26JULI2026</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1131,23 +1131,23 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS26AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BS27AGUSTUS2026</t>
+          <t>AM27JULI2026</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1156,23 +1156,23 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS27AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BS28AGUSTUS2026</t>
+          <t>AM28JULI2026</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1181,23 +1181,23 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS28AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BS29AGUSTUS2026</t>
+          <t>AM29JULI2026</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1206,23 +1206,23 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS29AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BS30AGUSTUS2026</t>
+          <t>AM30JULI2026</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1231,23 +1231,23 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS30AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BS31AGUSTUS2026</t>
+          <t>AM31JULI2026</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>371222</v>
+        <v>371219</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1256,14 +1256,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS31AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>14664</v>
+        <v>14655</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1306,23 +1306,23 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CD01NOVEMBER2025</t>
+          <t>JS01NOVEMBER2026</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1331,23 +1331,23 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS01NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CD02NOVEMBER2025</t>
+          <t>JS02NOVEMBER2026</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1356,19 +1356,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS02NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CD03NOVEMBER2025</t>
+          <t>JS03NOVEMBER2026</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1381,19 +1381,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS03NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CD04NOVEMBER2025</t>
+          <t>JS04NOVEMBER2026</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1406,19 +1406,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS04NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CD05NOVEMBER2025</t>
+          <t>JS05NOVEMBER2026</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1431,19 +1431,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS05NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CD06NOVEMBER2025</t>
+          <t>JS06NOVEMBER2026</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1456,19 +1456,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS06NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CD07NOVEMBER2025</t>
+          <t>JS07NOVEMBER2026</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1481,19 +1481,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS07NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CD08NOVEMBER2025</t>
+          <t>JS08NOVEMBER2026</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1506,19 +1506,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS08NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CD09NOVEMBER2025</t>
+          <t>JS09NOVEMBER2026</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1531,19 +1531,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS09NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CD10NOVEMBER2025</t>
+          <t>JS10NOVEMBER2026</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1556,19 +1556,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS10NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CD11NOVEMBER2025</t>
+          <t>JS11NOVEMBER2026</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1581,19 +1581,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS11NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CD12NOVEMBER2025</t>
+          <t>JS12NOVEMBER2026</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1606,19 +1606,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS12NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CD13NOVEMBER2025</t>
+          <t>JS13NOVEMBER2026</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1631,19 +1631,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS13NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CD14NOVEMBER2025</t>
+          <t>JS14NOVEMBER2026</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1656,19 +1656,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS14NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CD15NOVEMBER2025</t>
+          <t>JS15NOVEMBER2026</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1681,19 +1681,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS15NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CD16NOVEMBER2025</t>
+          <t>JS16NOVEMBER2026</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1706,19 +1706,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS16NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CD17NOVEMBER2025</t>
+          <t>JS17NOVEMBER2026</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1731,19 +1731,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS17NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CD18NOVEMBER2025</t>
+          <t>JS18NOVEMBER2026</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1756,19 +1756,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS18NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CD19NOVEMBER2025</t>
+          <t>JS19NOVEMBER2026</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1781,19 +1781,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS19NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CD20NOVEMBER2025</t>
+          <t>JS20NOVEMBER2026</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1806,19 +1806,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS20NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CD21NOVEMBER2025</t>
+          <t>JS21NOVEMBER2026</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1831,19 +1831,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS21NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CD22NOVEMBER2025</t>
+          <t>JS22NOVEMBER2026</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1856,19 +1856,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS22NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CD23NOVEMBER2025</t>
+          <t>JS23NOVEMBER2026</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1881,19 +1881,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS23NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CD24NOVEMBER2025</t>
+          <t>JS24NOVEMBER2026</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS24NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CD25NOVEMBER2025</t>
+          <t>JS25NOVEMBER2026</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1931,19 +1931,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS25NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CD26NOVEMBER2025</t>
+          <t>JS26NOVEMBER2026</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1956,19 +1956,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS26NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CD27NOVEMBER2025</t>
+          <t>JS27NOVEMBER2026</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS27NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CD28NOVEMBER2025</t>
+          <t>JS28NOVEMBER2026</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2006,19 +2006,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS28NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CD29NOVEMBER2025</t>
+          <t>JS29NOVEMBER2026</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2031,19 +2031,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS29NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CD30NOVEMBER2025</t>
+          <t>JS30NOVEMBER2026</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2056,23 +2056,23 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS30NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>367702</v>
+        <v>14664</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2081,23 +2081,23 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>14666</v>
+        <v>940</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2106,23 +2106,23 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>DC01OKTOBER2025</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>934</v>
+        <v>3850</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2131,23 +2131,23 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC01OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>JS01NOVEMBER2026</t>
+          <t>DC02OKTOBER2025</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2156,23 +2156,23 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS01NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC02OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>JS02NOVEMBER2026</t>
+          <t>DC03OKTOBER2025</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2181,23 +2181,23 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS02NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC03OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>JS03NOVEMBER2026</t>
+          <t>DC04OKTOBER2025</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2206,23 +2206,23 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS03NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC04OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>JS04NOVEMBER2026</t>
+          <t>DC05OKTOBER2025</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2231,23 +2231,23 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS04NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC05OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>JS05NOVEMBER2026</t>
+          <t>DC06OKTOBER2025</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2256,23 +2256,23 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS05NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC06OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JS06NOVEMBER2026</t>
+          <t>DC07OKTOBER2025</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2281,23 +2281,23 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS06NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC07OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JS07NOVEMBER2026</t>
+          <t>DC08OKTOBER2025</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2306,23 +2306,23 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS07NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC08OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>JS08NOVEMBER2026</t>
+          <t>DC09OKTOBER2025</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2331,23 +2331,23 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS08NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC09OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>JS09NOVEMBER2026</t>
+          <t>DC10OKTOBER2025</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2356,23 +2356,23 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS09NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC10OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JS10NOVEMBER2026</t>
+          <t>DC11OKTOBER2025</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2381,23 +2381,23 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS10NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC11OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JS11NOVEMBER2026</t>
+          <t>DC12OKTOBER2025</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2406,23 +2406,23 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS11NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC12OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>JS12NOVEMBER2026</t>
+          <t>DC13OKTOBER2025</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2431,23 +2431,23 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS12NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC13OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JS13NOVEMBER2026</t>
+          <t>DC14OKTOBER2025</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2456,23 +2456,23 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS13NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC14OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JS14NOVEMBER2026</t>
+          <t>DC15OKTOBER2025</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2481,23 +2481,23 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS14NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC15OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JS15NOVEMBER2026</t>
+          <t>DC16OKTOBER2025</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2506,23 +2506,23 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS15NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC16OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JS16NOVEMBER2026</t>
+          <t>DC17OKTOBER2025</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2531,23 +2531,23 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS16NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC17OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JS17NOVEMBER2026</t>
+          <t>DC18OKTOBER2025</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2556,23 +2556,23 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS17NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC18OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JS18NOVEMBER2026</t>
+          <t>DC19OKTOBER2025</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2581,23 +2581,23 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS18NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JS19NOVEMBER2026</t>
+          <t>DC20OKTOBER2025</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2606,23 +2606,23 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS19NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JS20NOVEMBER2026</t>
+          <t>DC21OKTOBER2025</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2631,23 +2631,23 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS20NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JS21NOVEMBER2026</t>
+          <t>DC22OKTOBER2025</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2656,23 +2656,23 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS21NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>JS22NOVEMBER2026</t>
+          <t>DC23OKTOBER2025</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2681,23 +2681,23 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS22NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>JS23NOVEMBER2026</t>
+          <t>DC24OKTOBER2025</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2706,23 +2706,23 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS23NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>JS24NOVEMBER2026</t>
+          <t>DC25OKTOBER2025</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2731,23 +2731,23 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS24NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>JS25NOVEMBER2026</t>
+          <t>DC26OKTOBER2025</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2756,23 +2756,23 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS25NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JS26NOVEMBER2026</t>
+          <t>DC27OKTOBER2025</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2781,23 +2781,23 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS26NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>JS27NOVEMBER2026</t>
+          <t>DC28OKTOBER2025</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2806,23 +2806,23 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS27NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JS28NOVEMBER2026</t>
+          <t>DC29OKTOBER2025</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2831,23 +2831,23 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS28NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JS29NOVEMBER2026</t>
+          <t>DC30OKTOBER2025</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2856,23 +2856,23 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS29NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JS30NOVEMBER2026</t>
+          <t>DC31OKTOBER2025</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2881,23 +2881,23 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS30NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC31OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>14664</v>
+        <v>367705</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2906,23 +2906,23 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/dadangconelo</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>943</v>
+        <v>14427</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2931,23 +2931,23 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LX19OKTOBER2025</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>367820</v>
+        <v>933</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2956,23 +2956,23 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>LX20OKTOBER2025</t>
+          <t>ER01DESEMBER2026</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>371223</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2981,23 +2981,23 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER01DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>LX21OKTOBER2025</t>
+          <t>ER02DESEMBER2026</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>367820</v>
+        <v>371223</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3006,23 +3006,23 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER02DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>LX22OKTOBER2025</t>
+          <t>ER03DESEMBER2026</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>371223</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3031,23 +3031,23 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER03DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>LX23OKTOBER2025</t>
+          <t>ER04DESEMBER2026</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>371223</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3056,23 +3056,23 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER04DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LX24OKTOBER2025</t>
+          <t>ER05DESEMBER2026</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>371223</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER05DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>LX25OKTOBER2025</t>
+          <t>ER06DESEMBER2026</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>371223</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3106,23 +3106,23 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER06DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>LX26OKTOBER2025</t>
+          <t>ER07DESEMBER2026</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>371223</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3131,23 +3131,23 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER07DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LX27OKTOBER2025</t>
+          <t>ER08DESEMBER2026</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>371223</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3156,23 +3156,23 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER08DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LX28OKTOBER2025</t>
+          <t>ER09DESEMBER2026</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>371223</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3181,23 +3181,23 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER09DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LX29OKTOBER2025</t>
+          <t>ER10DESEMBER2026</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>371223</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3206,23 +3206,23 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER10DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>LX30OKTOBER2025</t>
+          <t>ER11DESEMBER2026</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>367766</v>
+        <v>371223</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3231,23 +3231,23 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER11DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>lazylazyloxy</t>
+          <t>ER12DESEMBER2026</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>367763</v>
+        <v>371223</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3256,23 +3256,23 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER12DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>ER13DESEMBER2026</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>7475</v>
+        <v>371223</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER13DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3293,11 +3293,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>ER14DESEMBER2026</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>933</v>
+        <v>371223</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER14DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ER01DESEMBER2026</t>
+          <t>ER15DESEMBER2026</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER01DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER15DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ER02DESEMBER2026</t>
+          <t>ER16DESEMBER2026</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER02DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER16DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ER03DESEMBER2026</t>
+          <t>ER17DESEMBER2026</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER03DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER17DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ER04DESEMBER2026</t>
+          <t>ER18DESEMBER2026</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER04DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER18DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ER05DESEMBER2026</t>
+          <t>ER19DESEMBER2026</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER05DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER19DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ER06DESEMBER2026</t>
+          <t>ER20DESEMBER2026</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER06DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER20DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ER07DESEMBER2026</t>
+          <t>ER21DESEMBER2026</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER07DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER21DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ER08DESEMBER2026</t>
+          <t>ER22DESEMBER2026</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER08DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER22DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ER09DESEMBER2026</t>
+          <t>ER23DESEMBER2026</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER09DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER23DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ER10DESEMBER2026</t>
+          <t>ER24DESEMBER2026</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER10DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER24DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ER11DESEMBER2026</t>
+          <t>ER25DESEMBER2026</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER11DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER25DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ER12DESEMBER2026</t>
+          <t>ER26DESEMBER2026</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER12DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER26DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ER13DESEMBER2026</t>
+          <t>ER27DESEMBER2026</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER13DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER27DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ER14DESEMBER2026</t>
+          <t>ER28DESEMBER2026</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER14DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER28DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ER15DESEMBER2026</t>
+          <t>ER29DESEMBER2026</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER15DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER29DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ER16DESEMBER2026</t>
+          <t>ER30DESEMBER2026</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER16DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER30DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ER17DESEMBER2026</t>
+          <t>ER31DESEMBER2026</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER17DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER31DESEMBER2026</t>
         </is>
       </c>
     </row>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ER18DESEMBER2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>371223</v>
+        <v>14663</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3756,23 +3756,23 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER18DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ER19DESEMBER2026</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>371223</v>
+        <v>936</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3781,23 +3781,23 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER19DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ER20DESEMBER2026</t>
+          <t>BS01AGUSTUS2026</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3806,23 +3806,23 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER20DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ER21DESEMBER2026</t>
+          <t>BS02AGUSTUS2026</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3831,23 +3831,23 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER21DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ER22DESEMBER2026</t>
+          <t>BS03AGUSTUS2026</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3856,23 +3856,23 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER22DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ER23DESEMBER2026</t>
+          <t>BS04AGUSTUS2026</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3881,23 +3881,23 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER23DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ER24DESEMBER2026</t>
+          <t>BS05AGUSTUS2026</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3906,23 +3906,23 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER24DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ER25DESEMBER2026</t>
+          <t>BS06AGUSTUS2026</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3931,23 +3931,23 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER25DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ER26DESEMBER2026</t>
+          <t>BS07AGUSTUS2026</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3956,23 +3956,23 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER26DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ER27DESEMBER2026</t>
+          <t>BS08AGUSTUS2026</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3981,23 +3981,23 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER27DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ER28DESEMBER2026</t>
+          <t>BS09AGUSTUS2026</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4006,23 +4006,23 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER28DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ER29DESEMBER2026</t>
+          <t>BS10AGUSTUS2026</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4031,23 +4031,23 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER29DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ER30DESEMBER2026</t>
+          <t>BS11AGUSTUS2026</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4056,23 +4056,23 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER30DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ER31DESEMBER2026</t>
+          <t>BS12AGUSTUS2026</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4081,23 +4081,23 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER31DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>BS13AGUSTUS2026</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>14663</v>
+        <v>371222</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4106,23 +4106,23 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>BS14AGUSTUS2026</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>934</v>
+        <v>371222</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4131,23 +4131,23 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>GG01NOVEMBER2025</t>
+          <t>BS15AGUSTUS2026</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3850</v>
+        <v>371222</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4156,23 +4156,23 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>GG02NOVEMBER2025</t>
+          <t>BS16AGUSTUS2026</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3850</v>
+        <v>371222</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4181,23 +4181,23 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>GG03NOVEMBER2025</t>
+          <t>BS17AGUSTUS2026</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4206,23 +4206,23 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>GG04NOVEMBER2025</t>
+          <t>BS18AGUSTUS2026</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4231,23 +4231,23 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>GG05NOVEMBER2025</t>
+          <t>BS19AGUSTUS2026</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4256,23 +4256,23 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>GG06NOVEMBER2025</t>
+          <t>BS20AGUSTUS2026</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4281,23 +4281,23 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>GG07NOVEMBER2025</t>
+          <t>BS21AGUSTUS2026</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4306,23 +4306,23 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS21AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>GG08NOVEMBER2025</t>
+          <t>BS22AGUSTUS2026</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4331,23 +4331,23 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS22AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>GG09NOVEMBER2025</t>
+          <t>BS23AGUSTUS2026</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4356,23 +4356,23 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS23AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>GG10NOVEMBER2025</t>
+          <t>BS24AGUSTUS2026</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4381,23 +4381,23 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS24AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>GG11NOVEMBER2025</t>
+          <t>BS25AGUSTUS2026</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4406,23 +4406,23 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS25AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>GG12NOVEMBER2025</t>
+          <t>BS26AGUSTUS2026</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4431,23 +4431,23 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS26AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>GG13NOVEMBER2025</t>
+          <t>BS27AGUSTUS2026</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4456,23 +4456,23 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS27AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>GG14NOVEMBER2025</t>
+          <t>BS28AGUSTUS2026</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4481,23 +4481,23 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS28AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>GG15NOVEMBER2025</t>
+          <t>BS29AGUSTUS2026</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4506,23 +4506,23 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS29AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>GG16NOVEMBER2025</t>
+          <t>BS30AGUSTUS2026</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4531,23 +4531,23 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS30AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>GG17NOVEMBER2025</t>
+          <t>BS31AGUSTUS2026</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>371223</v>
+        <v>371222</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4556,23 +4556,23 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS31AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>GG18NOVEMBER2025</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>371223</v>
+        <v>14664</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -4593,11 +4593,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>GG19NOVEMBER2025</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>371223</v>
+        <v>934</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
@@ -4618,11 +4618,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>GG20NOVEMBER2025</t>
+          <t>GG01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -4643,11 +4643,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>GG21NOVEMBER2025</t>
+          <t>GG02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>371223</v>
+        <v>3850</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>GG22NOVEMBER2025</t>
+          <t>GG03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>GG23NOVEMBER2025</t>
+          <t>GG04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>GG24NOVEMBER2025</t>
+          <t>GG05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>GG25NOVEMBER2025</t>
+          <t>GG06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>GG26NOVEMBER2025</t>
+          <t>GG07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>GG27NOVEMBER2025</t>
+          <t>GG08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>GG28NOVEMBER2025</t>
+          <t>GG09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>GG29NOVEMBER2025</t>
+          <t>GG10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>GG30NOVEMBER2025</t>
+          <t>GG11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -4893,11 +4893,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>GG12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>14664</v>
+        <v>371223</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4906,23 +4906,23 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>GG13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>933</v>
+        <v>371223</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4931,23 +4931,23 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>AM01JULI2026</t>
+          <t>GG14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4956,23 +4956,23 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AM02JULI2026</t>
+          <t>GG15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4981,23 +4981,23 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AM03JULI2026</t>
+          <t>GG16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5006,23 +5006,23 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AM04JULI2026</t>
+          <t>GG17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5031,23 +5031,23 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AM05JULI2026</t>
+          <t>GG18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5056,23 +5056,23 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AM06JULI2026</t>
+          <t>GG19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5081,23 +5081,23 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>AM07JULI2026</t>
+          <t>GG20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5106,23 +5106,23 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AM08JULI2026</t>
+          <t>GG21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -5131,23 +5131,23 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AM09JULI2026</t>
+          <t>GG22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -5156,23 +5156,23 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AM10JULI2026</t>
+          <t>GG23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5181,23 +5181,23 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AM11JULI2026</t>
+          <t>GG24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5206,23 +5206,23 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AM12JULI2026</t>
+          <t>GG25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -5231,23 +5231,23 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AM13JULI2026</t>
+          <t>GG26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -5256,23 +5256,23 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AM14JULI2026</t>
+          <t>GG27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5281,23 +5281,23 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AM15JULI2026</t>
+          <t>GG28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -5306,23 +5306,23 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AM16JULI2026</t>
+          <t>GG29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -5331,23 +5331,23 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AM17JULI2026</t>
+          <t>GG30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>371219</v>
+        <v>371223</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5356,23 +5356,23 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AM18JULI2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>371219</v>
+        <v>14664</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5381,23 +5381,23 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AM19JULI2026</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>371219</v>
+        <v>931</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5406,23 +5406,23 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>AM20JULI2026</t>
+          <t>DT01MEI2026</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>371219</v>
+        <v>371218</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5431,23 +5431,23 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>AM21JULI2026</t>
+          <t>DT02MEI2026</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>371219</v>
+        <v>371218</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5456,23 +5456,23 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>AM22JULI2026</t>
+          <t>DT03MEI2026</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>371219</v>
+        <v>371218</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5481,23 +5481,23 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>AM23JULI2026</t>
+          <t>DT04MEI2026</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>371219</v>
+        <v>371218</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5506,23 +5506,23 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AM24JULI2026</t>
+          <t>DT05MEI2026</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>371219</v>
+        <v>371218</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5531,23 +5531,23 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>AM25JULI2026</t>
+          <t>DT06MEI2026</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>371219</v>
+        <v>371218</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5556,23 +5556,23 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>AM26JULI2026</t>
+          <t>DT07MEI2026</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>371219</v>
+        <v>371218</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5581,23 +5581,23 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>AM27JULI2026</t>
+          <t>DT08MEI2026</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>371219</v>
+        <v>371218</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5606,23 +5606,23 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>AM28JULI2026</t>
+          <t>DT09MEI2026</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>371219</v>
+        <v>371218</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5631,23 +5631,23 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>AM29JULI2026</t>
+          <t>DT10MEI2026</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>371219</v>
+        <v>371218</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5656,23 +5656,23 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>AM30JULI2026</t>
+          <t>DT11MEI2026</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>371219</v>
+        <v>371218</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5681,23 +5681,23 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>AM31JULI2026</t>
+          <t>DT12MEI2026</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>371219</v>
+        <v>371218</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5706,23 +5706,23 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>DT13MEI2026</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>14655</v>
+        <v>371218</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
         </is>
       </c>
     </row>
@@ -5743,11 +5743,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>DT14MEI2026</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>931</v>
+        <v>371218</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DT01MEI2026</t>
+          <t>DT15MEI2026</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DT02MEI2026</t>
+          <t>DT16MEI2026</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DT03MEI2026</t>
+          <t>DT17MEI2026</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5843,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DT04MEI2026</t>
+          <t>DT18MEI2026</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
         </is>
       </c>
     </row>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DT05MEI2026</t>
+          <t>DT19MEI2026</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>DT06MEI2026</t>
+          <t>DT20MEI2026</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
         </is>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DT07MEI2026</t>
+          <t>DT21MEI2026</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DT08MEI2026</t>
+          <t>DT22MEI2026</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
         </is>
       </c>
     </row>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>DT09MEI2026</t>
+          <t>DT23MEI2026</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
         </is>
       </c>
     </row>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DT10MEI2026</t>
+          <t>DT24MEI2026</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
         </is>
       </c>
     </row>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DT11MEI2026</t>
+          <t>DT25MEI2026</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
         </is>
       </c>
     </row>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>DT12MEI2026</t>
+          <t>DT26MEI2026</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>DT13MEI2026</t>
+          <t>DT27MEI2026</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>DT14MEI2026</t>
+          <t>DT28MEI2026</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
         </is>
       </c>
     </row>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DT15MEI2026</t>
+          <t>DT29MEI2026</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
         </is>
       </c>
     </row>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DT16MEI2026</t>
+          <t>DT30MEI2026</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
         </is>
       </c>
     </row>
@@ -6168,7 +6168,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>DT17MEI2026</t>
+          <t>DT31MEI2026</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
         </is>
       </c>
     </row>
@@ -6193,11 +6193,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>DT18MEI2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>371218</v>
+        <v>14651</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -6206,23 +6206,23 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>DT19MEI2026</t>
+          <t>.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>371218</v>
+        <v>943</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6231,23 +6231,23 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>DT20MEI2026</t>
+          <t>LX19OKTOBER2025</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>371218</v>
+        <v>367820</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -6256,23 +6256,23 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>DT21MEI2026</t>
+          <t>LX20OKTOBER2025</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>371218</v>
+        <v>1</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -6281,23 +6281,23 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>DT22MEI2026</t>
+          <t>LX21OKTOBER2025</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>371218</v>
+        <v>367820</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -6306,23 +6306,23 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>DT23MEI2026</t>
+          <t>LX22OKTOBER2025</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>371218</v>
+        <v>1</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -6331,23 +6331,23 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>DT24MEI2026</t>
+          <t>LX23OKTOBER2025</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>371218</v>
+        <v>1</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -6356,23 +6356,23 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DT25MEI2026</t>
+          <t>LX24OKTOBER2025</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>371218</v>
+        <v>1</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -6381,23 +6381,23 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>DT26MEI2026</t>
+          <t>LX25OKTOBER2025</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>371218</v>
+        <v>1</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -6406,23 +6406,23 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>DT27MEI2026</t>
+          <t>LX26OKTOBER2025</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>371218</v>
+        <v>1</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6431,23 +6431,23 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>DT28MEI2026</t>
+          <t>LX27OKTOBER2025</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>371218</v>
+        <v>1</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -6456,23 +6456,23 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>DT29MEI2026</t>
+          <t>LX28OKTOBER2025</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>371218</v>
+        <v>1</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6481,23 +6481,23 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>DT30MEI2026</t>
+          <t>LX29OKTOBER2025</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>371218</v>
+        <v>1</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6506,23 +6506,23 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>DT31MEI2026</t>
+          <t>LX30OKTOBER2025</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>371218</v>
+        <v>367766</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6531,23 +6531,23 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>lazylazyloxy</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>14651</v>
+        <v>367763</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6556,23 +6556,23 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>940</v>
+        <v>7475</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6581,23 +6581,23 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>DC01OKTOBER2025</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>3850</v>
+        <v>936</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6606,19 +6606,19 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC01OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>DC02OKTOBER2025</t>
+          <t>CD01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -6631,19 +6631,19 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC02OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>DC03OKTOBER2025</t>
+          <t>CD02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -6656,23 +6656,23 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC03OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>DC04OKTOBER2025</t>
+          <t>CD03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -6681,23 +6681,23 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC04OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>DC05OKTOBER2025</t>
+          <t>CD04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6706,23 +6706,23 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC05OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>DC06OKTOBER2025</t>
+          <t>CD05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -6731,23 +6731,23 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC06OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>DC07OKTOBER2025</t>
+          <t>CD06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -6756,23 +6756,23 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC07OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>DC08OKTOBER2025</t>
+          <t>CD07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -6781,23 +6781,23 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC08OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>DC09OKTOBER2025</t>
+          <t>CD08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -6806,23 +6806,23 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC09OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>DC10OKTOBER2025</t>
+          <t>CD09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -6831,23 +6831,23 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC10OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>DC11OKTOBER2025</t>
+          <t>CD10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -6856,23 +6856,23 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC11OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>DC12OKTOBER2025</t>
+          <t>CD11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -6881,23 +6881,23 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC12OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>DC13OKTOBER2025</t>
+          <t>CD12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -6906,23 +6906,23 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC13OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>DC14OKTOBER2025</t>
+          <t>CD13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -6931,23 +6931,23 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC14OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>DC15OKTOBER2025</t>
+          <t>CD14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -6956,23 +6956,23 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC15OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>DC16OKTOBER2025</t>
+          <t>CD15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -6981,23 +6981,23 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC16OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>DC17OKTOBER2025</t>
+          <t>CD16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -7006,23 +7006,23 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC17OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>DC18OKTOBER2025</t>
+          <t>CD17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -7031,23 +7031,23 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC18OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>DC19OKTOBER2025</t>
+          <t>CD18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -7056,23 +7056,23 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>DC20OKTOBER2025</t>
+          <t>CD19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -7081,23 +7081,23 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>DC21OKTOBER2025</t>
+          <t>CD20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -7106,23 +7106,23 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>DC22OKTOBER2025</t>
+          <t>CD21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -7131,23 +7131,23 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>DC23OKTOBER2025</t>
+          <t>CD22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -7156,23 +7156,23 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>DC24OKTOBER2025</t>
+          <t>CD23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -7181,23 +7181,23 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>DC25OKTOBER2025</t>
+          <t>CD24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -7206,23 +7206,23 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>DC26OKTOBER2025</t>
+          <t>CD25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -7231,23 +7231,23 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>DC27OKTOBER2025</t>
+          <t>CD26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -7256,23 +7256,23 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>DC28OKTOBER2025</t>
+          <t>CD27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -7281,23 +7281,23 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>DC29OKTOBER2025</t>
+          <t>CD28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -7306,23 +7306,23 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>DC30OKTOBER2025</t>
+          <t>CD29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -7331,23 +7331,23 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>DC31OKTOBER2025</t>
+          <t>CD30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>3850</v>
+        <v>371223</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -7356,23 +7356,23 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC31OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>367705</v>
+        <v>367702</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -7381,14 +7381,14 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/dadangconelo</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>14427</v>
+        <v>14666</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -9122,7 +9122,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>20194</v>
+        <v>20134</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -11547,7 +11547,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -11556,19 +11556,19 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>WN01OKTOBER2026</t>
+          <t>TT01JANUARI2026</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -11581,19 +11581,19 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN01OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT01JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>WN02OKTOBER2026</t>
+          <t>TT02JANUARI2026</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -11606,19 +11606,19 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN02OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT02JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>WN03OKTOBER2026</t>
+          <t>TT03JANUARI2026</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -11631,19 +11631,19 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN03OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT03JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>WN04OKTOBER2026</t>
+          <t>TT04JANUARI2026</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -11656,19 +11656,19 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN04OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT04JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>WN05OKTOBER2026</t>
+          <t>TT05JANUARI2026</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -11681,19 +11681,19 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN05OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT05JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>WN06OKTOBER2026</t>
+          <t>TT06JANUARI2026</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -11706,19 +11706,19 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN06OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT06JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>WN07OKTOBER2026</t>
+          <t>TT07JANUARI2026</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -11731,19 +11731,19 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN07OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT07JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>WN08OKTOBER2026</t>
+          <t>TT08JANUARI2026</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -11756,19 +11756,19 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN08OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT08JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>WN09OKTOBER2026</t>
+          <t>TT09JANUARI2026</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -11781,19 +11781,19 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN09OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT09JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>WN10OKTOBER2026</t>
+          <t>TT10JANUARI2026</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -11806,19 +11806,19 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN10OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT10JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>WN11OKTOBER2026</t>
+          <t>TT11JANUARI2026</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -11831,19 +11831,19 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN11OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT11JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>WN12OKTOBER2026</t>
+          <t>TT12JANUARI2026</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -11856,19 +11856,19 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN12OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT12JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>WN13OKTOBER2026</t>
+          <t>TT13JANUARI2026</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -11881,19 +11881,19 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN13OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT13JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>WN14OKTOBER2026</t>
+          <t>TT14JANUARI2026</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -11906,19 +11906,19 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN14OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT14JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>WN15OKTOBER2026</t>
+          <t>TT15JANUARI2026</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -11931,19 +11931,19 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN15OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT15JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>WN16OKTOBER2026</t>
+          <t>TT16JANUARI2026</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -11956,19 +11956,19 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN16OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT16JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>WN17OKTOBER2026</t>
+          <t>TT17JANUARI2026</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -11981,19 +11981,19 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN17OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT17JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>WN18OKTOBER2026</t>
+          <t>TT18JANUARI2026</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -12006,19 +12006,19 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN18OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT18JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>WN19OKTOBER2026</t>
+          <t>TT19JANUARI2026</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -12031,19 +12031,19 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN19OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT19JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>WN20OKTOBER2026</t>
+          <t>TT20JANUARI2026</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -12056,19 +12056,19 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN20OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT20JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>WN21OKTOBER2026</t>
+          <t>TT21JANUARI2026</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -12081,19 +12081,19 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN21OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT21JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>WN22OKTOBER2026</t>
+          <t>TT22JANUARI2026</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -12106,19 +12106,19 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN22OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT22JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>WN23OKTOBER2026</t>
+          <t>TT23JANUARI2026</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -12131,19 +12131,19 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN23OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT23JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>WN24OKTOBER2026</t>
+          <t>TT24JANUARI2026</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -12156,19 +12156,19 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN24OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT24JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>WN25OKTOBER2026</t>
+          <t>TT25JANUARI2026</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -12181,19 +12181,19 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN25OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT25JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>WN26OKTOBER2026</t>
+          <t>TT26JANUARI2026</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -12206,19 +12206,19 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN26OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT26JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>WN27OKTOBER2026</t>
+          <t>TT27JANUARI2026</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -12231,19 +12231,19 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN27OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT27JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>WN28OKTOBER2026</t>
+          <t>TT28JANUARI2026</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -12256,19 +12256,19 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN28OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT28JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>WN29OKTOBER2026</t>
+          <t>TT29JANUARI2026</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -12281,19 +12281,19 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN29OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT29JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>WN30OKTOBER2026</t>
+          <t>TT30JANUARI2026</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -12306,19 +12306,19 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN30OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT30JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>WN31OKTOBER2026</t>
+          <t>TT31JANUARI2026</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -12331,14 +12331,14 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN31OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT31JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>14661</v>
+        <v>14459</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -12356,14 +12356,14 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -12381,19 +12381,19 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>TT01JANUARI2026</t>
+          <t>WN01OKTOBER2026</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -12406,19 +12406,19 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT01JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN01OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>TT02JANUARI2026</t>
+          <t>WN02OKTOBER2026</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -12431,19 +12431,19 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT02JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN02OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>TT03JANUARI2026</t>
+          <t>WN03OKTOBER2026</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -12456,19 +12456,19 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT03JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN03OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>TT04JANUARI2026</t>
+          <t>WN04OKTOBER2026</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -12481,19 +12481,19 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT04JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN04OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TT05JANUARI2026</t>
+          <t>WN05OKTOBER2026</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -12506,19 +12506,19 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT05JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN05OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>TT06JANUARI2026</t>
+          <t>WN06OKTOBER2026</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -12531,19 +12531,19 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT06JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN06OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>TT07JANUARI2026</t>
+          <t>WN07OKTOBER2026</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -12556,19 +12556,19 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT07JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN07OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>TT08JANUARI2026</t>
+          <t>WN08OKTOBER2026</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -12581,19 +12581,19 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT08JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN08OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>TT09JANUARI2026</t>
+          <t>WN09OKTOBER2026</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -12606,19 +12606,19 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT09JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN09OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>TT10JANUARI2026</t>
+          <t>WN10OKTOBER2026</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -12631,19 +12631,19 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT10JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN10OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>TT11JANUARI2026</t>
+          <t>WN11OKTOBER2026</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -12656,19 +12656,19 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT11JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN11OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>TT12JANUARI2026</t>
+          <t>WN12OKTOBER2026</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -12681,19 +12681,19 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT12JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN12OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>TT13JANUARI2026</t>
+          <t>WN13OKTOBER2026</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -12706,19 +12706,19 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT13JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN13OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>TT14JANUARI2026</t>
+          <t>WN14OKTOBER2026</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -12731,19 +12731,19 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT14JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN14OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>TT15JANUARI2026</t>
+          <t>WN15OKTOBER2026</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -12756,19 +12756,19 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT15JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN15OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>TT16JANUARI2026</t>
+          <t>WN16OKTOBER2026</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -12781,19 +12781,19 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT16JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN16OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>TT17JANUARI2026</t>
+          <t>WN17OKTOBER2026</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -12806,19 +12806,19 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT17JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN17OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>TT18JANUARI2026</t>
+          <t>WN18OKTOBER2026</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -12831,19 +12831,19 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT18JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN18OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>TT19JANUARI2026</t>
+          <t>WN19OKTOBER2026</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -12856,19 +12856,19 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT19JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN19OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>TT20JANUARI2026</t>
+          <t>WN20OKTOBER2026</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -12881,19 +12881,19 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT20JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN20OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>TT21JANUARI2026</t>
+          <t>WN21OKTOBER2026</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -12906,19 +12906,19 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT21JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN21OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>TT22JANUARI2026</t>
+          <t>WN22OKTOBER2026</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -12931,19 +12931,19 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT22JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN22OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>TT23JANUARI2026</t>
+          <t>WN23OKTOBER2026</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -12956,19 +12956,19 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT23JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN23OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>TT24JANUARI2026</t>
+          <t>WN24OKTOBER2026</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -12981,19 +12981,19 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT24JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN24OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>TT25JANUARI2026</t>
+          <t>WN25OKTOBER2026</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -13006,19 +13006,19 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT25JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN25OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>TT26JANUARI2026</t>
+          <t>WN26OKTOBER2026</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -13031,19 +13031,19 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT26JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN26OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>TT27JANUARI2026</t>
+          <t>WN27OKTOBER2026</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -13056,19 +13056,19 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT27JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN27OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>TT28JANUARI2026</t>
+          <t>WN28OKTOBER2026</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -13081,19 +13081,19 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT28JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN28OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>TT29JANUARI2026</t>
+          <t>WN29OKTOBER2026</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -13106,19 +13106,19 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT29JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN29OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>TT30JANUARI2026</t>
+          <t>WN30OKTOBER2026</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -13131,19 +13131,19 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT30JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN30OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>TT31JANUARI2026</t>
+          <t>WN31OKTOBER2026</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -13156,14 +13156,14 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT31JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN31OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -13172,7 +13172,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>14459</v>
+        <v>14661</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/update_github_file.py</t>
         </is>
       </c>
     </row>

--- a/data/uppermoon77_all_raw.xlsx
+++ b/data/uppermoon77_all_raw.xlsx
@@ -1288,7 +1288,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1306,23 +1306,23 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BS01AGUSTUS2026</t>
+          <t>ER01DESEMBER2026</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1331,23 +1331,23 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER01DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BS02AGUSTUS2026</t>
+          <t>ER02DESEMBER2026</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1356,23 +1356,23 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER02DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BS03AGUSTUS2026</t>
+          <t>ER03DESEMBER2026</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1381,23 +1381,23 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER03DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BS04AGUSTUS2026</t>
+          <t>ER04DESEMBER2026</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1406,23 +1406,23 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER04DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BS05AGUSTUS2026</t>
+          <t>ER05DESEMBER2026</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1431,23 +1431,23 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER05DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BS06AGUSTUS2026</t>
+          <t>ER06DESEMBER2026</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1456,23 +1456,23 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER06DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BS07AGUSTUS2026</t>
+          <t>ER07DESEMBER2026</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1481,23 +1481,23 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER07DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BS08AGUSTUS2026</t>
+          <t>ER08DESEMBER2026</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1506,23 +1506,23 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER08DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BS09AGUSTUS2026</t>
+          <t>ER09DESEMBER2026</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1531,23 +1531,23 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER09DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BS10AGUSTUS2026</t>
+          <t>ER10DESEMBER2026</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1556,23 +1556,23 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER10DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BS11AGUSTUS2026</t>
+          <t>ER11DESEMBER2026</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1581,23 +1581,23 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER11DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BS12AGUSTUS2026</t>
+          <t>ER12DESEMBER2026</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1606,23 +1606,23 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER12DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BS13AGUSTUS2026</t>
+          <t>ER13DESEMBER2026</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1631,23 +1631,23 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER13DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BS14AGUSTUS2026</t>
+          <t>ER14DESEMBER2026</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1656,23 +1656,23 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER14DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BS15AGUSTUS2026</t>
+          <t>ER15DESEMBER2026</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1681,23 +1681,23 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER15DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BS16AGUSTUS2026</t>
+          <t>ER16DESEMBER2026</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1706,23 +1706,23 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER16DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BS17AGUSTUS2026</t>
+          <t>ER17DESEMBER2026</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1731,23 +1731,23 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER17DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BS18AGUSTUS2026</t>
+          <t>ER18DESEMBER2026</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1756,23 +1756,23 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER18DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BS19AGUSTUS2026</t>
+          <t>ER19DESEMBER2026</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1781,23 +1781,23 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER19DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BS20AGUSTUS2026</t>
+          <t>ER20DESEMBER2026</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1806,23 +1806,23 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER20DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BS21AGUSTUS2026</t>
+          <t>ER21DESEMBER2026</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1831,23 +1831,23 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS21AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER21DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BS22AGUSTUS2026</t>
+          <t>ER22DESEMBER2026</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1856,23 +1856,23 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS22AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER22DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BS23AGUSTUS2026</t>
+          <t>ER23DESEMBER2026</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1881,23 +1881,23 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS23AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER23DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BS24AGUSTUS2026</t>
+          <t>ER24DESEMBER2026</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1906,23 +1906,23 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS24AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER24DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BS25AGUSTUS2026</t>
+          <t>ER25DESEMBER2026</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1931,23 +1931,23 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS25AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER25DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BS26AGUSTUS2026</t>
+          <t>ER26DESEMBER2026</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1956,23 +1956,23 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS26AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER26DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BS27AGUSTUS2026</t>
+          <t>ER27DESEMBER2026</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1981,23 +1981,23 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS27AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER27DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BS28AGUSTUS2026</t>
+          <t>ER28DESEMBER2026</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2006,23 +2006,23 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS28AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER28DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BS29AGUSTUS2026</t>
+          <t>ER29DESEMBER2026</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2031,23 +2031,23 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS29AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER29DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BS30AGUSTUS2026</t>
+          <t>ER30DESEMBER2026</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2056,23 +2056,23 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS30AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER30DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BS31AGUSTUS2026</t>
+          <t>ER31DESEMBER2026</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>365141</v>
+        <v>365142</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2081,14 +2081,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS31AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER31DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>14664</v>
+        <v>14663</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2106,14 +2106,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2131,23 +2131,23 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CD01NOVEMBER2025</t>
+          <t>JS01NOVEMBER2026</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3850</v>
+        <v>365142</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2156,23 +2156,23 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS01NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CD02NOVEMBER2025</t>
+          <t>JS02NOVEMBER2026</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3850</v>
+        <v>365142</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2181,23 +2181,23 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS02NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CD03NOVEMBER2025</t>
+          <t>JS03NOVEMBER2026</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3850</v>
+        <v>365142</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2206,23 +2206,23 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS03NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CD04NOVEMBER2025</t>
+          <t>JS04NOVEMBER2026</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3850</v>
+        <v>365142</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2231,23 +2231,23 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS04NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CD05NOVEMBER2025</t>
+          <t>JS05NOVEMBER2026</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3850</v>
+        <v>365142</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2256,23 +2256,23 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS05NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CD06NOVEMBER2025</t>
+          <t>JS06NOVEMBER2026</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3850</v>
+        <v>365142</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2281,19 +2281,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS06NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CD07NOVEMBER2025</t>
+          <t>JS07NOVEMBER2026</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2306,19 +2306,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS07NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CD08NOVEMBER2025</t>
+          <t>JS08NOVEMBER2026</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2331,19 +2331,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS08NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CD09NOVEMBER2025</t>
+          <t>JS09NOVEMBER2026</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2356,19 +2356,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS09NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CD10NOVEMBER2025</t>
+          <t>JS10NOVEMBER2026</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2381,19 +2381,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS10NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CD11NOVEMBER2025</t>
+          <t>JS11NOVEMBER2026</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2406,19 +2406,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS11NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CD12NOVEMBER2025</t>
+          <t>JS12NOVEMBER2026</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2431,19 +2431,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS12NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CD13NOVEMBER2025</t>
+          <t>JS13NOVEMBER2026</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2456,19 +2456,19 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS13NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CD14NOVEMBER2025</t>
+          <t>JS14NOVEMBER2026</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2481,19 +2481,19 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS14NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CD15NOVEMBER2025</t>
+          <t>JS15NOVEMBER2026</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2506,19 +2506,19 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS15NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CD16NOVEMBER2025</t>
+          <t>JS16NOVEMBER2026</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2531,19 +2531,19 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS16NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CD17NOVEMBER2025</t>
+          <t>JS17NOVEMBER2026</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2556,19 +2556,19 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS17NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CD18NOVEMBER2025</t>
+          <t>JS18NOVEMBER2026</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2581,19 +2581,19 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS18NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CD19NOVEMBER2025</t>
+          <t>JS19NOVEMBER2026</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS19NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CD20NOVEMBER2025</t>
+          <t>JS20NOVEMBER2026</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2631,19 +2631,19 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS20NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CD21NOVEMBER2025</t>
+          <t>JS21NOVEMBER2026</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2656,19 +2656,19 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS21NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CD22NOVEMBER2025</t>
+          <t>JS22NOVEMBER2026</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2681,19 +2681,19 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS22NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CD23NOVEMBER2025</t>
+          <t>JS23NOVEMBER2026</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2706,19 +2706,19 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS23NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CD24NOVEMBER2025</t>
+          <t>JS24NOVEMBER2026</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2731,19 +2731,19 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS24NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CD25NOVEMBER2025</t>
+          <t>JS25NOVEMBER2026</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2756,19 +2756,19 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS25NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CD26NOVEMBER2025</t>
+          <t>JS26NOVEMBER2026</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS26NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CD27NOVEMBER2025</t>
+          <t>JS27NOVEMBER2026</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2806,19 +2806,19 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS27NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CD28NOVEMBER2025</t>
+          <t>JS28NOVEMBER2026</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2831,19 +2831,19 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS28NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CD29NOVEMBER2025</t>
+          <t>JS29NOVEMBER2026</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2856,19 +2856,19 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS29NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CD30NOVEMBER2025</t>
+          <t>JS30NOVEMBER2026</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2881,23 +2881,23 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS30NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>367702</v>
+        <v>14664</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2906,23 +2906,23 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>14666</v>
+        <v>936</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2931,23 +2931,23 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>BS01AGUSTUS2026</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>940</v>
+        <v>365141</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2956,23 +2956,23 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DC01OKTOBER2025</t>
+          <t>BS02AGUSTUS2026</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2981,23 +2981,23 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC01OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DC02OKTOBER2025</t>
+          <t>BS03AGUSTUS2026</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3006,23 +3006,23 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC02OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DC03OKTOBER2025</t>
+          <t>BS04AGUSTUS2026</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3031,23 +3031,23 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC03OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DC04OKTOBER2025</t>
+          <t>BS05AGUSTUS2026</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3056,23 +3056,23 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC04OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DC05OKTOBER2025</t>
+          <t>BS06AGUSTUS2026</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC05OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DC06OKTOBER2025</t>
+          <t>BS07AGUSTUS2026</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3106,23 +3106,23 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC06OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DC07OKTOBER2025</t>
+          <t>BS08AGUSTUS2026</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3131,23 +3131,23 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC07OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DC08OKTOBER2025</t>
+          <t>BS09AGUSTUS2026</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3156,23 +3156,23 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC08OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DC09OKTOBER2025</t>
+          <t>BS10AGUSTUS2026</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3181,23 +3181,23 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC09OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DC10OKTOBER2025</t>
+          <t>BS11AGUSTUS2026</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3206,23 +3206,23 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC10OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DC11OKTOBER2025</t>
+          <t>BS12AGUSTUS2026</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3231,23 +3231,23 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC11OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DC12OKTOBER2025</t>
+          <t>BS13AGUSTUS2026</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3256,23 +3256,23 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC12OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DC13OKTOBER2025</t>
+          <t>BS14AGUSTUS2026</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3281,23 +3281,23 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC13OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DC14OKTOBER2025</t>
+          <t>BS15AGUSTUS2026</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3306,23 +3306,23 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC14OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DC15OKTOBER2025</t>
+          <t>BS16AGUSTUS2026</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3331,23 +3331,23 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC15OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DC16OKTOBER2025</t>
+          <t>BS17AGUSTUS2026</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3356,23 +3356,23 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC16OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DC17OKTOBER2025</t>
+          <t>BS18AGUSTUS2026</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3381,23 +3381,23 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC17OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DC18OKTOBER2025</t>
+          <t>BS19AGUSTUS2026</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3406,23 +3406,23 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC18OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DC19OKTOBER2025</t>
+          <t>BS20AGUSTUS2026</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3431,23 +3431,23 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DC20OKTOBER2025</t>
+          <t>BS21AGUSTUS2026</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3456,23 +3456,23 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS21AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DC21OKTOBER2025</t>
+          <t>BS22AGUSTUS2026</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3481,23 +3481,23 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS22AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DC22OKTOBER2025</t>
+          <t>BS23AGUSTUS2026</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3506,23 +3506,23 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS23AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DC23OKTOBER2025</t>
+          <t>BS24AGUSTUS2026</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3531,23 +3531,23 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS24AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DC24OKTOBER2025</t>
+          <t>BS25AGUSTUS2026</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3556,23 +3556,23 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS25AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DC25OKTOBER2025</t>
+          <t>BS26AGUSTUS2026</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3581,23 +3581,23 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS26AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DC26OKTOBER2025</t>
+          <t>BS27AGUSTUS2026</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3606,23 +3606,23 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS27AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DC27OKTOBER2025</t>
+          <t>BS28AGUSTUS2026</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3631,23 +3631,23 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS28AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DC28OKTOBER2025</t>
+          <t>BS29AGUSTUS2026</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3656,23 +3656,23 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS29AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DC29OKTOBER2025</t>
+          <t>BS30AGUSTUS2026</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3681,23 +3681,23 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS30AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DC30OKTOBER2025</t>
+          <t>BS31AGUSTUS2026</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3850</v>
+        <v>365141</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3706,23 +3706,23 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS31AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DC31OKTOBER2025</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3850</v>
+        <v>14664</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC31OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>367705</v>
+        <v>940</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/dadangconelo</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
@@ -3768,11 +3768,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>DC01OKTOBER2025</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>14427</v>
+        <v>3850</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3781,23 +3781,23 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC01OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>DC02OKTOBER2025</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>931</v>
+        <v>3850</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3806,23 +3806,23 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC02OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DT01MEI2026</t>
+          <t>DC03OKTOBER2025</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3831,23 +3831,23 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC03OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DT02MEI2026</t>
+          <t>DC04OKTOBER2025</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3856,23 +3856,23 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC04OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DT03MEI2026</t>
+          <t>DC05OKTOBER2025</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3881,23 +3881,23 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC05OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DT04MEI2026</t>
+          <t>DC06OKTOBER2025</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3906,23 +3906,23 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC06OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DT05MEI2026</t>
+          <t>DC07OKTOBER2025</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3931,23 +3931,23 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC07OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DT06MEI2026</t>
+          <t>DC08OKTOBER2025</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3956,23 +3956,23 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC08OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DT07MEI2026</t>
+          <t>DC09OKTOBER2025</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3981,23 +3981,23 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC09OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DT08MEI2026</t>
+          <t>DC10OKTOBER2025</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4006,23 +4006,23 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC10OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DT09MEI2026</t>
+          <t>DC11OKTOBER2025</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4031,23 +4031,23 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC11OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DT10MEI2026</t>
+          <t>DC12OKTOBER2025</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4056,23 +4056,23 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC12OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DT11MEI2026</t>
+          <t>DC13OKTOBER2025</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4081,23 +4081,23 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC13OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DT12MEI2026</t>
+          <t>DC14OKTOBER2025</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4106,23 +4106,23 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC14OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DT13MEI2026</t>
+          <t>DC15OKTOBER2025</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4131,23 +4131,23 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC15OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DT14MEI2026</t>
+          <t>DC16OKTOBER2025</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4156,23 +4156,23 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC16OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DT15MEI2026</t>
+          <t>DC17OKTOBER2025</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4181,23 +4181,23 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC17OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DT16MEI2026</t>
+          <t>DC18OKTOBER2025</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4206,23 +4206,23 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC18OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DT17MEI2026</t>
+          <t>DC19OKTOBER2025</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4231,23 +4231,23 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DT18MEI2026</t>
+          <t>DC20OKTOBER2025</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4256,23 +4256,23 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DT19MEI2026</t>
+          <t>DC21OKTOBER2025</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4281,23 +4281,23 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DT20MEI2026</t>
+          <t>DC22OKTOBER2025</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4306,23 +4306,23 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DT21MEI2026</t>
+          <t>DC23OKTOBER2025</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4331,23 +4331,23 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DT22MEI2026</t>
+          <t>DC24OKTOBER2025</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4356,23 +4356,23 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DT23MEI2026</t>
+          <t>DC25OKTOBER2025</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4381,23 +4381,23 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DT24MEI2026</t>
+          <t>DC26OKTOBER2025</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4406,23 +4406,23 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DT25MEI2026</t>
+          <t>DC27OKTOBER2025</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4431,23 +4431,23 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DT26MEI2026</t>
+          <t>DC28OKTOBER2025</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4456,23 +4456,23 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DT27MEI2026</t>
+          <t>DC29OKTOBER2025</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4481,23 +4481,23 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DT28MEI2026</t>
+          <t>DC30OKTOBER2025</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4506,23 +4506,23 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DT29MEI2026</t>
+          <t>DC31OKTOBER2025</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>365137</v>
+        <v>3850</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4531,23 +4531,23 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC31OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DT30MEI2026</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>365137</v>
+        <v>367705</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4556,23 +4556,23 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/dadangconelo</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DT31MEI2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>365137</v>
+        <v>14427</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4581,23 +4581,23 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>14651</v>
+        <v>936</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4606,23 +4606,23 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>CD01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>933</v>
+        <v>3850</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4631,23 +4631,23 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ER01DESEMBER2026</t>
+          <t>CD02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>365142</v>
+        <v>3850</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4656,23 +4656,23 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER01DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ER02DESEMBER2026</t>
+          <t>CD03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>365142</v>
+        <v>3850</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4681,23 +4681,23 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER02DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ER03DESEMBER2026</t>
+          <t>CD04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>365142</v>
+        <v>3850</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4706,23 +4706,23 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER03DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ER04DESEMBER2026</t>
+          <t>CD05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>365142</v>
+        <v>3850</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4731,23 +4731,23 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER04DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ER05DESEMBER2026</t>
+          <t>CD06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>365142</v>
+        <v>3850</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4756,19 +4756,19 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER05DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ER06DESEMBER2026</t>
+          <t>CD07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4781,19 +4781,19 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER06DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ER07DESEMBER2026</t>
+          <t>CD08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4806,19 +4806,19 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER07DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ER08DESEMBER2026</t>
+          <t>CD09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -4831,19 +4831,19 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER08DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ER09DESEMBER2026</t>
+          <t>CD10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4856,19 +4856,19 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER09DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ER10DESEMBER2026</t>
+          <t>CD11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4881,19 +4881,19 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER10DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ER11DESEMBER2026</t>
+          <t>CD12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -4906,19 +4906,19 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER11DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ER12DESEMBER2026</t>
+          <t>CD13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4931,19 +4931,19 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER12DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ER13DESEMBER2026</t>
+          <t>CD14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -4956,19 +4956,19 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER13DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ER14DESEMBER2026</t>
+          <t>CD15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -4981,19 +4981,19 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER14DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ER15DESEMBER2026</t>
+          <t>CD16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -5006,19 +5006,19 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER15DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ER16DESEMBER2026</t>
+          <t>CD17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -5031,19 +5031,19 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER16DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ER17DESEMBER2026</t>
+          <t>CD18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -5056,19 +5056,19 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER17DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ER18DESEMBER2026</t>
+          <t>CD19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -5081,19 +5081,19 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER18DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ER19DESEMBER2026</t>
+          <t>CD20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -5106,19 +5106,19 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER19DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ER20DESEMBER2026</t>
+          <t>CD21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -5131,19 +5131,19 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER20DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ER21DESEMBER2026</t>
+          <t>CD22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -5156,19 +5156,19 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER21DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ER22DESEMBER2026</t>
+          <t>CD23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -5181,19 +5181,19 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER22DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ER23DESEMBER2026</t>
+          <t>CD24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -5206,19 +5206,19 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER23DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ER24DESEMBER2026</t>
+          <t>CD25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -5231,19 +5231,19 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER24DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ER25DESEMBER2026</t>
+          <t>CD26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -5256,19 +5256,19 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER25DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ER26DESEMBER2026</t>
+          <t>CD27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -5281,19 +5281,19 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER26DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ER27DESEMBER2026</t>
+          <t>CD28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -5306,19 +5306,19 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER27DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ER28DESEMBER2026</t>
+          <t>CD29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -5331,19 +5331,19 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER28DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ER29DESEMBER2026</t>
+          <t>CD30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -5356,23 +5356,23 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER29DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ER30DESEMBER2026</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>365142</v>
+        <v>367702</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5381,23 +5381,23 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER30DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ER31DESEMBER2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>365142</v>
+        <v>14666</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5406,23 +5406,23 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER31DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>14663</v>
+        <v>931</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5431,23 +5431,23 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>DT01MEI2026</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>933</v>
+        <v>365137</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5456,23 +5456,23 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FH01MARET2026</t>
+          <t>DT02MEI2026</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5481,23 +5481,23 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH01MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FH02MARET2026</t>
+          <t>DT03MEI2026</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5506,23 +5506,23 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH02MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FH03MARET2026</t>
+          <t>DT04MEI2026</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5531,23 +5531,23 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH03MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FH04MARET2026</t>
+          <t>DT05MEI2026</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5556,23 +5556,23 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH04MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FH05MARET2026</t>
+          <t>DT06MEI2026</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5581,23 +5581,23 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH05MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FH06MARET2026</t>
+          <t>DT07MEI2026</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5606,23 +5606,23 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH06MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FH07MARET2026</t>
+          <t>DT08MEI2026</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5631,23 +5631,23 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH07MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FH08MARET2026</t>
+          <t>DT09MEI2026</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5656,23 +5656,23 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH08MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FH09MARET2026</t>
+          <t>DT10MEI2026</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5681,23 +5681,23 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH09MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FH10MARET2026</t>
+          <t>DT11MEI2026</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5706,23 +5706,23 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH10MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FH11MARET2026</t>
+          <t>DT12MEI2026</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5731,23 +5731,23 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH11MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FH12MARET2026</t>
+          <t>DT13MEI2026</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5756,23 +5756,23 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH12MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FH13MARET2026</t>
+          <t>DT14MEI2026</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5781,23 +5781,23 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH13MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FH14MARET2026</t>
+          <t>DT15MEI2026</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5806,23 +5806,23 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH14MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FH15MARET2026</t>
+          <t>DT16MEI2026</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -5831,23 +5831,23 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH15MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FH16MARET2026</t>
+          <t>DT17MEI2026</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5856,23 +5856,23 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH16MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FH17MARET2026</t>
+          <t>DT18MEI2026</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5881,23 +5881,23 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH17MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FH18MARET2026</t>
+          <t>DT19MEI2026</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5906,23 +5906,23 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH18MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FH19MARET2026</t>
+          <t>DT20MEI2026</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5931,23 +5931,23 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH19MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FH20MARET2026</t>
+          <t>DT21MEI2026</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5956,23 +5956,23 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH20MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FH21MARET2026</t>
+          <t>DT22MEI2026</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5981,23 +5981,23 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH21MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FH22MARET2026</t>
+          <t>DT23MEI2026</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -6006,23 +6006,23 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH22MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FH23MARET2026</t>
+          <t>DT24MEI2026</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -6031,23 +6031,23 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH23MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FH24MARET2026</t>
+          <t>DT25MEI2026</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -6056,23 +6056,23 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH24MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FH25MARET2026</t>
+          <t>DT26MEI2026</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -6081,23 +6081,23 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH25MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FH26MARET2026</t>
+          <t>DT27MEI2026</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -6106,23 +6106,23 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH26MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FH27MARET2026</t>
+          <t>DT28MEI2026</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -6131,23 +6131,23 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH27MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FH28MARET2026</t>
+          <t>DT29MEI2026</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -6156,23 +6156,23 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH28MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FH29MARET2026</t>
+          <t>DT30MEI2026</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -6181,23 +6181,23 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH29MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FH30MARET2026</t>
+          <t>DT31MEI2026</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>365139</v>
+        <v>365137</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -6206,23 +6206,23 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH30MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FH31MARET2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>365139</v>
+        <v>14651</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH31MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -6243,11 +6243,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>14455</v>
+        <v>933</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -6256,23 +6256,23 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>FH01MARET2026</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>943</v>
+        <v>365139</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -6281,23 +6281,23 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH01MARET2026</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>LX19OKTOBER2025</t>
+          <t>FH02MARET2026</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>367820</v>
+        <v>365139</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -6306,23 +6306,23 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH02MARET2026</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>LX20OKTOBER2025</t>
+          <t>FH03MARET2026</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>365139</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -6331,23 +6331,23 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH03MARET2026</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>LX21OKTOBER2025</t>
+          <t>FH04MARET2026</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>367820</v>
+        <v>365139</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -6356,23 +6356,23 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH04MARET2026</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>LX22OKTOBER2025</t>
+          <t>FH05MARET2026</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>365139</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -6381,23 +6381,23 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH05MARET2026</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>LX23OKTOBER2025</t>
+          <t>FH06MARET2026</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>365139</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -6406,23 +6406,23 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH06MARET2026</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>LX24OKTOBER2025</t>
+          <t>FH07MARET2026</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>365139</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6431,23 +6431,23 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH07MARET2026</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>LX25OKTOBER2025</t>
+          <t>FH08MARET2026</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>365139</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -6456,23 +6456,23 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH08MARET2026</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>LX26OKTOBER2025</t>
+          <t>FH09MARET2026</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>365139</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6481,23 +6481,23 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH09MARET2026</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>LX27OKTOBER2025</t>
+          <t>FH10MARET2026</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>365139</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6506,23 +6506,23 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH10MARET2026</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>LX28OKTOBER2025</t>
+          <t>FH11MARET2026</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>365139</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6531,23 +6531,23 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH11MARET2026</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>LX29OKTOBER2025</t>
+          <t>FH12MARET2026</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>365139</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6556,23 +6556,23 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH12MARET2026</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>LX30OKTOBER2025</t>
+          <t>FH13MARET2026</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>367766</v>
+        <v>365139</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6581,23 +6581,23 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH13MARET2026</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>lazylazyloxy</t>
+          <t>FH14MARET2026</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>367763</v>
+        <v>365139</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6606,23 +6606,23 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH14MARET2026</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>FH15MARET2026</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>7475</v>
+        <v>365139</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -6631,23 +6631,23 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH15MARET2026</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>FH16MARET2026</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>934</v>
+        <v>365139</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6656,23 +6656,23 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH16MARET2026</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>GG01NOVEMBER2025</t>
+          <t>FH17MARET2026</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3850</v>
+        <v>365139</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -6681,23 +6681,23 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH17MARET2026</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>GG02NOVEMBER2025</t>
+          <t>FH18MARET2026</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>3850</v>
+        <v>365139</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6706,23 +6706,23 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH18MARET2026</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>GG03NOVEMBER2025</t>
+          <t>FH19MARET2026</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>3850</v>
+        <v>365139</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -6731,23 +6731,23 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH19MARET2026</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>GG04NOVEMBER2025</t>
+          <t>FH20MARET2026</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3850</v>
+        <v>365139</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -6756,23 +6756,23 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH20MARET2026</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>GG05NOVEMBER2025</t>
+          <t>FH21MARET2026</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3850</v>
+        <v>365139</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -6781,23 +6781,23 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH21MARET2026</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>GG06NOVEMBER2025</t>
+          <t>FH22MARET2026</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3850</v>
+        <v>365139</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -6806,23 +6806,23 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH22MARET2026</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>GG07NOVEMBER2025</t>
+          <t>FH23MARET2026</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>365142</v>
+        <v>365139</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -6831,23 +6831,23 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH23MARET2026</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>GG08NOVEMBER2025</t>
+          <t>FH24MARET2026</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>365142</v>
+        <v>365139</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -6856,23 +6856,23 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH24MARET2026</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>GG09NOVEMBER2025</t>
+          <t>FH25MARET2026</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>365142</v>
+        <v>365139</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -6881,23 +6881,23 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH25MARET2026</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>GG10NOVEMBER2025</t>
+          <t>FH26MARET2026</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>365142</v>
+        <v>365139</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -6906,23 +6906,23 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH26MARET2026</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>GG11NOVEMBER2025</t>
+          <t>FH27MARET2026</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>365142</v>
+        <v>365139</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -6931,23 +6931,23 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH27MARET2026</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>GG12NOVEMBER2025</t>
+          <t>FH28MARET2026</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>365142</v>
+        <v>365139</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -6956,23 +6956,23 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH28MARET2026</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>GG13NOVEMBER2025</t>
+          <t>FH29MARET2026</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>365142</v>
+        <v>365139</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -6981,23 +6981,23 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH29MARET2026</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>GG14NOVEMBER2025</t>
+          <t>FH30MARET2026</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>365142</v>
+        <v>365139</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -7006,23 +7006,23 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH30MARET2026</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>GG15NOVEMBER2025</t>
+          <t>FH31MARET2026</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>365142</v>
+        <v>365139</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -7031,23 +7031,23 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH31MARET2026</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>GG16NOVEMBER2025</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>365142</v>
+        <v>14455</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -7056,23 +7056,23 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>GG17NOVEMBER2025</t>
+          <t>.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>365142</v>
+        <v>943</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -7081,23 +7081,23 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>GG18NOVEMBER2025</t>
+          <t>LX19OKTOBER2025</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>365142</v>
+        <v>367820</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -7106,23 +7106,23 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>GG19NOVEMBER2025</t>
+          <t>LX20OKTOBER2025</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>365142</v>
+        <v>1</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -7131,23 +7131,23 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>GG20NOVEMBER2025</t>
+          <t>LX21OKTOBER2025</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>365142</v>
+        <v>367820</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -7156,23 +7156,23 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>GG21NOVEMBER2025</t>
+          <t>LX22OKTOBER2025</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>365142</v>
+        <v>1</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -7181,23 +7181,23 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>GG22NOVEMBER2025</t>
+          <t>LX23OKTOBER2025</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>365142</v>
+        <v>1</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -7206,23 +7206,23 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>GG23NOVEMBER2025</t>
+          <t>LX24OKTOBER2025</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>365142</v>
+        <v>1</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -7231,23 +7231,23 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>GG24NOVEMBER2025</t>
+          <t>LX25OKTOBER2025</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>365142</v>
+        <v>1</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -7256,23 +7256,23 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>GG25NOVEMBER2025</t>
+          <t>LX26OKTOBER2025</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>365142</v>
+        <v>1</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -7281,23 +7281,23 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>GG26NOVEMBER2025</t>
+          <t>LX27OKTOBER2025</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>365142</v>
+        <v>1</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -7306,23 +7306,23 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>GG27NOVEMBER2025</t>
+          <t>LX28OKTOBER2025</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>365142</v>
+        <v>1</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -7331,23 +7331,23 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>GG28NOVEMBER2025</t>
+          <t>LX29OKTOBER2025</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>365142</v>
+        <v>1</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -7356,23 +7356,23 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>GG29NOVEMBER2025</t>
+          <t>LX30OKTOBER2025</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>365142</v>
+        <v>367766</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -7381,23 +7381,23 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>GG30NOVEMBER2025</t>
+          <t>lazylazyloxy</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>365142</v>
+        <v>367763</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -7406,14 +7406,14 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>14664</v>
+        <v>7475</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -7431,14 +7431,14 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -7456,23 +7456,23 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>JS01NOVEMBER2026</t>
+          <t>GG01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>365142</v>
+        <v>3850</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -7481,23 +7481,23 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS01NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>JS02NOVEMBER2026</t>
+          <t>GG02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>365142</v>
+        <v>3850</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -7506,23 +7506,23 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS02NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>JS03NOVEMBER2026</t>
+          <t>GG03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>365142</v>
+        <v>3850</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -7531,23 +7531,23 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS03NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>JS04NOVEMBER2026</t>
+          <t>GG04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>365142</v>
+        <v>3850</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -7556,23 +7556,23 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS04NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>JS05NOVEMBER2026</t>
+          <t>GG05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>365142</v>
+        <v>3850</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -7581,23 +7581,23 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS05NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>JS06NOVEMBER2026</t>
+          <t>GG06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>365142</v>
+        <v>3850</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -7606,19 +7606,19 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS06NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>JS07NOVEMBER2026</t>
+          <t>GG07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -7631,19 +7631,19 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS07NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>JS08NOVEMBER2026</t>
+          <t>GG08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -7656,19 +7656,19 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS08NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>JS09NOVEMBER2026</t>
+          <t>GG09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -7681,19 +7681,19 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS09NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>JS10NOVEMBER2026</t>
+          <t>GG10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -7706,19 +7706,19 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS10NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>JS11NOVEMBER2026</t>
+          <t>GG11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -7731,19 +7731,19 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS11NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>JS12NOVEMBER2026</t>
+          <t>GG12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -7756,19 +7756,19 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS12NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>JS13NOVEMBER2026</t>
+          <t>GG13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -7781,19 +7781,19 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS13NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>JS14NOVEMBER2026</t>
+          <t>GG14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -7806,19 +7806,19 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS14NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>JS15NOVEMBER2026</t>
+          <t>GG15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -7831,19 +7831,19 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS15NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>JS16NOVEMBER2026</t>
+          <t>GG16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -7856,19 +7856,19 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS16NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>JS17NOVEMBER2026</t>
+          <t>GG17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -7881,19 +7881,19 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS17NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>JS18NOVEMBER2026</t>
+          <t>GG18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -7906,19 +7906,19 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS18NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>JS19NOVEMBER2026</t>
+          <t>GG19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -7931,19 +7931,19 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS19NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>JS20NOVEMBER2026</t>
+          <t>GG20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -7956,19 +7956,19 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS20NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>JS21NOVEMBER2026</t>
+          <t>GG21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -7981,19 +7981,19 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS21NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>JS22NOVEMBER2026</t>
+          <t>GG22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -8006,19 +8006,19 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS22NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>JS23NOVEMBER2026</t>
+          <t>GG23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -8031,19 +8031,19 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS23NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>JS24NOVEMBER2026</t>
+          <t>GG24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -8056,19 +8056,19 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS24NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>JS25NOVEMBER2026</t>
+          <t>GG25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -8081,19 +8081,19 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS25NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>JS26NOVEMBER2026</t>
+          <t>GG26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -8106,19 +8106,19 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS26NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>JS27NOVEMBER2026</t>
+          <t>GG27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -8131,19 +8131,19 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS27NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>JS28NOVEMBER2026</t>
+          <t>GG28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -8156,19 +8156,19 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS28NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>JS29NOVEMBER2026</t>
+          <t>GG29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -8181,19 +8181,19 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS29NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>JS30NOVEMBER2026</t>
+          <t>GG30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -8206,14 +8206,14 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS30NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -9063,16 +9063,16 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>raw-url-generator</t>
+          <t>oganic</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>.github/workflows/raw-urls.yml</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2172</v>
+        <v>934</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -9081,23 +9081,23 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/.github/workflows/raw-urls.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>raw-url-generator</t>
+          <t>oganic</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>data/uppermoon77_all_raw.csv</t>
+          <t>OA01FEBRUARI2026</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>63693</v>
+        <v>365142</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -9106,23 +9106,23 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/data/uppermoon77_all_raw.csv</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA01FEBRUARI2026</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>raw-url-generator</t>
+          <t>oganic</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>data/uppermoon77_all_raw.xlsx</t>
+          <t>OA02FEBRUARI2026</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>20193</v>
+        <v>365142</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -9131,23 +9131,23 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/data/uppermoon77_all_raw.xlsx</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA02FEBRUARI2026</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>raw-url-generator</t>
+          <t>oganic</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>generate_all_repos_raw_urls.py</t>
+          <t>OA03FEBRUARI2026</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>6537</v>
+        <v>365142</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/generate_all_repos_raw_urls.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA03FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9168,11 +9168,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>OA04FEBRUARI2026</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>934</v>
+        <v>365142</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA04FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>OA01FEBRUARI2026</t>
+          <t>OA05FEBRUARI2026</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA01FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA05FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9218,7 +9218,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>OA02FEBRUARI2026</t>
+          <t>OA06FEBRUARI2026</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA02FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA06FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9243,7 +9243,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>OA03FEBRUARI2026</t>
+          <t>OA07FEBRUARI2026</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA03FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA07FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>OA04FEBRUARI2026</t>
+          <t>OA08FEBRUARI2026</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA04FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA08FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>OA05FEBRUARI2026</t>
+          <t>OA09FEBRUARI2026</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA05FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA09FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>OA06FEBRUARI2026</t>
+          <t>OA10FEBRUARI2026</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA06FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA10FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>OA07FEBRUARI2026</t>
+          <t>OA11FEBRUARI2026</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA07FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA11FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9368,7 +9368,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>OA08FEBRUARI2026</t>
+          <t>OA12FEBRUARI2026</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA08FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA12FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>OA09FEBRUARI2026</t>
+          <t>OA13FEBRUARI2026</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -9406,7 +9406,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA09FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA13FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>OA10FEBRUARI2026</t>
+          <t>OA14FEBRUARI2026</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -9431,7 +9431,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA10FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA14FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>OA11FEBRUARI2026</t>
+          <t>OA15FEBRUARI2026</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -9456,7 +9456,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA11FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA15FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>OA12FEBRUARI2026</t>
+          <t>OA16FEBRUARI2026</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA12FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA16FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>OA13FEBRUARI2026</t>
+          <t>OA17FEBRUARI2026</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA13FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA17FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>OA14FEBRUARI2026</t>
+          <t>OA18FEBRUARI2026</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA14FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA18FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>OA15FEBRUARI2026</t>
+          <t>OA19FEBRUARI2026</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA15FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA19FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>OA16FEBRUARI2026</t>
+          <t>OA20FEBRUARI2026</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA16FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA20FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>OA17FEBRUARI2026</t>
+          <t>OA21FEBRUARI2026</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA17FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA21FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>OA18FEBRUARI2026</t>
+          <t>OA22FEBRUARI2026</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA18FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA22FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>OA19FEBRUARI2026</t>
+          <t>OA23FEBRUARI2026</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA19FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA23FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>OA20FEBRUARI2026</t>
+          <t>OA24FEBRUARI2026</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA20FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA24FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>OA21FEBRUARI2026</t>
+          <t>OA25FEBRUARI2026</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -9706,7 +9706,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA21FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA25FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>OA22FEBRUARI2026</t>
+          <t>OA26FEBRUARI2026</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA22FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA26FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>OA23FEBRUARI2026</t>
+          <t>OA27FEBRUARI2026</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA23FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA27FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>OA24FEBRUARI2026</t>
+          <t>OA28FEBRUARI2026</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA24FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA28FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9793,11 +9793,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>OA25FEBRUARI2026</t>
+          <t>export_raw_to_sheets.py</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>365142</v>
+        <v>6930</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA25FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/export_raw_to_sheets.py</t>
         </is>
       </c>
     </row>
@@ -9818,11 +9818,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>OA26FEBRUARI2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>365142</v>
+        <v>14664</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -9831,23 +9831,23 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA26FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>oganic</t>
+          <t>raw-url-generator</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>OA27FEBRUARI2026</t>
+          <t>.github/workflows/raw-urls.yml</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>365142</v>
+        <v>2172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -9856,23 +9856,23 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA27FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/.github/workflows/raw-urls.yml</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>oganic</t>
+          <t>raw-url-generator</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>OA28FEBRUARI2026</t>
+          <t>data/uppermoon77_all_raw.csv</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>365142</v>
+        <v>63693</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -9881,23 +9881,23 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA28FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/data/uppermoon77_all_raw.csv</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>oganic</t>
+          <t>raw-url-generator</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>export_raw_to_sheets.py</t>
+          <t>data/uppermoon77_all_raw.xlsx</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>6930</v>
+        <v>20143</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -9906,23 +9906,23 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/export_raw_to_sheets.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/data/uppermoon77_all_raw.xlsx</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>oganic</t>
+          <t>raw-url-generator</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>generate_all_repos_raw_urls.py</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>14664</v>
+        <v>6537</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/generate_all_repos_raw_urls.py</t>
         </is>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -12381,23 +12381,23 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>UC01OKTOBER2025</t>
+          <t>SA01JUNI2026</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -12406,23 +12406,23 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC01OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA01JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>UC02OKTOBER2025</t>
+          <t>SA02JUNI2026</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -12431,23 +12431,23 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC02OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA02JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>UC03OKTOBER2025</t>
+          <t>SA03JUNI2026</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -12456,23 +12456,23 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC03OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA03JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>UC04OKTOBER2025</t>
+          <t>SA04JUNI2026</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -12481,23 +12481,23 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC04OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA04JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>UC05OKTOBER2025</t>
+          <t>SA05JUNI2026</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -12506,23 +12506,23 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC05OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA05JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>UC06OKTOBER2025</t>
+          <t>SA06JUNI2026</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -12531,23 +12531,23 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC06OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA06JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>UC07OKTOBER2025</t>
+          <t>SA07JUNI2026</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -12556,23 +12556,23 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC07OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA07JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>UC08OKTOBER2025</t>
+          <t>SA08JUNI2026</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -12581,23 +12581,23 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC08OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA08JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>UC09OKTOBER2025</t>
+          <t>SA09JUNI2026</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -12606,23 +12606,23 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC09OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA09JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>UC10OKTOBER2025</t>
+          <t>SA10JUNI2026</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -12631,23 +12631,23 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC10OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA10JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>UC11OKTOBER2025</t>
+          <t>SA11JUNI2026</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -12656,23 +12656,23 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC11OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA11JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>UC12OKTOBER2025</t>
+          <t>SA12JUNI2026</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -12681,23 +12681,23 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC12OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA12JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>UC13OKTOBER2025</t>
+          <t>SA13JUNI2026</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -12706,23 +12706,23 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC13OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA13JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>UC14OKTOBER2025</t>
+          <t>SA14JUNI2026</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -12731,23 +12731,23 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC14OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA14JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>UC15OKTOBER2025</t>
+          <t>SA15JUNI2026</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -12756,23 +12756,23 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC15OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA15JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>UC16OKTOBER2025</t>
+          <t>SA16JUNI2026</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -12781,23 +12781,23 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC16OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA16JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>UC17OKTOBER2025</t>
+          <t>SA17JUNI2026</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -12806,23 +12806,23 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC17OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA17JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>UC18OKTOBER2025</t>
+          <t>SA18JUNI2026</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -12831,23 +12831,23 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC18OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA18JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>UC19OKTOBER2025</t>
+          <t>SA19JUNI2026</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -12856,23 +12856,23 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA19JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>UC20OKTOBER2025</t>
+          <t>SA20JUNI2026</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -12881,23 +12881,23 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA20JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>UC21OKTOBER2025</t>
+          <t>SA21JUNI2026</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -12906,23 +12906,23 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA21JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>UC22OKTOBER2025</t>
+          <t>SA22JUNI2026</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -12931,23 +12931,23 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA22JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>UC23OKTOBER2025</t>
+          <t>SA23JUNI2026</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -12956,23 +12956,23 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA23JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>UC24OKTOBER2025</t>
+          <t>SA24JUNI2026</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -12981,23 +12981,23 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA24JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>UC25OKTOBER2025</t>
+          <t>SA25JUNI2026</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -13006,23 +13006,23 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA25JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>UC26OKTOBER2025</t>
+          <t>SA26JUNI2026</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -13031,23 +13031,23 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA26JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>UC27OKTOBER2025</t>
+          <t>SA27JUNI2026</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -13056,23 +13056,23 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA27JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>UC28OKTOBER2025</t>
+          <t>SA28JUNI2026</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -13081,23 +13081,23 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA28JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>UC29OKTOBER2025</t>
+          <t>SA29JUNI2026</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -13106,23 +13106,23 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA29JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>UC30OKTOBER2025</t>
+          <t>SA30JUNI2026</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>3850</v>
+        <v>365138</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -13131,23 +13131,23 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA30JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>UC31OKTOBER2025</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>3850</v>
+        <v>14659</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC31OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -13168,11 +13168,11 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>14664</v>
+        <v>936</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -13181,23 +13181,23 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>UC01OKTOBER2025</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>937</v>
+        <v>3850</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -13206,23 +13206,23 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC01OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>SA01JUNI2026</t>
+          <t>UC02OKTOBER2025</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -13231,23 +13231,23 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA01JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC02OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>SA02JUNI2026</t>
+          <t>UC03OKTOBER2025</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -13256,23 +13256,23 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA02JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC03OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>SA03JUNI2026</t>
+          <t>UC04OKTOBER2025</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -13281,23 +13281,23 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA03JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC04OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>SA04JUNI2026</t>
+          <t>UC05OKTOBER2025</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -13306,23 +13306,23 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA04JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC05OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>SA05JUNI2026</t>
+          <t>UC06OKTOBER2025</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -13331,23 +13331,23 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA05JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC06OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>SA06JUNI2026</t>
+          <t>UC07OKTOBER2025</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -13356,23 +13356,23 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA06JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC07OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>SA07JUNI2026</t>
+          <t>UC08OKTOBER2025</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -13381,23 +13381,23 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA07JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC08OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>SA08JUNI2026</t>
+          <t>UC09OKTOBER2025</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -13406,23 +13406,23 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA08JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC09OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>SA09JUNI2026</t>
+          <t>UC10OKTOBER2025</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -13431,23 +13431,23 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA09JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC10OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>SA10JUNI2026</t>
+          <t>UC11OKTOBER2025</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -13456,23 +13456,23 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA10JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC11OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>SA11JUNI2026</t>
+          <t>UC12OKTOBER2025</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -13481,23 +13481,23 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA11JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC12OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>SA12JUNI2026</t>
+          <t>UC13OKTOBER2025</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -13506,23 +13506,23 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA12JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC13OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>SA13JUNI2026</t>
+          <t>UC14OKTOBER2025</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -13531,23 +13531,23 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA13JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC14OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>SA14JUNI2026</t>
+          <t>UC15OKTOBER2025</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -13556,23 +13556,23 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA14JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC15OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>SA15JUNI2026</t>
+          <t>UC16OKTOBER2025</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -13581,23 +13581,23 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA15JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC16OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>SA16JUNI2026</t>
+          <t>UC17OKTOBER2025</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -13606,23 +13606,23 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA16JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC17OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>SA17JUNI2026</t>
+          <t>UC18OKTOBER2025</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -13631,23 +13631,23 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA17JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC18OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>SA18JUNI2026</t>
+          <t>UC19OKTOBER2025</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -13656,23 +13656,23 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA18JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>SA19JUNI2026</t>
+          <t>UC20OKTOBER2025</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -13681,23 +13681,23 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA19JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>SA20JUNI2026</t>
+          <t>UC21OKTOBER2025</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -13706,23 +13706,23 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA20JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>SA21JUNI2026</t>
+          <t>UC22OKTOBER2025</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -13731,23 +13731,23 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA21JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>SA22JUNI2026</t>
+          <t>UC23OKTOBER2025</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -13756,23 +13756,23 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA22JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>SA23JUNI2026</t>
+          <t>UC24OKTOBER2025</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -13781,23 +13781,23 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA23JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>SA24JUNI2026</t>
+          <t>UC25OKTOBER2025</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -13806,23 +13806,23 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA24JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>SA25JUNI2026</t>
+          <t>UC26OKTOBER2025</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -13831,23 +13831,23 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA25JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>SA26JUNI2026</t>
+          <t>UC27OKTOBER2025</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -13856,23 +13856,23 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA26JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>SA27JUNI2026</t>
+          <t>UC28OKTOBER2025</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -13881,23 +13881,23 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA27JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>SA28JUNI2026</t>
+          <t>UC29OKTOBER2025</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -13906,23 +13906,23 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA28JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>SA29JUNI2026</t>
+          <t>UC30OKTOBER2025</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -13931,23 +13931,23 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA29JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>SA30JUNI2026</t>
+          <t>UC31OKTOBER2025</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>365138</v>
+        <v>3850</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -13956,14 +13956,14 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA30JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC31OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -13972,7 +13972,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>14659</v>
+        <v>14664</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/update_github_file.py</t>
         </is>
       </c>
     </row>

--- a/data/uppermoon77_all_raw.xlsx
+++ b/data/uppermoon77_all_raw.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -481,23 +481,23 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FH01MARET2026</t>
+          <t>DC01OKTOBER2025</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -506,23 +506,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH01MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC01OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FH02MARET2026</t>
+          <t>DC02OKTOBER2025</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -531,23 +531,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH02MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC02OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FH03MARET2026</t>
+          <t>DC03OKTOBER2025</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -556,23 +556,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH03MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC03OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FH04MARET2026</t>
+          <t>DC04OKTOBER2025</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -581,23 +581,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH04MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC04OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FH05MARET2026</t>
+          <t>DC05OKTOBER2025</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -606,23 +606,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH05MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC05OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FH06MARET2026</t>
+          <t>DC06OKTOBER2025</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -631,23 +631,23 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH06MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC06OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FH07MARET2026</t>
+          <t>DC07OKTOBER2025</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -656,23 +656,23 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH07MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC07OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FH08MARET2026</t>
+          <t>DC08OKTOBER2025</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -681,23 +681,23 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH08MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC08OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FH09MARET2026</t>
+          <t>DC09OKTOBER2025</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -706,23 +706,23 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH09MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC09OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FH10MARET2026</t>
+          <t>DC10OKTOBER2025</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -731,23 +731,23 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH10MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC10OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FH11MARET2026</t>
+          <t>DC11OKTOBER2025</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -756,23 +756,23 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH11MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC11OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FH12MARET2026</t>
+          <t>DC12OKTOBER2025</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -781,23 +781,23 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH12MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC12OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FH13MARET2026</t>
+          <t>DC13OKTOBER2025</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -806,23 +806,23 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH13MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC13OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FH14MARET2026</t>
+          <t>DC14OKTOBER2025</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -831,23 +831,23 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH14MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC14OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FH15MARET2026</t>
+          <t>DC15OKTOBER2025</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -856,23 +856,23 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH15MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC15OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FH16MARET2026</t>
+          <t>DC16OKTOBER2025</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -881,23 +881,23 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH16MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC16OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FH17MARET2026</t>
+          <t>DC17OKTOBER2025</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -906,23 +906,23 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH17MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC17OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FH18MARET2026</t>
+          <t>DC18OKTOBER2025</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -931,23 +931,23 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH18MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC18OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FH19MARET2026</t>
+          <t>DC19OKTOBER2025</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -956,23 +956,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH19MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FH20MARET2026</t>
+          <t>DC20OKTOBER2025</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -981,23 +981,23 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH20MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FH21MARET2026</t>
+          <t>DC21OKTOBER2025</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1006,23 +1006,23 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH21MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FH22MARET2026</t>
+          <t>DC22OKTOBER2025</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1031,23 +1031,23 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH22MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FH23MARET2026</t>
+          <t>DC23OKTOBER2025</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1056,23 +1056,23 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH23MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FH24MARET2026</t>
+          <t>DC24OKTOBER2025</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1081,23 +1081,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH24MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FH25MARET2026</t>
+          <t>DC25OKTOBER2025</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1106,23 +1106,23 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH25MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FH26MARET2026</t>
+          <t>DC26OKTOBER2025</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1131,23 +1131,23 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH26MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FH27MARET2026</t>
+          <t>DC27OKTOBER2025</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1156,23 +1156,23 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH27MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FH28MARET2026</t>
+          <t>DC28OKTOBER2025</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1181,23 +1181,23 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH28MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FH29MARET2026</t>
+          <t>DC29OKTOBER2025</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1206,23 +1206,23 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH29MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FH30MARET2026</t>
+          <t>DC30OKTOBER2025</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1231,23 +1231,23 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH30MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FH31MARET2026</t>
+          <t>DC31OKTOBER2025</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>354750</v>
+        <v>3850</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1256,23 +1256,23 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH31MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC31OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>14455</v>
+        <v>367705</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/dadangconelo</t>
         </is>
       </c>
     </row>
@@ -1293,11 +1293,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>940</v>
+        <v>14427</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1306,23 +1306,23 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DC01OKTOBER2025</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3850</v>
+        <v>933</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1331,23 +1331,23 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC01OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DC02OKTOBER2025</t>
+          <t>AM01JULI2026</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1356,23 +1356,23 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC02OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DC03OKTOBER2025</t>
+          <t>AM02JULI2026</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1381,23 +1381,23 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC03OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DC04OKTOBER2025</t>
+          <t>AM03JULI2026</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1406,23 +1406,23 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC04OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DC05OKTOBER2025</t>
+          <t>AM04JULI2026</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1431,23 +1431,23 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC05OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DC06OKTOBER2025</t>
+          <t>AM05JULI2026</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1456,23 +1456,23 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC06OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DC07OKTOBER2025</t>
+          <t>AM06JULI2026</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1481,23 +1481,23 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC07OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DC08OKTOBER2025</t>
+          <t>AM07JULI2026</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1506,23 +1506,23 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC08OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DC09OKTOBER2025</t>
+          <t>AM08JULI2026</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1531,23 +1531,23 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC09OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DC10OKTOBER2025</t>
+          <t>AM09JULI2026</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1556,23 +1556,23 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC10OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DC11OKTOBER2025</t>
+          <t>AM10JULI2026</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1581,23 +1581,23 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC11OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DC12OKTOBER2025</t>
+          <t>AM11JULI2026</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1606,23 +1606,23 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC12OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DC13OKTOBER2025</t>
+          <t>AM12JULI2026</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1631,23 +1631,23 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC13OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DC14OKTOBER2025</t>
+          <t>AM13JULI2026</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1656,23 +1656,23 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC14OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DC15OKTOBER2025</t>
+          <t>AM14JULI2026</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1681,23 +1681,23 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC15OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DC16OKTOBER2025</t>
+          <t>AM15JULI2026</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1706,23 +1706,23 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC16OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DC17OKTOBER2025</t>
+          <t>AM16JULI2026</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1731,23 +1731,23 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC17OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DC18OKTOBER2025</t>
+          <t>AM17JULI2026</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1756,23 +1756,23 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC18OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DC19OKTOBER2025</t>
+          <t>AM18JULI2026</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1781,23 +1781,23 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DC20OKTOBER2025</t>
+          <t>AM19JULI2026</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1806,23 +1806,23 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DC21OKTOBER2025</t>
+          <t>AM20JULI2026</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1831,23 +1831,23 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DC22OKTOBER2025</t>
+          <t>AM21JULI2026</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1856,23 +1856,23 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DC23OKTOBER2025</t>
+          <t>AM22JULI2026</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1881,23 +1881,23 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DC24OKTOBER2025</t>
+          <t>AM23JULI2026</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1906,23 +1906,23 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DC25OKTOBER2025</t>
+          <t>AM24JULI2026</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1931,23 +1931,23 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DC26OKTOBER2025</t>
+          <t>AM25JULI2026</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1956,23 +1956,23 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DC27OKTOBER2025</t>
+          <t>AM26JULI2026</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1981,23 +1981,23 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DC28OKTOBER2025</t>
+          <t>AM27JULI2026</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2006,23 +2006,23 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DC29OKTOBER2025</t>
+          <t>AM28JULI2026</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2031,23 +2031,23 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DC30OKTOBER2025</t>
+          <t>AM29JULI2026</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2056,23 +2056,23 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DC31OKTOBER2025</t>
+          <t>AM30JULI2026</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3850</v>
+        <v>354749</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2081,23 +2081,23 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC31OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>AM31JULI2026</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>367705</v>
+        <v>354749</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2106,14 +2106,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/dadangconelo</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>14427</v>
+        <v>14655</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2131,14 +2131,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2156,23 +2156,23 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BS01AGUSTUS2026</t>
+          <t>CD01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>354752</v>
+        <v>3850</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2181,23 +2181,23 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BS02AGUSTUS2026</t>
+          <t>CD02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>354752</v>
+        <v>3850</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2206,23 +2206,23 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BS03AGUSTUS2026</t>
+          <t>CD03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>354752</v>
+        <v>3850</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2231,23 +2231,23 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BS04AGUSTUS2026</t>
+          <t>CD04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>354752</v>
+        <v>3850</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2256,23 +2256,23 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BS05AGUSTUS2026</t>
+          <t>CD05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>354752</v>
+        <v>3850</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2281,23 +2281,23 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BS06AGUSTUS2026</t>
+          <t>CD06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>354752</v>
+        <v>3850</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2306,23 +2306,23 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BS07AGUSTUS2026</t>
+          <t>CD07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>354752</v>
+        <v>3850</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2331,23 +2331,23 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BS08AGUSTUS2026</t>
+          <t>CD08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2356,23 +2356,23 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BS09AGUSTUS2026</t>
+          <t>CD09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2381,23 +2381,23 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BS10AGUSTUS2026</t>
+          <t>CD10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2406,23 +2406,23 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BS11AGUSTUS2026</t>
+          <t>CD11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2431,23 +2431,23 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BS12AGUSTUS2026</t>
+          <t>CD12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2456,23 +2456,23 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BS13AGUSTUS2026</t>
+          <t>CD13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2481,23 +2481,23 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BS14AGUSTUS2026</t>
+          <t>CD14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2506,23 +2506,23 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BS15AGUSTUS2026</t>
+          <t>CD15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2531,23 +2531,23 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BS16AGUSTUS2026</t>
+          <t>CD16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2556,23 +2556,23 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BS17AGUSTUS2026</t>
+          <t>CD17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2581,23 +2581,23 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BS18AGUSTUS2026</t>
+          <t>CD18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2606,23 +2606,23 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BS19AGUSTUS2026</t>
+          <t>CD19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2631,23 +2631,23 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BS20AGUSTUS2026</t>
+          <t>CD20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2656,23 +2656,23 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BS21AGUSTUS2026</t>
+          <t>CD21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2681,23 +2681,23 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS21AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BS22AGUSTUS2026</t>
+          <t>CD22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2706,23 +2706,23 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS22AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BS23AGUSTUS2026</t>
+          <t>CD23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2731,23 +2731,23 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS23AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BS24AGUSTUS2026</t>
+          <t>CD24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2756,23 +2756,23 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS24AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BS25AGUSTUS2026</t>
+          <t>CD25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2781,23 +2781,23 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS25AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BS26AGUSTUS2026</t>
+          <t>CD26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2806,23 +2806,23 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS26AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BS27AGUSTUS2026</t>
+          <t>CD27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2831,23 +2831,23 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS27AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BS28AGUSTUS2026</t>
+          <t>CD28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2856,23 +2856,23 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS28AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BS29AGUSTUS2026</t>
+          <t>CD29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2881,23 +2881,23 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS29AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BS30AGUSTUS2026</t>
+          <t>CD30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>354752</v>
+        <v>354753</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2906,23 +2906,23 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS30AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BS31AGUSTUS2026</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>354752</v>
+        <v>367702</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2931,14 +2931,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS31AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>14664</v>
+        <v>14666</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2956,23 +2956,23 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2981,23 +2981,23 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AM01JULI2026</t>
+          <t>LX19OKTOBER2025</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>354749</v>
+        <v>367820</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3006,23 +3006,23 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>AM02JULI2026</t>
+          <t>LX20OKTOBER2025</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>354749</v>
+        <v>1</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3031,23 +3031,23 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>AM03JULI2026</t>
+          <t>LX21OKTOBER2025</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>354749</v>
+        <v>367820</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3056,23 +3056,23 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AM04JULI2026</t>
+          <t>LX22OKTOBER2025</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>354749</v>
+        <v>1</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AM05JULI2026</t>
+          <t>LX23OKTOBER2025</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>354749</v>
+        <v>1</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3106,23 +3106,23 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AM06JULI2026</t>
+          <t>LX24OKTOBER2025</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>354749</v>
+        <v>1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3131,23 +3131,23 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>AM07JULI2026</t>
+          <t>LX25OKTOBER2025</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>354749</v>
+        <v>1</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3156,23 +3156,23 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>AM08JULI2026</t>
+          <t>LX26OKTOBER2025</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>354749</v>
+        <v>1</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3181,23 +3181,23 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AM09JULI2026</t>
+          <t>LX27OKTOBER2025</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>354749</v>
+        <v>1</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3206,23 +3206,23 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AM10JULI2026</t>
+          <t>LX28OKTOBER2025</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>354749</v>
+        <v>1</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3231,23 +3231,23 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AM11JULI2026</t>
+          <t>LX29OKTOBER2025</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>354749</v>
+        <v>1</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3256,23 +3256,23 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>AM12JULI2026</t>
+          <t>LX30OKTOBER2025</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>354749</v>
+        <v>367766</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3281,23 +3281,23 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>AM13JULI2026</t>
+          <t>lazylazyloxy</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>354749</v>
+        <v>367763</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3306,23 +3306,23 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>AM14JULI2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>354749</v>
+        <v>7475</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3331,23 +3331,23 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AM15JULI2026</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>354749</v>
+        <v>931</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3356,23 +3356,23 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AM16JULI2026</t>
+          <t>DT01MEI2026</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3381,23 +3381,23 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>AM17JULI2026</t>
+          <t>DT02MEI2026</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3406,23 +3406,23 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AM18JULI2026</t>
+          <t>DT03MEI2026</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3431,23 +3431,23 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AM19JULI2026</t>
+          <t>DT04MEI2026</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3456,23 +3456,23 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>AM20JULI2026</t>
+          <t>DT05MEI2026</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3481,23 +3481,23 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AM21JULI2026</t>
+          <t>DT06MEI2026</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3506,23 +3506,23 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AM22JULI2026</t>
+          <t>DT07MEI2026</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3531,23 +3531,23 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AM23JULI2026</t>
+          <t>DT08MEI2026</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3556,23 +3556,23 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>AM24JULI2026</t>
+          <t>DT09MEI2026</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3581,23 +3581,23 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AM25JULI2026</t>
+          <t>DT10MEI2026</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3606,23 +3606,23 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AM26JULI2026</t>
+          <t>DT11MEI2026</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3631,23 +3631,23 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AM27JULI2026</t>
+          <t>DT12MEI2026</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3656,23 +3656,23 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>AM28JULI2026</t>
+          <t>DT13MEI2026</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3681,23 +3681,23 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>AM29JULI2026</t>
+          <t>DT14MEI2026</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3706,23 +3706,23 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>AM30JULI2026</t>
+          <t>DT15MEI2026</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3731,23 +3731,23 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>AM31JULI2026</t>
+          <t>DT16MEI2026</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>354749</v>
+        <v>354748</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3756,23 +3756,23 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>DT17MEI2026</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>14655</v>
+        <v>354748</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3781,23 +3781,23 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>DT18MEI2026</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>943</v>
+        <v>354748</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3806,23 +3806,23 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>LX19OKTOBER2025</t>
+          <t>DT19MEI2026</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>367820</v>
+        <v>354748</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3831,23 +3831,23 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>LX20OKTOBER2025</t>
+          <t>DT20MEI2026</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>354748</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3856,23 +3856,23 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>LX21OKTOBER2025</t>
+          <t>DT21MEI2026</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>367820</v>
+        <v>354748</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3881,23 +3881,23 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>LX22OKTOBER2025</t>
+          <t>DT22MEI2026</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>354748</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3906,23 +3906,23 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>LX23OKTOBER2025</t>
+          <t>DT23MEI2026</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>354748</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3931,23 +3931,23 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>LX24OKTOBER2025</t>
+          <t>DT24MEI2026</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>354748</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3956,23 +3956,23 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LX25OKTOBER2025</t>
+          <t>DT25MEI2026</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>354748</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3981,23 +3981,23 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>LX26OKTOBER2025</t>
+          <t>DT26MEI2026</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>354748</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4006,23 +4006,23 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LX27OKTOBER2025</t>
+          <t>DT27MEI2026</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>354748</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4031,23 +4031,23 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>LX28OKTOBER2025</t>
+          <t>DT28MEI2026</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>354748</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4056,23 +4056,23 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>LX29OKTOBER2025</t>
+          <t>DT29MEI2026</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>354748</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4081,23 +4081,23 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>LX30OKTOBER2025</t>
+          <t>DT30MEI2026</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>367766</v>
+        <v>354748</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4106,23 +4106,23 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>lazylazyloxy</t>
+          <t>DT31MEI2026</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>367763</v>
+        <v>354748</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4131,14 +4131,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>7475</v>
+        <v>14651</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4156,14 +4156,14 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4181,23 +4181,23 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DT01MEI2026</t>
+          <t>BS01AGUSTUS2026</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4206,23 +4206,23 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DT02MEI2026</t>
+          <t>BS02AGUSTUS2026</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4231,23 +4231,23 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DT03MEI2026</t>
+          <t>BS03AGUSTUS2026</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4256,23 +4256,23 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DT04MEI2026</t>
+          <t>BS04AGUSTUS2026</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4281,23 +4281,23 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DT05MEI2026</t>
+          <t>BS05AGUSTUS2026</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4306,23 +4306,23 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DT06MEI2026</t>
+          <t>BS06AGUSTUS2026</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4331,23 +4331,23 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DT07MEI2026</t>
+          <t>BS07AGUSTUS2026</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4356,23 +4356,23 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DT08MEI2026</t>
+          <t>BS08AGUSTUS2026</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4381,23 +4381,23 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DT09MEI2026</t>
+          <t>BS09AGUSTUS2026</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4406,23 +4406,23 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DT10MEI2026</t>
+          <t>BS10AGUSTUS2026</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4431,23 +4431,23 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DT11MEI2026</t>
+          <t>BS11AGUSTUS2026</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4456,23 +4456,23 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DT12MEI2026</t>
+          <t>BS12AGUSTUS2026</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4481,23 +4481,23 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DT13MEI2026</t>
+          <t>BS13AGUSTUS2026</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4506,23 +4506,23 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DT14MEI2026</t>
+          <t>BS14AGUSTUS2026</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4531,23 +4531,23 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DT15MEI2026</t>
+          <t>BS15AGUSTUS2026</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4556,23 +4556,23 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DT16MEI2026</t>
+          <t>BS16AGUSTUS2026</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4581,23 +4581,23 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DT17MEI2026</t>
+          <t>BS17AGUSTUS2026</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4606,23 +4606,23 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DT18MEI2026</t>
+          <t>BS18AGUSTUS2026</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4631,23 +4631,23 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DT19MEI2026</t>
+          <t>BS19AGUSTUS2026</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4656,23 +4656,23 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DT20MEI2026</t>
+          <t>BS20AGUSTUS2026</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4681,23 +4681,23 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DT21MEI2026</t>
+          <t>BS21AGUSTUS2026</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4706,23 +4706,23 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS21AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DT22MEI2026</t>
+          <t>BS22AGUSTUS2026</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4731,23 +4731,23 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS22AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DT23MEI2026</t>
+          <t>BS23AGUSTUS2026</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4756,23 +4756,23 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS23AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DT24MEI2026</t>
+          <t>BS24AGUSTUS2026</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4781,23 +4781,23 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS24AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DT25MEI2026</t>
+          <t>BS25AGUSTUS2026</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4806,23 +4806,23 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS25AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DT26MEI2026</t>
+          <t>BS26AGUSTUS2026</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4831,23 +4831,23 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS26AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DT27MEI2026</t>
+          <t>BS27AGUSTUS2026</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4856,23 +4856,23 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS27AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DT28MEI2026</t>
+          <t>BS28AGUSTUS2026</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4881,23 +4881,23 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS28AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DT29MEI2026</t>
+          <t>BS29AGUSTUS2026</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4906,23 +4906,23 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS29AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DT30MEI2026</t>
+          <t>BS30AGUSTUS2026</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4931,23 +4931,23 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS30AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DT31MEI2026</t>
+          <t>BS31AGUSTUS2026</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>354748</v>
+        <v>354752</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4956,14 +4956,14 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS31AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>14651</v>
+        <v>14664</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -7431,23 +7431,23 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>CD01NOVEMBER2025</t>
+          <t>FH01MARET2026</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>3850</v>
+        <v>354750</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -7456,23 +7456,23 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH01MARET2026</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>CD02NOVEMBER2025</t>
+          <t>FH02MARET2026</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>3850</v>
+        <v>354750</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -7481,23 +7481,23 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH02MARET2026</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>CD03NOVEMBER2025</t>
+          <t>FH03MARET2026</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3850</v>
+        <v>354750</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -7506,23 +7506,23 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH03MARET2026</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>CD04NOVEMBER2025</t>
+          <t>FH04MARET2026</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3850</v>
+        <v>354750</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -7531,23 +7531,23 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH04MARET2026</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>CD05NOVEMBER2025</t>
+          <t>FH05MARET2026</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3850</v>
+        <v>354750</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -7556,23 +7556,23 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH05MARET2026</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>CD06NOVEMBER2025</t>
+          <t>FH06MARET2026</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>3850</v>
+        <v>354750</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -7581,23 +7581,23 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH06MARET2026</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>CD07NOVEMBER2025</t>
+          <t>FH07MARET2026</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3850</v>
+        <v>354750</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -7606,23 +7606,23 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH07MARET2026</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>CD08NOVEMBER2025</t>
+          <t>FH08MARET2026</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -7631,23 +7631,23 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH08MARET2026</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>CD09NOVEMBER2025</t>
+          <t>FH09MARET2026</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -7656,23 +7656,23 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH09MARET2026</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>CD10NOVEMBER2025</t>
+          <t>FH10MARET2026</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -7681,23 +7681,23 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH10MARET2026</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>CD11NOVEMBER2025</t>
+          <t>FH11MARET2026</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -7706,23 +7706,23 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH11MARET2026</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>CD12NOVEMBER2025</t>
+          <t>FH12MARET2026</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -7731,23 +7731,23 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH12MARET2026</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>CD13NOVEMBER2025</t>
+          <t>FH13MARET2026</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -7756,23 +7756,23 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH13MARET2026</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>CD14NOVEMBER2025</t>
+          <t>FH14MARET2026</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -7781,23 +7781,23 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH14MARET2026</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>CD15NOVEMBER2025</t>
+          <t>FH15MARET2026</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -7806,23 +7806,23 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH15MARET2026</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>CD16NOVEMBER2025</t>
+          <t>FH16MARET2026</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -7831,23 +7831,23 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH16MARET2026</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>CD17NOVEMBER2025</t>
+          <t>FH17MARET2026</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -7856,23 +7856,23 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH17MARET2026</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>CD18NOVEMBER2025</t>
+          <t>FH18MARET2026</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -7881,23 +7881,23 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH18MARET2026</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>CD19NOVEMBER2025</t>
+          <t>FH19MARET2026</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -7906,23 +7906,23 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH19MARET2026</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>CD20NOVEMBER2025</t>
+          <t>FH20MARET2026</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -7931,23 +7931,23 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH20MARET2026</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>CD21NOVEMBER2025</t>
+          <t>FH21MARET2026</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -7956,23 +7956,23 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH21MARET2026</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>CD22NOVEMBER2025</t>
+          <t>FH22MARET2026</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -7981,23 +7981,23 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH22MARET2026</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>CD23NOVEMBER2025</t>
+          <t>FH23MARET2026</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -8006,23 +8006,23 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH23MARET2026</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>CD24NOVEMBER2025</t>
+          <t>FH24MARET2026</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -8031,23 +8031,23 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH24MARET2026</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>CD25NOVEMBER2025</t>
+          <t>FH25MARET2026</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -8056,23 +8056,23 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH25MARET2026</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>CD26NOVEMBER2025</t>
+          <t>FH26MARET2026</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -8081,23 +8081,23 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH26MARET2026</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>CD27NOVEMBER2025</t>
+          <t>FH27MARET2026</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -8106,23 +8106,23 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH27MARET2026</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>CD28NOVEMBER2025</t>
+          <t>FH28MARET2026</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -8131,23 +8131,23 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH28MARET2026</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>CD29NOVEMBER2025</t>
+          <t>FH29MARET2026</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -8156,23 +8156,23 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH29MARET2026</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>CD30NOVEMBER2025</t>
+          <t>FH30MARET2026</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>354753</v>
+        <v>354750</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH30MARET2026</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>FH31MARET2026</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>367702</v>
+        <v>354750</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -8206,14 +8206,14 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH31MARET2026</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -8222,7 +8222,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>14666</v>
+        <v>14455</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -9063,16 +9063,16 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>oganic</t>
+          <t>raw-url-generator</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>.github/workflows/raw-urls.yml</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>934</v>
+        <v>2172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -9081,23 +9081,23 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/.github/workflows/raw-urls.yml</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>oganic</t>
+          <t>raw-url-generator</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>OA01FEBRUARI2026</t>
+          <t>data/uppermoon77_all_raw.csv</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>354753</v>
+        <v>63689</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -9106,23 +9106,23 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA01FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/data/uppermoon77_all_raw.csv</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>oganic</t>
+          <t>raw-url-generator</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>OA02FEBRUARI2026</t>
+          <t>data/uppermoon77_all_raw.xlsx</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>354753</v>
+        <v>20166</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -9131,23 +9131,23 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA02FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/data/uppermoon77_all_raw.xlsx</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>oganic</t>
+          <t>raw-url-generator</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>OA03FEBRUARI2026</t>
+          <t>generate_all_repos_raw_urls.py</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>354753</v>
+        <v>6537</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA03FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/generate_all_repos_raw_urls.py</t>
         </is>
       </c>
     </row>
@@ -9168,11 +9168,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>OA04FEBRUARI2026</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>354753</v>
+        <v>934</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA04FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>OA05FEBRUARI2026</t>
+          <t>OA01FEBRUARI2026</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA05FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA01FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9218,7 +9218,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>OA06FEBRUARI2026</t>
+          <t>OA02FEBRUARI2026</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA06FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA02FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9243,7 +9243,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>OA07FEBRUARI2026</t>
+          <t>OA03FEBRUARI2026</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA07FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA03FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>OA08FEBRUARI2026</t>
+          <t>OA04FEBRUARI2026</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA08FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA04FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>OA09FEBRUARI2026</t>
+          <t>OA05FEBRUARI2026</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA09FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA05FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>OA10FEBRUARI2026</t>
+          <t>OA06FEBRUARI2026</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA10FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA06FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>OA11FEBRUARI2026</t>
+          <t>OA07FEBRUARI2026</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA11FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA07FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9368,7 +9368,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>OA12FEBRUARI2026</t>
+          <t>OA08FEBRUARI2026</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA12FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA08FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>OA13FEBRUARI2026</t>
+          <t>OA09FEBRUARI2026</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -9406,7 +9406,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA13FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA09FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>OA14FEBRUARI2026</t>
+          <t>OA10FEBRUARI2026</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -9431,7 +9431,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA14FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA10FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>OA15FEBRUARI2026</t>
+          <t>OA11FEBRUARI2026</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -9456,7 +9456,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA15FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA11FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>OA16FEBRUARI2026</t>
+          <t>OA12FEBRUARI2026</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA16FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA12FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>OA17FEBRUARI2026</t>
+          <t>OA13FEBRUARI2026</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA17FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA13FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>OA18FEBRUARI2026</t>
+          <t>OA14FEBRUARI2026</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA18FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA14FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>OA19FEBRUARI2026</t>
+          <t>OA15FEBRUARI2026</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA19FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA15FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>OA20FEBRUARI2026</t>
+          <t>OA16FEBRUARI2026</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA20FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA16FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>OA21FEBRUARI2026</t>
+          <t>OA17FEBRUARI2026</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA21FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA17FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>OA22FEBRUARI2026</t>
+          <t>OA18FEBRUARI2026</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA22FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA18FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>OA23FEBRUARI2026</t>
+          <t>OA19FEBRUARI2026</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA23FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA19FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>OA24FEBRUARI2026</t>
+          <t>OA20FEBRUARI2026</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA24FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA20FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>OA25FEBRUARI2026</t>
+          <t>OA21FEBRUARI2026</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -9706,7 +9706,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA25FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA21FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>OA26FEBRUARI2026</t>
+          <t>OA22FEBRUARI2026</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA26FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA22FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>OA27FEBRUARI2026</t>
+          <t>OA23FEBRUARI2026</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA27FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA23FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>OA28FEBRUARI2026</t>
+          <t>OA24FEBRUARI2026</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA28FEBRUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA24FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9793,11 +9793,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>export_raw_to_sheets.py</t>
+          <t>OA25FEBRUARI2026</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>6930</v>
+        <v>354753</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/export_raw_to_sheets.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA25FEBRUARI2026</t>
         </is>
       </c>
     </row>
@@ -9818,11 +9818,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>OA26FEBRUARI2026</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>14664</v>
+        <v>354753</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -9831,23 +9831,23 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA26FEBRUARI2026</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>raw-url-generator</t>
+          <t>oganic</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>.github/workflows/raw-urls.yml</t>
+          <t>OA27FEBRUARI2026</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2172</v>
+        <v>354753</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -9856,23 +9856,23 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/.github/workflows/raw-urls.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA27FEBRUARI2026</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>raw-url-generator</t>
+          <t>oganic</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>data/uppermoon77_all_raw.csv</t>
+          <t>OA28FEBRUARI2026</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>63689</v>
+        <v>354753</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -9881,23 +9881,23 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/data/uppermoon77_all_raw.csv</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/OA28FEBRUARI2026</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>raw-url-generator</t>
+          <t>oganic</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>data/uppermoon77_all_raw.xlsx</t>
+          <t>export_raw_to_sheets.py</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>20147</v>
+        <v>6930</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -9906,23 +9906,23 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/data/uppermoon77_all_raw.xlsx</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/export_raw_to_sheets.py</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>raw-url-generator</t>
+          <t>oganic</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>generate_all_repos_raw_urls.py</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>6537</v>
+        <v>14664</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -9931,14 +9931,14 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/raw-url-generator/main/generate_all_repos_raw_urls.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/oganic/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -9947,7 +9947,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -9956,23 +9956,23 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>SA01JUNI2026</t>
+          <t>SH01SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -9981,23 +9981,23 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA01JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH01SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>SA02JUNI2026</t>
+          <t>SH02SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -10006,23 +10006,23 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA02JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH02SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>SA03JUNI2026</t>
+          <t>SH03SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -10031,23 +10031,23 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA03JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH03SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>SA04JUNI2026</t>
+          <t>SH04SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -10056,23 +10056,23 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA04JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH04SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>SA05JUNI2026</t>
+          <t>SH05SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -10081,23 +10081,23 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA05JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH05SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>SA06JUNI2026</t>
+          <t>SH06SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -10106,23 +10106,23 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA06JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH06SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>SA07JUNI2026</t>
+          <t>SH07SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -10131,23 +10131,23 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA07JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH07SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>SA08JUNI2026</t>
+          <t>SH08SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -10156,23 +10156,23 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA08JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH08SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>SA09JUNI2026</t>
+          <t>SH09SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -10181,23 +10181,23 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA09JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH09SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>SA10JUNI2026</t>
+          <t>SH10SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -10206,23 +10206,23 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA10JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH10SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>SA11JUNI2026</t>
+          <t>SH11SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -10231,23 +10231,23 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA11JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH11SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>SA12JUNI2026</t>
+          <t>SH12SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -10256,23 +10256,23 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA12JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH12SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>SA13JUNI2026</t>
+          <t>SH13SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -10281,23 +10281,23 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA13JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH13SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>SA14JUNI2026</t>
+          <t>SH14SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -10306,23 +10306,23 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA14JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH14SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>SA15JUNI2026</t>
+          <t>SH15SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -10331,23 +10331,23 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA15JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH15SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>SA16JUNI2026</t>
+          <t>SH16SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -10356,23 +10356,23 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA16JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH16SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>SA17JUNI2026</t>
+          <t>SH17SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -10381,23 +10381,23 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA17JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH17SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>SA18JUNI2026</t>
+          <t>SH18SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -10406,23 +10406,23 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA18JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH18SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>SA19JUNI2026</t>
+          <t>SH19SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -10431,23 +10431,23 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA19JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH19SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>SA20JUNI2026</t>
+          <t>SH20SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -10456,23 +10456,23 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA20JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH20SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>SA21JUNI2026</t>
+          <t>SH21SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -10481,23 +10481,23 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA21JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH21SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>SA22JUNI2026</t>
+          <t>SH22SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -10506,23 +10506,23 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA22JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH22SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>SA23JUNI2026</t>
+          <t>SH23SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -10531,23 +10531,23 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA23JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH23SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>SA24JUNI2026</t>
+          <t>SH24SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -10556,23 +10556,23 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA24JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH24SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>SA25JUNI2026</t>
+          <t>SH25SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -10581,23 +10581,23 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA25JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH25SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>SA26JUNI2026</t>
+          <t>SH26SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -10606,23 +10606,23 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA26JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH26SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>SA27JUNI2026</t>
+          <t>SH27SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -10631,23 +10631,23 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA27JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH27SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>SA28JUNI2026</t>
+          <t>SH28SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -10656,23 +10656,23 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA28JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH28SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>SA29JUNI2026</t>
+          <t>SH29SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -10681,23 +10681,23 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA29JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH29SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>SA30JUNI2026</t>
+          <t>SH30SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>354749</v>
+        <v>354754</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -10706,14 +10706,14 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA30JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH30SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -10722,7 +10722,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>14659</v>
+        <v>14668</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -10731,14 +10731,14 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -10756,23 +10756,23 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>SH01SEPTEMBER2026</t>
+          <t>ST01APRIL2026</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -10781,23 +10781,23 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH01SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST01APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>SH02SEPTEMBER2026</t>
+          <t>ST02APRIL2026</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -10806,23 +10806,23 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH02SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST02APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>SH03SEPTEMBER2026</t>
+          <t>ST03APRIL2026</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -10831,23 +10831,23 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH03SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST03APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>SH04SEPTEMBER2026</t>
+          <t>ST04APRIL2026</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -10856,23 +10856,23 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH04SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST04APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>SH05SEPTEMBER2026</t>
+          <t>ST05APRIL2026</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -10881,23 +10881,23 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH05SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST05APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>SH06SEPTEMBER2026</t>
+          <t>ST06APRIL2026</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -10906,23 +10906,23 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH06SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST06APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>SH07SEPTEMBER2026</t>
+          <t>ST07APRIL2026</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -10931,23 +10931,23 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH07SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST07APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>SH08SEPTEMBER2026</t>
+          <t>ST08APRIL2026</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -10956,23 +10956,23 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH08SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST08APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>SH09SEPTEMBER2026</t>
+          <t>ST09APRIL2026</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -10981,23 +10981,23 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH09SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST09APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>SH10SEPTEMBER2026</t>
+          <t>ST10APRIL2026</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -11006,23 +11006,23 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH10SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST10APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>SH11SEPTEMBER2026</t>
+          <t>ST11APRIL2026</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -11031,23 +11031,23 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH11SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST11APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>SH12SEPTEMBER2026</t>
+          <t>ST12APRIL2026</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -11056,23 +11056,23 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH12SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST12APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>SH13SEPTEMBER2026</t>
+          <t>ST13APRIL2026</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -11081,23 +11081,23 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH13SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST13APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>SH14SEPTEMBER2026</t>
+          <t>ST14APRIL2026</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -11106,23 +11106,23 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH14SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST14APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>SH15SEPTEMBER2026</t>
+          <t>ST15APRIL2026</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -11131,23 +11131,23 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH15SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST15APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>SH16SEPTEMBER2026</t>
+          <t>ST16APRIL2026</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -11156,23 +11156,23 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH16SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST16APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>SH17SEPTEMBER2026</t>
+          <t>ST17APRIL2026</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -11181,23 +11181,23 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH17SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST17APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>SH18SEPTEMBER2026</t>
+          <t>ST18APRIL2026</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -11206,23 +11206,23 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH18SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST18APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>SH19SEPTEMBER2026</t>
+          <t>ST19APRIL2026</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -11231,23 +11231,23 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH19SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST19APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>SH20SEPTEMBER2026</t>
+          <t>ST20APRIL2026</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -11256,23 +11256,23 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH20SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST20APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>SH21SEPTEMBER2026</t>
+          <t>ST21APRIL2026</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -11281,23 +11281,23 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH21SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST21APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>SH22SEPTEMBER2026</t>
+          <t>ST22APRIL2026</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -11306,23 +11306,23 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH22SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST22APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>SH23SEPTEMBER2026</t>
+          <t>ST23APRIL2026</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -11331,23 +11331,23 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH23SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST23APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>SH24SEPTEMBER2026</t>
+          <t>ST24APRIL2026</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -11356,23 +11356,23 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH24SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST24APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>SH25SEPTEMBER2026</t>
+          <t>ST25APRIL2026</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -11381,23 +11381,23 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH25SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST25APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>SH26SEPTEMBER2026</t>
+          <t>ST26APRIL2026</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -11406,23 +11406,23 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH26SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST26APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>SH27SEPTEMBER2026</t>
+          <t>ST27APRIL2026</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -11431,23 +11431,23 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH27SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST27APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>SH28SEPTEMBER2026</t>
+          <t>ST28APRIL2026</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -11456,23 +11456,23 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH28SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST28APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>SH29SEPTEMBER2026</t>
+          <t>ST29APRIL2026</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -11481,23 +11481,23 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH29SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST29APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>SH30SEPTEMBER2026</t>
+          <t>ST30APRIL2026</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>354754</v>
+        <v>354750</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -11506,14 +11506,14 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH30SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST30APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>14668</v>
+        <v>14658</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -13188,7 +13188,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -13197,7 +13197,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -13206,23 +13206,23 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>ST01APRIL2026</t>
+          <t>SA01JUNI2026</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -13231,23 +13231,23 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST01APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA01JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ST02APRIL2026</t>
+          <t>SA02JUNI2026</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -13256,23 +13256,23 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST02APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA02JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>ST03APRIL2026</t>
+          <t>SA03JUNI2026</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -13281,23 +13281,23 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST03APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA03JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>ST04APRIL2026</t>
+          <t>SA04JUNI2026</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -13306,23 +13306,23 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST04APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA04JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>ST05APRIL2026</t>
+          <t>SA05JUNI2026</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -13331,23 +13331,23 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST05APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA05JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>ST06APRIL2026</t>
+          <t>SA06JUNI2026</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -13356,23 +13356,23 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST06APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA06JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ST07APRIL2026</t>
+          <t>SA07JUNI2026</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -13381,23 +13381,23 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST07APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA07JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>ST08APRIL2026</t>
+          <t>SA08JUNI2026</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -13406,23 +13406,23 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST08APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA08JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>ST09APRIL2026</t>
+          <t>SA09JUNI2026</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -13431,23 +13431,23 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST09APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA09JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>ST10APRIL2026</t>
+          <t>SA10JUNI2026</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -13456,23 +13456,23 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST10APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA10JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>ST11APRIL2026</t>
+          <t>SA11JUNI2026</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -13481,23 +13481,23 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST11APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA11JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>ST12APRIL2026</t>
+          <t>SA12JUNI2026</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -13506,23 +13506,23 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST12APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA12JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ST13APRIL2026</t>
+          <t>SA13JUNI2026</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -13531,23 +13531,23 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST13APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA13JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>ST14APRIL2026</t>
+          <t>SA14JUNI2026</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -13556,23 +13556,23 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST14APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA14JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>ST15APRIL2026</t>
+          <t>SA15JUNI2026</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -13581,23 +13581,23 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST15APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA15JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>ST16APRIL2026</t>
+          <t>SA16JUNI2026</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -13606,23 +13606,23 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST16APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA16JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>ST17APRIL2026</t>
+          <t>SA17JUNI2026</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -13631,23 +13631,23 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST17APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA17JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>ST18APRIL2026</t>
+          <t>SA18JUNI2026</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -13656,23 +13656,23 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST18APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA18JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>ST19APRIL2026</t>
+          <t>SA19JUNI2026</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -13681,23 +13681,23 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST19APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA19JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>ST20APRIL2026</t>
+          <t>SA20JUNI2026</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -13706,23 +13706,23 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST20APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA20JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>ST21APRIL2026</t>
+          <t>SA21JUNI2026</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -13731,23 +13731,23 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST21APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA21JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>ST22APRIL2026</t>
+          <t>SA22JUNI2026</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -13756,23 +13756,23 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST22APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA22JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>ST23APRIL2026</t>
+          <t>SA23JUNI2026</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -13781,23 +13781,23 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST23APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA23JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>ST24APRIL2026</t>
+          <t>SA24JUNI2026</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -13806,23 +13806,23 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST24APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA24JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>ST25APRIL2026</t>
+          <t>SA25JUNI2026</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -13831,23 +13831,23 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST25APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA25JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>ST26APRIL2026</t>
+          <t>SA26JUNI2026</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -13856,23 +13856,23 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST26APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA26JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>ST27APRIL2026</t>
+          <t>SA27JUNI2026</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -13881,23 +13881,23 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST27APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA27JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>ST28APRIL2026</t>
+          <t>SA28JUNI2026</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -13906,23 +13906,23 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST28APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA28JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>ST29APRIL2026</t>
+          <t>SA29JUNI2026</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -13931,23 +13931,23 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST29APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA29JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>ST30APRIL2026</t>
+          <t>SA30JUNI2026</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>354750</v>
+        <v>354749</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -13956,14 +13956,14 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST30APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA30JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -13972,7 +13972,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>14658</v>
+        <v>14659</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/update_github_file.py</t>
         </is>
       </c>
     </row>

--- a/data/uppermoon77_all_raw.xlsx
+++ b/data/uppermoon77_all_raw.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -481,23 +481,23 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FH01MARET2026</t>
+          <t>BS01AGUSTUS2026</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -506,23 +506,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH01MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FH02MARET2026</t>
+          <t>BS02AGUSTUS2026</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -531,23 +531,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH02MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FH03MARET2026</t>
+          <t>BS03AGUSTUS2026</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -556,23 +556,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH03MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FH04MARET2026</t>
+          <t>BS04AGUSTUS2026</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -581,23 +581,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH04MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FH05MARET2026</t>
+          <t>BS05AGUSTUS2026</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -606,23 +606,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH05MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FH06MARET2026</t>
+          <t>BS06AGUSTUS2026</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -631,23 +631,23 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH06MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FH07MARET2026</t>
+          <t>BS07AGUSTUS2026</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -656,23 +656,23 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH07MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FH08MARET2026</t>
+          <t>BS08AGUSTUS2026</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -681,23 +681,23 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH08MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FH09MARET2026</t>
+          <t>BS09AGUSTUS2026</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -706,23 +706,23 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH09MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FH10MARET2026</t>
+          <t>BS10AGUSTUS2026</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -731,23 +731,23 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH10MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FH11MARET2026</t>
+          <t>BS11AGUSTUS2026</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -756,23 +756,23 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH11MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FH12MARET2026</t>
+          <t>BS12AGUSTUS2026</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -781,23 +781,23 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH12MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FH13MARET2026</t>
+          <t>BS13AGUSTUS2026</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -806,23 +806,23 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH13MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FH14MARET2026</t>
+          <t>BS14AGUSTUS2026</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -831,23 +831,23 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH14MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FH15MARET2026</t>
+          <t>BS15AGUSTUS2026</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -856,23 +856,23 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH15MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FH16MARET2026</t>
+          <t>BS16AGUSTUS2026</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -881,23 +881,23 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH16MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FH17MARET2026</t>
+          <t>BS17AGUSTUS2026</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -906,23 +906,23 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH17MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FH18MARET2026</t>
+          <t>BS18AGUSTUS2026</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -931,23 +931,23 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH18MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FH19MARET2026</t>
+          <t>BS19AGUSTUS2026</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -956,23 +956,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH19MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FH20MARET2026</t>
+          <t>BS20AGUSTUS2026</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -981,23 +981,23 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH20MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FH21MARET2026</t>
+          <t>BS21AGUSTUS2026</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1006,23 +1006,23 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH21MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS21AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FH22MARET2026</t>
+          <t>BS22AGUSTUS2026</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1031,23 +1031,23 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH22MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS22AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FH23MARET2026</t>
+          <t>BS23AGUSTUS2026</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1056,23 +1056,23 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH23MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS23AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FH24MARET2026</t>
+          <t>BS24AGUSTUS2026</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1081,23 +1081,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH24MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS24AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FH25MARET2026</t>
+          <t>BS25AGUSTUS2026</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1106,23 +1106,23 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH25MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS25AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FH26MARET2026</t>
+          <t>BS26AGUSTUS2026</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1131,23 +1131,23 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH26MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS26AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FH27MARET2026</t>
+          <t>BS27AGUSTUS2026</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1156,23 +1156,23 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH27MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS27AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FH28MARET2026</t>
+          <t>BS28AGUSTUS2026</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1181,23 +1181,23 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH28MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS28AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FH29MARET2026</t>
+          <t>BS29AGUSTUS2026</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1206,23 +1206,23 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH29MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS29AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FH30MARET2026</t>
+          <t>BS30AGUSTUS2026</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1231,23 +1231,23 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH30MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS30AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FH31MARET2026</t>
+          <t>BS31AGUSTUS2026</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1256,14 +1256,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH31MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS31AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>14455</v>
+        <v>14664</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1306,23 +1306,23 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GG01NOVEMBER2025</t>
+          <t>FH01MARET2026</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3850</v>
+        <v>350779</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1331,23 +1331,23 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH01MARET2026</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GG02NOVEMBER2025</t>
+          <t>FH02MARET2026</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3850</v>
+        <v>350779</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1356,23 +1356,23 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH02MARET2026</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GG03NOVEMBER2025</t>
+          <t>FH03MARET2026</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3850</v>
+        <v>350779</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1381,23 +1381,23 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH03MARET2026</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GG04NOVEMBER2025</t>
+          <t>FH04MARET2026</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3850</v>
+        <v>350779</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1406,23 +1406,23 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH04MARET2026</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GG05NOVEMBER2025</t>
+          <t>FH05MARET2026</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3850</v>
+        <v>350779</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1431,23 +1431,23 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH05MARET2026</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GG06NOVEMBER2025</t>
+          <t>FH06MARET2026</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3850</v>
+        <v>350779</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1456,23 +1456,23 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH06MARET2026</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GG07NOVEMBER2025</t>
+          <t>FH07MARET2026</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3850</v>
+        <v>350779</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1481,23 +1481,23 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH07MARET2026</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GG08NOVEMBER2025</t>
+          <t>FH08MARET2026</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3850</v>
+        <v>350779</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1506,23 +1506,23 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH08MARET2026</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GG09NOVEMBER2025</t>
+          <t>FH09MARET2026</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3850</v>
+        <v>350779</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1531,23 +1531,23 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH09MARET2026</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GG10NOVEMBER2025</t>
+          <t>FH10MARET2026</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3850</v>
+        <v>350779</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1556,23 +1556,23 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH10MARET2026</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GG11NOVEMBER2025</t>
+          <t>FH11MARET2026</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3850</v>
+        <v>350779</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1581,23 +1581,23 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH11MARET2026</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GG12NOVEMBER2025</t>
+          <t>FH12MARET2026</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1606,23 +1606,23 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH12MARET2026</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GG13NOVEMBER2025</t>
+          <t>FH13MARET2026</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1631,23 +1631,23 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH13MARET2026</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GG14NOVEMBER2025</t>
+          <t>FH14MARET2026</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1656,23 +1656,23 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH14MARET2026</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GG15NOVEMBER2025</t>
+          <t>FH15MARET2026</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1681,23 +1681,23 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH15MARET2026</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GG16NOVEMBER2025</t>
+          <t>FH16MARET2026</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1706,23 +1706,23 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH16MARET2026</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GG17NOVEMBER2025</t>
+          <t>FH17MARET2026</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1731,23 +1731,23 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH17MARET2026</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GG18NOVEMBER2025</t>
+          <t>FH18MARET2026</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1756,23 +1756,23 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH18MARET2026</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GG19NOVEMBER2025</t>
+          <t>FH19MARET2026</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1781,23 +1781,23 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH19MARET2026</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GG20NOVEMBER2025</t>
+          <t>FH20MARET2026</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1806,23 +1806,23 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH20MARET2026</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GG21NOVEMBER2025</t>
+          <t>FH21MARET2026</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1831,23 +1831,23 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH21MARET2026</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GG22NOVEMBER2025</t>
+          <t>FH22MARET2026</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1856,23 +1856,23 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH22MARET2026</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GG23NOVEMBER2025</t>
+          <t>FH23MARET2026</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1881,23 +1881,23 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH23MARET2026</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GG24NOVEMBER2025</t>
+          <t>FH24MARET2026</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1906,23 +1906,23 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH24MARET2026</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GG25NOVEMBER2025</t>
+          <t>FH25MARET2026</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1931,23 +1931,23 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH25MARET2026</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GG26NOVEMBER2025</t>
+          <t>FH26MARET2026</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1956,23 +1956,23 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH26MARET2026</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GG27NOVEMBER2025</t>
+          <t>FH27MARET2026</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1981,23 +1981,23 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH27MARET2026</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GG28NOVEMBER2025</t>
+          <t>FH28MARET2026</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2006,23 +2006,23 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH28MARET2026</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GG29NOVEMBER2025</t>
+          <t>FH29MARET2026</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2031,23 +2031,23 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH29MARET2026</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GG30NOVEMBER2025</t>
+          <t>FH30MARET2026</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>350782</v>
+        <v>350779</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2056,23 +2056,23 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH30MARET2026</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>FH31MARET2026</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>14664</v>
+        <v>350779</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2081,23 +2081,23 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH31MARET2026</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>931</v>
+        <v>14455</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2106,23 +2106,23 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DT01MEI2026</t>
+          <t>.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>350777</v>
+        <v>943</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2131,23 +2131,23 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DT02MEI2026</t>
+          <t>LX19OKTOBER2025</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>350777</v>
+        <v>367820</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2156,23 +2156,23 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DT03MEI2026</t>
+          <t>LX20OKTOBER2025</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>350777</v>
+        <v>1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2181,23 +2181,23 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DT04MEI2026</t>
+          <t>LX21OKTOBER2025</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>350777</v>
+        <v>367820</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2206,23 +2206,23 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DT05MEI2026</t>
+          <t>LX22OKTOBER2025</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>350777</v>
+        <v>1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2231,23 +2231,23 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DT06MEI2026</t>
+          <t>LX23OKTOBER2025</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>350777</v>
+        <v>1</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2256,23 +2256,23 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DT07MEI2026</t>
+          <t>LX24OKTOBER2025</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>350777</v>
+        <v>1</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2281,23 +2281,23 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DT08MEI2026</t>
+          <t>LX25OKTOBER2025</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>350777</v>
+        <v>1</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2306,23 +2306,23 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DT09MEI2026</t>
+          <t>LX26OKTOBER2025</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>350777</v>
+        <v>1</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2331,23 +2331,23 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DT10MEI2026</t>
+          <t>LX27OKTOBER2025</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>350777</v>
+        <v>1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2356,23 +2356,23 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DT11MEI2026</t>
+          <t>LX28OKTOBER2025</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>350777</v>
+        <v>1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2381,23 +2381,23 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DT12MEI2026</t>
+          <t>LX29OKTOBER2025</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>350777</v>
+        <v>1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2406,23 +2406,23 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DT13MEI2026</t>
+          <t>LX30OKTOBER2025</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>350777</v>
+        <v>367766</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2431,23 +2431,23 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DT14MEI2026</t>
+          <t>lazylazyloxy</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>350777</v>
+        <v>367763</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2456,23 +2456,23 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DT15MEI2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>350777</v>
+        <v>7475</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2481,23 +2481,23 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DT16MEI2026</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>350777</v>
+        <v>933</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2506,23 +2506,23 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DT17MEI2026</t>
+          <t>AM01JULI2026</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2531,23 +2531,23 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DT18MEI2026</t>
+          <t>AM02JULI2026</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2556,23 +2556,23 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DT19MEI2026</t>
+          <t>AM03JULI2026</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2581,23 +2581,23 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DT20MEI2026</t>
+          <t>AM04JULI2026</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2606,23 +2606,23 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DT21MEI2026</t>
+          <t>AM05JULI2026</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2631,23 +2631,23 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DT22MEI2026</t>
+          <t>AM06JULI2026</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2656,23 +2656,23 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DT23MEI2026</t>
+          <t>AM07JULI2026</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2681,23 +2681,23 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DT24MEI2026</t>
+          <t>AM08JULI2026</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2706,23 +2706,23 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DT25MEI2026</t>
+          <t>AM09JULI2026</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2731,23 +2731,23 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DT26MEI2026</t>
+          <t>AM10JULI2026</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2756,23 +2756,23 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DT27MEI2026</t>
+          <t>AM11JULI2026</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2781,23 +2781,23 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DT28MEI2026</t>
+          <t>AM12JULI2026</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2806,23 +2806,23 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DT29MEI2026</t>
+          <t>AM13JULI2026</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2831,23 +2831,23 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DT30MEI2026</t>
+          <t>AM14JULI2026</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2856,23 +2856,23 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DT31MEI2026</t>
+          <t>AM15JULI2026</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>350777</v>
+        <v>350778</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2881,23 +2881,23 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>AM16JULI2026</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>14651</v>
+        <v>350778</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2906,23 +2906,23 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>AM17JULI2026</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>936</v>
+        <v>350778</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2931,23 +2931,23 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BS01AGUSTUS2026</t>
+          <t>AM18JULI2026</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2956,23 +2956,23 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BS02AGUSTUS2026</t>
+          <t>AM19JULI2026</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2981,23 +2981,23 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BS03AGUSTUS2026</t>
+          <t>AM20JULI2026</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3006,23 +3006,23 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>BS04AGUSTUS2026</t>
+          <t>AM21JULI2026</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3031,23 +3031,23 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BS05AGUSTUS2026</t>
+          <t>AM22JULI2026</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3056,23 +3056,23 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>BS06AGUSTUS2026</t>
+          <t>AM23JULI2026</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BS07AGUSTUS2026</t>
+          <t>AM24JULI2026</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3106,23 +3106,23 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BS08AGUSTUS2026</t>
+          <t>AM25JULI2026</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3131,23 +3131,23 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BS09AGUSTUS2026</t>
+          <t>AM26JULI2026</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3156,23 +3156,23 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BS10AGUSTUS2026</t>
+          <t>AM27JULI2026</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3181,23 +3181,23 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BS11AGUSTUS2026</t>
+          <t>AM28JULI2026</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3206,23 +3206,23 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>BS12AGUSTUS2026</t>
+          <t>AM29JULI2026</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3231,23 +3231,23 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BS13AGUSTUS2026</t>
+          <t>AM30JULI2026</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3256,23 +3256,23 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>BS14AGUSTUS2026</t>
+          <t>AM31JULI2026</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>350781</v>
+        <v>350778</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3281,23 +3281,23 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>BS15AGUSTUS2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>350781</v>
+        <v>14655</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3306,23 +3306,23 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BS16AGUSTUS2026</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>350781</v>
+        <v>934</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3331,23 +3331,23 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BS17AGUSTUS2026</t>
+          <t>GG01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>350781</v>
+        <v>3850</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3356,23 +3356,23 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>BS18AGUSTUS2026</t>
+          <t>GG02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>350781</v>
+        <v>3850</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3381,23 +3381,23 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>BS19AGUSTUS2026</t>
+          <t>GG03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>350781</v>
+        <v>3850</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3406,23 +3406,23 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BS20AGUSTUS2026</t>
+          <t>GG04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>350781</v>
+        <v>3850</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3431,23 +3431,23 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BS21AGUSTUS2026</t>
+          <t>GG05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>350781</v>
+        <v>3850</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3456,23 +3456,23 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS21AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>BS22AGUSTUS2026</t>
+          <t>GG06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>350781</v>
+        <v>3850</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3481,23 +3481,23 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS22AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BS23AGUSTUS2026</t>
+          <t>GG07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>350781</v>
+        <v>3850</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3506,23 +3506,23 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS23AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>BS24AGUSTUS2026</t>
+          <t>GG08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>350781</v>
+        <v>3850</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3531,23 +3531,23 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS24AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BS25AGUSTUS2026</t>
+          <t>GG09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>350781</v>
+        <v>3850</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3556,23 +3556,23 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS25AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BS26AGUSTUS2026</t>
+          <t>GG10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>350781</v>
+        <v>3850</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3581,23 +3581,23 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS26AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BS27AGUSTUS2026</t>
+          <t>GG11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>350781</v>
+        <v>3850</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3606,23 +3606,23 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS27AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BS28AGUSTUS2026</t>
+          <t>GG12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>350781</v>
+        <v>350782</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3631,23 +3631,23 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS28AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BS29AGUSTUS2026</t>
+          <t>GG13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>350781</v>
+        <v>350782</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3656,23 +3656,23 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS29AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BS30AGUSTUS2026</t>
+          <t>GG14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>350781</v>
+        <v>350782</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3681,23 +3681,23 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS30AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BS31AGUSTUS2026</t>
+          <t>GG15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>350781</v>
+        <v>350782</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3706,23 +3706,23 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS31AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>GG16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>14664</v>
+        <v>350782</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3731,23 +3731,23 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>GG17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>933</v>
+        <v>350782</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3756,19 +3756,19 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ER01DESEMBER2026</t>
+          <t>GG18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3781,19 +3781,19 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER01DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ER02DESEMBER2026</t>
+          <t>GG19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3806,19 +3806,19 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER02DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ER03DESEMBER2026</t>
+          <t>GG20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3831,19 +3831,19 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER03DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ER04DESEMBER2026</t>
+          <t>GG21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3856,19 +3856,19 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER04DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ER05DESEMBER2026</t>
+          <t>GG22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3881,19 +3881,19 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER05DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ER06DESEMBER2026</t>
+          <t>GG23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -3906,19 +3906,19 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER06DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ER07DESEMBER2026</t>
+          <t>GG24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3931,19 +3931,19 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER07DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ER08DESEMBER2026</t>
+          <t>GG25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3956,19 +3956,19 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER08DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ER09DESEMBER2026</t>
+          <t>GG26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -3981,19 +3981,19 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER09DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ER10DESEMBER2026</t>
+          <t>GG27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER10DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ER11DESEMBER2026</t>
+          <t>GG28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -4031,19 +4031,19 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER11DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ER12DESEMBER2026</t>
+          <t>GG29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -4056,19 +4056,19 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER12DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ER13DESEMBER2026</t>
+          <t>GG30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -4081,23 +4081,23 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER13DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ER14DESEMBER2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>350782</v>
+        <v>14664</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4106,23 +4106,23 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER14DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ER15DESEMBER2026</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>350782</v>
+        <v>936</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4131,23 +4131,23 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER15DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ER16DESEMBER2026</t>
+          <t>CD01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4156,23 +4156,23 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER16DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ER17DESEMBER2026</t>
+          <t>CD02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4181,23 +4181,23 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER17DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ER18DESEMBER2026</t>
+          <t>CD03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4206,23 +4206,23 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER18DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ER19DESEMBER2026</t>
+          <t>CD04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4231,23 +4231,23 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER19DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ER20DESEMBER2026</t>
+          <t>CD05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4256,23 +4256,23 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER20DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ER21DESEMBER2026</t>
+          <t>CD06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4281,23 +4281,23 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER21DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ER22DESEMBER2026</t>
+          <t>CD07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4306,23 +4306,23 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER22DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ER23DESEMBER2026</t>
+          <t>CD08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4331,23 +4331,23 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER23DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ER24DESEMBER2026</t>
+          <t>CD09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4356,23 +4356,23 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER24DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ER25DESEMBER2026</t>
+          <t>CD10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4381,23 +4381,23 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER25DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ER26DESEMBER2026</t>
+          <t>CD11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4406,19 +4406,19 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER26DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ER27DESEMBER2026</t>
+          <t>CD12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -4431,19 +4431,19 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER27DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ER28DESEMBER2026</t>
+          <t>CD13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -4456,19 +4456,19 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER28DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ER29DESEMBER2026</t>
+          <t>CD14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -4481,19 +4481,19 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER29DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ER30DESEMBER2026</t>
+          <t>CD15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -4506,19 +4506,19 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER30DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ER31DESEMBER2026</t>
+          <t>CD16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -4531,23 +4531,23 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER31DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>CD17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>14663</v>
+        <v>350782</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4556,23 +4556,23 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>CD18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>943</v>
+        <v>350782</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4581,23 +4581,23 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>LX19OKTOBER2025</t>
+          <t>CD19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>367820</v>
+        <v>350782</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4606,23 +4606,23 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>LX20OKTOBER2025</t>
+          <t>CD20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4631,23 +4631,23 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>LX21OKTOBER2025</t>
+          <t>CD21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>367820</v>
+        <v>350782</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4656,23 +4656,23 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>LX22OKTOBER2025</t>
+          <t>CD22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4681,23 +4681,23 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>LX23OKTOBER2025</t>
+          <t>CD23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4706,23 +4706,23 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>LX24OKTOBER2025</t>
+          <t>CD24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4731,23 +4731,23 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>LX25OKTOBER2025</t>
+          <t>CD25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4756,23 +4756,23 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>LX26OKTOBER2025</t>
+          <t>CD26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4781,23 +4781,23 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>LX27OKTOBER2025</t>
+          <t>CD27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4806,23 +4806,23 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>LX28OKTOBER2025</t>
+          <t>CD28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4831,23 +4831,23 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>LX29OKTOBER2025</t>
+          <t>CD29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4856,23 +4856,23 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>LX30OKTOBER2025</t>
+          <t>CD30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>367766</v>
+        <v>350782</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4881,23 +4881,23 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>lazylazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>367763</v>
+        <v>367702</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4906,14 +4906,14 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>7475</v>
+        <v>14666</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4931,14 +4931,14 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4956,23 +4956,23 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AM01JULI2026</t>
+          <t>JS01NOVEMBER2026</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4981,23 +4981,23 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS01NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AM02JULI2026</t>
+          <t>JS02NOVEMBER2026</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5006,23 +5006,23 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS02NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AM03JULI2026</t>
+          <t>JS03NOVEMBER2026</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5031,23 +5031,23 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS03NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AM04JULI2026</t>
+          <t>JS04NOVEMBER2026</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5056,23 +5056,23 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS04NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AM05JULI2026</t>
+          <t>JS05NOVEMBER2026</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5081,23 +5081,23 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS05NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>AM06JULI2026</t>
+          <t>JS06NOVEMBER2026</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5106,23 +5106,23 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS06NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AM07JULI2026</t>
+          <t>JS07NOVEMBER2026</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -5131,23 +5131,23 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS07NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AM08JULI2026</t>
+          <t>JS08NOVEMBER2026</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -5156,23 +5156,23 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS08NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AM09JULI2026</t>
+          <t>JS09NOVEMBER2026</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5181,23 +5181,23 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS09NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AM10JULI2026</t>
+          <t>JS10NOVEMBER2026</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5206,23 +5206,23 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS10NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AM11JULI2026</t>
+          <t>JS11NOVEMBER2026</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -5231,23 +5231,23 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS11NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AM12JULI2026</t>
+          <t>JS12NOVEMBER2026</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -5256,23 +5256,23 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS12NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AM13JULI2026</t>
+          <t>JS13NOVEMBER2026</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5281,23 +5281,23 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS13NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AM14JULI2026</t>
+          <t>JS14NOVEMBER2026</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -5306,23 +5306,23 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS14NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AM15JULI2026</t>
+          <t>JS15NOVEMBER2026</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -5331,23 +5331,23 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS15NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AM16JULI2026</t>
+          <t>JS16NOVEMBER2026</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5356,23 +5356,23 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS16NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AM17JULI2026</t>
+          <t>JS17NOVEMBER2026</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5381,23 +5381,23 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS17NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AM18JULI2026</t>
+          <t>JS18NOVEMBER2026</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5406,23 +5406,23 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS18NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>AM19JULI2026</t>
+          <t>JS19NOVEMBER2026</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5431,23 +5431,23 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS19NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>AM20JULI2026</t>
+          <t>JS20NOVEMBER2026</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5456,23 +5456,23 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS20NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>AM21JULI2026</t>
+          <t>JS21NOVEMBER2026</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5481,23 +5481,23 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS21NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>AM22JULI2026</t>
+          <t>JS22NOVEMBER2026</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5506,23 +5506,23 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS22NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AM23JULI2026</t>
+          <t>JS23NOVEMBER2026</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5531,23 +5531,23 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS23NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>AM24JULI2026</t>
+          <t>JS24NOVEMBER2026</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5556,23 +5556,23 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS24NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>AM25JULI2026</t>
+          <t>JS25NOVEMBER2026</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5581,23 +5581,23 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS25NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>AM26JULI2026</t>
+          <t>JS26NOVEMBER2026</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5606,23 +5606,23 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS26NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>AM27JULI2026</t>
+          <t>JS27NOVEMBER2026</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5631,23 +5631,23 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS27NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>AM28JULI2026</t>
+          <t>JS28NOVEMBER2026</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5656,23 +5656,23 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS28NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>AM29JULI2026</t>
+          <t>JS29NOVEMBER2026</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5681,23 +5681,23 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS29NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>AM30JULI2026</t>
+          <t>JS30NOVEMBER2026</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5706,23 +5706,23 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS30NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>AM31JULI2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>350778</v>
+        <v>14664</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5731,23 +5731,23 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>14655</v>
+        <v>933</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5756,23 +5756,23 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>ER01DESEMBER2026</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>940</v>
+        <v>350782</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5781,23 +5781,23 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER01DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DC01OKTOBER2025</t>
+          <t>ER02DESEMBER2026</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5806,23 +5806,23 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC01OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER02DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DC02OKTOBER2025</t>
+          <t>ER03DESEMBER2026</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -5831,23 +5831,23 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC02OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER03DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DC03OKTOBER2025</t>
+          <t>ER04DESEMBER2026</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5856,23 +5856,23 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC03OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER04DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DC04OKTOBER2025</t>
+          <t>ER05DESEMBER2026</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5881,23 +5881,23 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC04OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER05DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>DC05OKTOBER2025</t>
+          <t>ER06DESEMBER2026</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5906,23 +5906,23 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC05OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER06DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DC06OKTOBER2025</t>
+          <t>ER07DESEMBER2026</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5931,23 +5931,23 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC06OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER07DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DC07OKTOBER2025</t>
+          <t>ER08DESEMBER2026</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5956,23 +5956,23 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC07OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER08DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>DC08OKTOBER2025</t>
+          <t>ER09DESEMBER2026</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5981,23 +5981,23 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC08OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER09DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DC09OKTOBER2025</t>
+          <t>ER10DESEMBER2026</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -6006,23 +6006,23 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC09OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER10DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DC10OKTOBER2025</t>
+          <t>ER11DESEMBER2026</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -6031,23 +6031,23 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC10OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER11DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>DC11OKTOBER2025</t>
+          <t>ER12DESEMBER2026</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -6056,23 +6056,23 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC11OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER12DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>DC12OKTOBER2025</t>
+          <t>ER13DESEMBER2026</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -6081,23 +6081,23 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC12OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER13DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>DC13OKTOBER2025</t>
+          <t>ER14DESEMBER2026</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -6106,23 +6106,23 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC13OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER14DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DC14OKTOBER2025</t>
+          <t>ER15DESEMBER2026</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -6131,23 +6131,23 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC14OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER15DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DC15OKTOBER2025</t>
+          <t>ER16DESEMBER2026</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -6156,23 +6156,23 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC15OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER16DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>DC16OKTOBER2025</t>
+          <t>ER17DESEMBER2026</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -6181,23 +6181,23 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC16OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER17DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>DC17OKTOBER2025</t>
+          <t>ER18DESEMBER2026</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -6206,23 +6206,23 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC17OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER18DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>DC18OKTOBER2025</t>
+          <t>ER19DESEMBER2026</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6231,23 +6231,23 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC18OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER19DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>DC19OKTOBER2025</t>
+          <t>ER20DESEMBER2026</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -6256,23 +6256,23 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER20DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>DC20OKTOBER2025</t>
+          <t>ER21DESEMBER2026</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -6281,23 +6281,23 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER21DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>DC21OKTOBER2025</t>
+          <t>ER22DESEMBER2026</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -6306,23 +6306,23 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER22DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>DC22OKTOBER2025</t>
+          <t>ER23DESEMBER2026</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -6331,23 +6331,23 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER23DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>DC23OKTOBER2025</t>
+          <t>ER24DESEMBER2026</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -6356,23 +6356,23 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER24DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DC24OKTOBER2025</t>
+          <t>ER25DESEMBER2026</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -6381,23 +6381,23 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER25DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>DC25OKTOBER2025</t>
+          <t>ER26DESEMBER2026</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -6406,23 +6406,23 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER26DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>DC26OKTOBER2025</t>
+          <t>ER27DESEMBER2026</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6431,23 +6431,23 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER27DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>DC27OKTOBER2025</t>
+          <t>ER28DESEMBER2026</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -6456,23 +6456,23 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER28DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>DC28OKTOBER2025</t>
+          <t>ER29DESEMBER2026</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6481,23 +6481,23 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER29DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>DC29OKTOBER2025</t>
+          <t>ER30DESEMBER2026</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6506,23 +6506,23 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER30DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>DC30OKTOBER2025</t>
+          <t>ER31DESEMBER2026</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6531,23 +6531,23 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER31DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>DC31OKTOBER2025</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3850</v>
+        <v>14663</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6556,23 +6556,23 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC31OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>367705</v>
+        <v>931</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6581,23 +6581,23 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/dadangconelo</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>DT01MEI2026</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>14427</v>
+        <v>350777</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6606,23 +6606,23 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>DT02MEI2026</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>936</v>
+        <v>350777</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -6631,23 +6631,23 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MN01DESEMBER2025</t>
+          <t>DT03MEI2026</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6656,23 +6656,23 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN01DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MN02DESEMBER2025</t>
+          <t>DT04MEI2026</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -6681,23 +6681,23 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN02DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MN03DESEMBER2025</t>
+          <t>DT05MEI2026</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6706,23 +6706,23 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN03DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MN04DESEMBER2025</t>
+          <t>DT06MEI2026</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -6731,23 +6731,23 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN04DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>MN05DESEMBER2025</t>
+          <t>DT07MEI2026</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -6756,23 +6756,23 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN05DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MN06DESEMBER2025</t>
+          <t>DT08MEI2026</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -6781,23 +6781,23 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN06DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MN07DESEMBER2025</t>
+          <t>DT09MEI2026</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -6806,23 +6806,23 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN07DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MN08DESEMBER2025</t>
+          <t>DT10MEI2026</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -6831,23 +6831,23 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN08DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MN09DESEMBER2025</t>
+          <t>DT11MEI2026</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -6856,23 +6856,23 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN09DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>MN10DESEMBER2025</t>
+          <t>DT12MEI2026</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -6881,23 +6881,23 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN10DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>MN11DESEMBER2025</t>
+          <t>DT13MEI2026</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -6906,23 +6906,23 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN11DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>MN12DESEMBER2025</t>
+          <t>DT14MEI2026</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -6931,23 +6931,23 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN12DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>MN13DESEMBER2025</t>
+          <t>DT15MEI2026</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -6956,23 +6956,23 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN13DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>MN14DESEMBER2025</t>
+          <t>DT16MEI2026</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -6981,23 +6981,23 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN14DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>MN15DESEMBER2025</t>
+          <t>DT17MEI2026</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -7006,23 +7006,23 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN15DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>MN16DESEMBER2025</t>
+          <t>DT18MEI2026</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -7031,23 +7031,23 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN16DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>MN17DESEMBER2025</t>
+          <t>DT19MEI2026</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -7056,23 +7056,23 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN17DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MN18DESEMBER2025</t>
+          <t>DT20MEI2026</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -7081,23 +7081,23 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN18DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MN19DESEMBER2025</t>
+          <t>DT21MEI2026</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -7106,23 +7106,23 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN19DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>MN20DESEMBER2025</t>
+          <t>DT22MEI2026</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -7131,23 +7131,23 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN20DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>MN21DESEMBER2025</t>
+          <t>DT23MEI2026</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -7156,23 +7156,23 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN21DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>MN22DESEMBER2025</t>
+          <t>DT24MEI2026</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -7181,23 +7181,23 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN22DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>MN23DESEMBER2025</t>
+          <t>DT25MEI2026</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -7206,23 +7206,23 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN23DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>MN24DESEMBER2025</t>
+          <t>DT26MEI2026</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -7231,23 +7231,23 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN24DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>MN25DESEMBER2025</t>
+          <t>DT27MEI2026</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -7256,23 +7256,23 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN25DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>MN26DESEMBER2025</t>
+          <t>DT28MEI2026</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -7281,23 +7281,23 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN26DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>MN27DESEMBER2025</t>
+          <t>DT29MEI2026</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -7306,23 +7306,23 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN27DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>MN28DESEMBER2025</t>
+          <t>DT30MEI2026</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -7331,23 +7331,23 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN28DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>MN29DESEMBER2025</t>
+          <t>DT31MEI2026</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -7356,23 +7356,23 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN29DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>MN30DESEMBER2025</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>350782</v>
+        <v>14651</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -7381,23 +7381,23 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN30DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>MN31DESEMBER2025</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>350782</v>
+        <v>940</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -7406,23 +7406,23 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN31DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>DC01OKTOBER2025</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>14666</v>
+        <v>3850</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -7431,23 +7431,23 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC01OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>DC02OKTOBER2025</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>936</v>
+        <v>3850</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -7456,19 +7456,19 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC02OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>CD01NOVEMBER2025</t>
+          <t>DC03OKTOBER2025</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -7481,19 +7481,19 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC03OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>CD02NOVEMBER2025</t>
+          <t>DC04OKTOBER2025</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -7506,19 +7506,19 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC04OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>CD03NOVEMBER2025</t>
+          <t>DC05OKTOBER2025</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -7531,19 +7531,19 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC05OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>CD04NOVEMBER2025</t>
+          <t>DC06OKTOBER2025</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -7556,19 +7556,19 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC06OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>CD05NOVEMBER2025</t>
+          <t>DC07OKTOBER2025</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -7581,19 +7581,19 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC07OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>CD06NOVEMBER2025</t>
+          <t>DC08OKTOBER2025</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -7606,19 +7606,19 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC08OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>CD07NOVEMBER2025</t>
+          <t>DC09OKTOBER2025</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -7631,19 +7631,19 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC09OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>CD08NOVEMBER2025</t>
+          <t>DC10OKTOBER2025</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -7656,19 +7656,19 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC10OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>CD09NOVEMBER2025</t>
+          <t>DC11OKTOBER2025</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -7681,19 +7681,19 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC11OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>CD10NOVEMBER2025</t>
+          <t>DC12OKTOBER2025</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -7706,19 +7706,19 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC12OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>CD11NOVEMBER2025</t>
+          <t>DC13OKTOBER2025</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -7731,23 +7731,23 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC13OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>CD12NOVEMBER2025</t>
+          <t>DC14OKTOBER2025</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -7756,23 +7756,23 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC14OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>CD13NOVEMBER2025</t>
+          <t>DC15OKTOBER2025</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -7781,23 +7781,23 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC15OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>CD14NOVEMBER2025</t>
+          <t>DC16OKTOBER2025</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -7806,23 +7806,23 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC16OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>CD15NOVEMBER2025</t>
+          <t>DC17OKTOBER2025</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -7831,23 +7831,23 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC17OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>CD16NOVEMBER2025</t>
+          <t>DC18OKTOBER2025</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -7856,23 +7856,23 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC18OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>CD17NOVEMBER2025</t>
+          <t>DC19OKTOBER2025</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -7881,23 +7881,23 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>CD18NOVEMBER2025</t>
+          <t>DC20OKTOBER2025</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -7906,23 +7906,23 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>CD19NOVEMBER2025</t>
+          <t>DC21OKTOBER2025</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -7931,23 +7931,23 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>CD20NOVEMBER2025</t>
+          <t>DC22OKTOBER2025</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -7956,23 +7956,23 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>CD21NOVEMBER2025</t>
+          <t>DC23OKTOBER2025</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -7981,23 +7981,23 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>CD22NOVEMBER2025</t>
+          <t>DC24OKTOBER2025</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -8006,23 +8006,23 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>CD23NOVEMBER2025</t>
+          <t>DC25OKTOBER2025</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -8031,23 +8031,23 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>CD24NOVEMBER2025</t>
+          <t>DC26OKTOBER2025</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -8056,23 +8056,23 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>CD25NOVEMBER2025</t>
+          <t>DC27OKTOBER2025</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -8081,23 +8081,23 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>CD26NOVEMBER2025</t>
+          <t>DC28OKTOBER2025</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -8106,23 +8106,23 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>CD27NOVEMBER2025</t>
+          <t>DC29OKTOBER2025</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -8131,23 +8131,23 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>CD28NOVEMBER2025</t>
+          <t>DC30OKTOBER2025</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -8156,23 +8156,23 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>CD29NOVEMBER2025</t>
+          <t>DC31OKTOBER2025</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC31OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>CD30NOVEMBER2025</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>350782</v>
+        <v>367705</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -8206,23 +8206,23 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/dadangconelo</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>367702</v>
+        <v>14427</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -8231,23 +8231,23 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>14666</v>
+        <v>936</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -8256,23 +8256,23 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>MN01DESEMBER2025</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>934</v>
+        <v>350782</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -8281,19 +8281,19 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN01DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>JS01NOVEMBER2026</t>
+          <t>MN02DESEMBER2025</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -8306,19 +8306,19 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS01NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN02DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>JS02NOVEMBER2026</t>
+          <t>MN03DESEMBER2025</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -8331,19 +8331,19 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS02NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN03DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>JS03NOVEMBER2026</t>
+          <t>MN04DESEMBER2025</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -8356,19 +8356,19 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS03NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN04DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>JS04NOVEMBER2026</t>
+          <t>MN05DESEMBER2025</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -8381,19 +8381,19 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS04NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN05DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>JS05NOVEMBER2026</t>
+          <t>MN06DESEMBER2025</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -8406,19 +8406,19 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS05NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN06DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>JS06NOVEMBER2026</t>
+          <t>MN07DESEMBER2025</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -8431,19 +8431,19 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS06NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN07DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>JS07NOVEMBER2026</t>
+          <t>MN08DESEMBER2025</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -8456,19 +8456,19 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS07NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN08DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>JS08NOVEMBER2026</t>
+          <t>MN09DESEMBER2025</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -8481,19 +8481,19 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS08NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN09DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>JS09NOVEMBER2026</t>
+          <t>MN10DESEMBER2025</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -8506,19 +8506,19 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS09NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN10DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>JS10NOVEMBER2026</t>
+          <t>MN11DESEMBER2025</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -8531,19 +8531,19 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS10NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN11DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>JS11NOVEMBER2026</t>
+          <t>MN12DESEMBER2025</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -8556,19 +8556,19 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS11NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN12DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>JS12NOVEMBER2026</t>
+          <t>MN13DESEMBER2025</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -8581,19 +8581,19 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS12NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN13DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>JS13NOVEMBER2026</t>
+          <t>MN14DESEMBER2025</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -8606,19 +8606,19 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS13NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN14DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>JS14NOVEMBER2026</t>
+          <t>MN15DESEMBER2025</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -8631,19 +8631,19 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS14NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN15DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>JS15NOVEMBER2026</t>
+          <t>MN16DESEMBER2025</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -8656,19 +8656,19 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS15NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN16DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>JS16NOVEMBER2026</t>
+          <t>MN17DESEMBER2025</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -8681,19 +8681,19 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS16NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN17DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>JS17NOVEMBER2026</t>
+          <t>MN18DESEMBER2025</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -8706,19 +8706,19 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS17NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN18DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>JS18NOVEMBER2026</t>
+          <t>MN19DESEMBER2025</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -8731,19 +8731,19 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS18NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN19DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>JS19NOVEMBER2026</t>
+          <t>MN20DESEMBER2025</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -8756,19 +8756,19 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS19NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN20DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>JS20NOVEMBER2026</t>
+          <t>MN21DESEMBER2025</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -8781,19 +8781,19 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS20NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN21DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>JS21NOVEMBER2026</t>
+          <t>MN22DESEMBER2025</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -8806,19 +8806,19 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS21NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN22DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>JS22NOVEMBER2026</t>
+          <t>MN23DESEMBER2025</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -8831,19 +8831,19 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS22NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN23DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>JS23NOVEMBER2026</t>
+          <t>MN24DESEMBER2025</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -8856,19 +8856,19 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS23NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN24DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>JS24NOVEMBER2026</t>
+          <t>MN25DESEMBER2025</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -8881,19 +8881,19 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS24NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN25DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>JS25NOVEMBER2026</t>
+          <t>MN26DESEMBER2025</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -8906,19 +8906,19 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS25NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN26DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>JS26NOVEMBER2026</t>
+          <t>MN27DESEMBER2025</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -8931,19 +8931,19 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS26NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN27DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>JS27NOVEMBER2026</t>
+          <t>MN28DESEMBER2025</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -8956,19 +8956,19 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS27NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN28DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>JS28NOVEMBER2026</t>
+          <t>MN29DESEMBER2025</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -8981,19 +8981,19 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS28NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN29DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>JS29NOVEMBER2026</t>
+          <t>MN30DESEMBER2025</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -9006,19 +9006,19 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS29NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN30DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>JS30NOVEMBER2026</t>
+          <t>MN31DESEMBER2025</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -9031,14 +9031,14 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS30NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN31DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>14664</v>
+        <v>14666</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>20193</v>
+        <v>20240</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>

--- a/data/uppermoon77_all_raw.xlsx
+++ b/data/uppermoon77_all_raw.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,23 +481,23 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ER01DESEMBER2026</t>
+          <t>AM01JULI2026</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -506,23 +506,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER01DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ER02DESEMBER2026</t>
+          <t>AM02JULI2026</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -531,23 +531,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER02DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ER03DESEMBER2026</t>
+          <t>AM03JULI2026</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -556,23 +556,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER03DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ER04DESEMBER2026</t>
+          <t>AM04JULI2026</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -581,23 +581,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER04DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ER05DESEMBER2026</t>
+          <t>AM05JULI2026</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -606,23 +606,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER05DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ER06DESEMBER2026</t>
+          <t>AM06JULI2026</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -631,23 +631,23 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER06DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ER07DESEMBER2026</t>
+          <t>AM07JULI2026</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -656,23 +656,23 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER07DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ER08DESEMBER2026</t>
+          <t>AM08JULI2026</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -681,23 +681,23 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER08DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ER09DESEMBER2026</t>
+          <t>AM09JULI2026</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -706,23 +706,23 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER09DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ER10DESEMBER2026</t>
+          <t>AM10JULI2026</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -731,23 +731,23 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER10DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ER11DESEMBER2026</t>
+          <t>AM11JULI2026</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -756,23 +756,23 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER11DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ER12DESEMBER2026</t>
+          <t>AM12JULI2026</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -781,23 +781,23 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER12DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ER13DESEMBER2026</t>
+          <t>AM13JULI2026</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -806,23 +806,23 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER13DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ER14DESEMBER2026</t>
+          <t>AM14JULI2026</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -831,23 +831,23 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER14DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ER15DESEMBER2026</t>
+          <t>AM15JULI2026</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -856,23 +856,23 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER15DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ER16DESEMBER2026</t>
+          <t>AM16JULI2026</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -881,23 +881,23 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER16DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ER17DESEMBER2026</t>
+          <t>AM17JULI2026</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -906,23 +906,23 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER17DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ER18DESEMBER2026</t>
+          <t>AM18JULI2026</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -931,23 +931,23 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER18DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ER19DESEMBER2026</t>
+          <t>AM19JULI2026</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -956,23 +956,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER19DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ER20DESEMBER2026</t>
+          <t>AM20JULI2026</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -981,23 +981,23 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER20DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ER21DESEMBER2026</t>
+          <t>AM21JULI2026</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1006,23 +1006,23 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER21DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ER22DESEMBER2026</t>
+          <t>AM22JULI2026</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1031,23 +1031,23 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER22DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ER23DESEMBER2026</t>
+          <t>AM23JULI2026</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1056,23 +1056,23 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER23DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ER24DESEMBER2026</t>
+          <t>AM24JULI2026</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1081,23 +1081,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER24DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ER25DESEMBER2026</t>
+          <t>AM25JULI2026</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1106,23 +1106,23 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER25DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ER26DESEMBER2026</t>
+          <t>AM26JULI2026</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1131,23 +1131,23 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER26DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ER27DESEMBER2026</t>
+          <t>AM27JULI2026</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1156,23 +1156,23 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER27DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ER28DESEMBER2026</t>
+          <t>AM28JULI2026</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1181,23 +1181,23 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER28DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ER29DESEMBER2026</t>
+          <t>AM29JULI2026</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1206,23 +1206,23 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER29DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ER30DESEMBER2026</t>
+          <t>AM30JULI2026</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1231,23 +1231,23 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER30DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ER31DESEMBER2026</t>
+          <t>AM31JULI2026</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1256,14 +1256,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER31DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>14663</v>
+        <v>14655</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1306,23 +1306,23 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BS01AGUSTUS2026</t>
+          <t>FH01MARET2026</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1331,23 +1331,23 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH01MARET2026</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BS02AGUSTUS2026</t>
+          <t>FH02MARET2026</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1356,23 +1356,23 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH02MARET2026</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BS03AGUSTUS2026</t>
+          <t>FH03MARET2026</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1381,23 +1381,23 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH03MARET2026</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BS04AGUSTUS2026</t>
+          <t>FH04MARET2026</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1406,23 +1406,23 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH04MARET2026</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BS05AGUSTUS2026</t>
+          <t>FH05MARET2026</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1431,23 +1431,23 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH05MARET2026</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BS06AGUSTUS2026</t>
+          <t>FH06MARET2026</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1456,23 +1456,23 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH06MARET2026</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BS07AGUSTUS2026</t>
+          <t>FH07MARET2026</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1481,23 +1481,23 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH07MARET2026</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BS08AGUSTUS2026</t>
+          <t>FH08MARET2026</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1506,23 +1506,23 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH08MARET2026</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BS09AGUSTUS2026</t>
+          <t>FH09MARET2026</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1531,23 +1531,23 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH09MARET2026</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BS10AGUSTUS2026</t>
+          <t>FH10MARET2026</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1556,23 +1556,23 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH10MARET2026</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BS11AGUSTUS2026</t>
+          <t>FH11MARET2026</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1581,23 +1581,23 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH11MARET2026</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BS12AGUSTUS2026</t>
+          <t>FH12MARET2026</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1606,23 +1606,23 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH12MARET2026</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BS13AGUSTUS2026</t>
+          <t>FH13MARET2026</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1631,23 +1631,23 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH13MARET2026</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BS14AGUSTUS2026</t>
+          <t>FH14MARET2026</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1656,23 +1656,23 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH14MARET2026</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BS15AGUSTUS2026</t>
+          <t>FH15MARET2026</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1681,23 +1681,23 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH15MARET2026</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BS16AGUSTUS2026</t>
+          <t>FH16MARET2026</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1706,23 +1706,23 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH16MARET2026</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BS17AGUSTUS2026</t>
+          <t>FH17MARET2026</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1731,23 +1731,23 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH17MARET2026</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BS18AGUSTUS2026</t>
+          <t>FH18MARET2026</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1756,23 +1756,23 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH18MARET2026</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BS19AGUSTUS2026</t>
+          <t>FH19MARET2026</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1781,23 +1781,23 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH19MARET2026</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BS20AGUSTUS2026</t>
+          <t>FH20MARET2026</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1806,23 +1806,23 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH20MARET2026</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BS21AGUSTUS2026</t>
+          <t>FH21MARET2026</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1831,23 +1831,23 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS21AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH21MARET2026</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BS22AGUSTUS2026</t>
+          <t>FH22MARET2026</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1856,23 +1856,23 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS22AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH22MARET2026</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BS23AGUSTUS2026</t>
+          <t>FH23MARET2026</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1881,23 +1881,23 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS23AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH23MARET2026</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BS24AGUSTUS2026</t>
+          <t>FH24MARET2026</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1906,23 +1906,23 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS24AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH24MARET2026</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BS25AGUSTUS2026</t>
+          <t>FH25MARET2026</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1931,23 +1931,23 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS25AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH25MARET2026</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BS26AGUSTUS2026</t>
+          <t>FH26MARET2026</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1956,23 +1956,23 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS26AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH26MARET2026</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BS27AGUSTUS2026</t>
+          <t>FH27MARET2026</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1981,23 +1981,23 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS27AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH27MARET2026</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BS28AGUSTUS2026</t>
+          <t>FH28MARET2026</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2006,23 +2006,23 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS28AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH28MARET2026</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BS29AGUSTUS2026</t>
+          <t>FH29MARET2026</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2031,23 +2031,23 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS29AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH29MARET2026</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BS30AGUSTUS2026</t>
+          <t>FH30MARET2026</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2056,23 +2056,23 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS30AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH30MARET2026</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BS31AGUSTUS2026</t>
+          <t>FH31MARET2026</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2081,14 +2081,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS31AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH31MARET2026</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>14664</v>
+        <v>14455</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -2963,16 +2963,16 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2981,23 +2981,23 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>LX19OKTOBER2025</t>
+          <t>GG01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>367820</v>
+        <v>3850</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3006,23 +3006,23 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>LX20OKTOBER2025</t>
+          <t>GG02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>3850</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3031,23 +3031,23 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>LX21OKTOBER2025</t>
+          <t>GG03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>367820</v>
+        <v>3850</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3056,23 +3056,23 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LX22OKTOBER2025</t>
+          <t>GG04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>3850</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>LX23OKTOBER2025</t>
+          <t>GG05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>3850</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3106,23 +3106,23 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>LX24OKTOBER2025</t>
+          <t>GG06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>3850</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3131,23 +3131,23 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LX25OKTOBER2025</t>
+          <t>GG07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>3850</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3156,23 +3156,23 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LX26OKTOBER2025</t>
+          <t>GG08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>3850</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3181,23 +3181,23 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LX27OKTOBER2025</t>
+          <t>GG09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>3850</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3206,23 +3206,23 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>LX28OKTOBER2025</t>
+          <t>GG10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>3850</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3231,23 +3231,23 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>LX29OKTOBER2025</t>
+          <t>GG11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>3850</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3256,23 +3256,23 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>LX30OKTOBER2025</t>
+          <t>GG12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>367766</v>
+        <v>350782</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3281,23 +3281,23 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>lazylazyloxy</t>
+          <t>GG13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>367763</v>
+        <v>350782</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3306,23 +3306,23 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>GG14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>7475</v>
+        <v>350782</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3343,11 +3343,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>GG15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>934</v>
+        <v>350782</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3368,11 +3368,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>GG01NOVEMBER2025</t>
+          <t>GG16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3393,11 +3393,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GG02NOVEMBER2025</t>
+          <t>GG17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3418,11 +3418,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GG03NOVEMBER2025</t>
+          <t>GG18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3443,11 +3443,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>GG04NOVEMBER2025</t>
+          <t>GG19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3468,11 +3468,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GG05NOVEMBER2025</t>
+          <t>GG20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3493,11 +3493,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GG06NOVEMBER2025</t>
+          <t>GG21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3518,11 +3518,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GG07NOVEMBER2025</t>
+          <t>GG22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GG08NOVEMBER2025</t>
+          <t>GG23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3568,11 +3568,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GG09NOVEMBER2025</t>
+          <t>GG24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3593,11 +3593,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GG10NOVEMBER2025</t>
+          <t>GG25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3618,11 +3618,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>GG11NOVEMBER2025</t>
+          <t>GG26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>GG12NOVEMBER2025</t>
+          <t>GG27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GG13NOVEMBER2025</t>
+          <t>GG28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>GG14NOVEMBER2025</t>
+          <t>GG29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>GG15NOVEMBER2025</t>
+          <t>GG30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>GG16NOVEMBER2025</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>350782</v>
+        <v>14664</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3756,23 +3756,23 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>GG17NOVEMBER2025</t>
+          <t>.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>350782</v>
+        <v>943</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3781,23 +3781,23 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>GG18NOVEMBER2025</t>
+          <t>LX19OKTOBER2025</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>350782</v>
+        <v>367820</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3806,23 +3806,23 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>GG19NOVEMBER2025</t>
+          <t>LX20OKTOBER2025</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3831,23 +3831,23 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>GG20NOVEMBER2025</t>
+          <t>LX21OKTOBER2025</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>350782</v>
+        <v>367820</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3856,23 +3856,23 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>GG21NOVEMBER2025</t>
+          <t>LX22OKTOBER2025</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3881,23 +3881,23 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>GG22NOVEMBER2025</t>
+          <t>LX23OKTOBER2025</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3906,23 +3906,23 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>GG23NOVEMBER2025</t>
+          <t>LX24OKTOBER2025</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3931,23 +3931,23 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>GG24NOVEMBER2025</t>
+          <t>LX25OKTOBER2025</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3956,23 +3956,23 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>GG25NOVEMBER2025</t>
+          <t>LX26OKTOBER2025</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3981,23 +3981,23 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GG26NOVEMBER2025</t>
+          <t>LX27OKTOBER2025</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4006,23 +4006,23 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>GG27NOVEMBER2025</t>
+          <t>LX28OKTOBER2025</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4031,23 +4031,23 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>GG28NOVEMBER2025</t>
+          <t>LX29OKTOBER2025</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4056,23 +4056,23 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>GG29NOVEMBER2025</t>
+          <t>LX30OKTOBER2025</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>350782</v>
+        <v>367766</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4081,23 +4081,23 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>GG30NOVEMBER2025</t>
+          <t>lazylazyloxy</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>350782</v>
+        <v>367763</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4106,14 +4106,14 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>14664</v>
+        <v>7475</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -4963,7 +4963,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4981,23 +4981,23 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AM01JULI2026</t>
+          <t>ER01DESEMBER2026</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5006,23 +5006,23 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER01DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AM02JULI2026</t>
+          <t>ER02DESEMBER2026</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5031,23 +5031,23 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER02DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AM03JULI2026</t>
+          <t>ER03DESEMBER2026</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5056,23 +5056,23 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER03DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AM04JULI2026</t>
+          <t>ER04DESEMBER2026</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5081,23 +5081,23 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER04DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>AM05JULI2026</t>
+          <t>ER05DESEMBER2026</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5106,23 +5106,23 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER05DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AM06JULI2026</t>
+          <t>ER06DESEMBER2026</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -5131,23 +5131,23 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER06DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AM07JULI2026</t>
+          <t>ER07DESEMBER2026</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -5156,23 +5156,23 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER07DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AM08JULI2026</t>
+          <t>ER08DESEMBER2026</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5181,23 +5181,23 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER08DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AM09JULI2026</t>
+          <t>ER09DESEMBER2026</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5206,23 +5206,23 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER09DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AM10JULI2026</t>
+          <t>ER10DESEMBER2026</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -5231,23 +5231,23 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER10DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AM11JULI2026</t>
+          <t>ER11DESEMBER2026</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -5256,23 +5256,23 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER11DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AM12JULI2026</t>
+          <t>ER12DESEMBER2026</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5281,23 +5281,23 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER12DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AM13JULI2026</t>
+          <t>ER13DESEMBER2026</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -5306,23 +5306,23 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER13DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AM14JULI2026</t>
+          <t>ER14DESEMBER2026</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -5331,23 +5331,23 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER14DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AM15JULI2026</t>
+          <t>ER15DESEMBER2026</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5356,23 +5356,23 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER15DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AM16JULI2026</t>
+          <t>ER16DESEMBER2026</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5381,23 +5381,23 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER16DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AM17JULI2026</t>
+          <t>ER17DESEMBER2026</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5406,23 +5406,23 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER17DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>AM18JULI2026</t>
+          <t>ER18DESEMBER2026</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5431,23 +5431,23 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER18DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>AM19JULI2026</t>
+          <t>ER19DESEMBER2026</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5456,23 +5456,23 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER19DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>AM20JULI2026</t>
+          <t>ER20DESEMBER2026</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5481,23 +5481,23 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER20DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>AM21JULI2026</t>
+          <t>ER21DESEMBER2026</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5506,23 +5506,23 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER21DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AM22JULI2026</t>
+          <t>ER22DESEMBER2026</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5531,23 +5531,23 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER22DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>AM23JULI2026</t>
+          <t>ER23DESEMBER2026</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5556,23 +5556,23 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER23DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>AM24JULI2026</t>
+          <t>ER24DESEMBER2026</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5581,23 +5581,23 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER24DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>AM25JULI2026</t>
+          <t>ER25DESEMBER2026</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5606,23 +5606,23 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER25DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>AM26JULI2026</t>
+          <t>ER26DESEMBER2026</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5631,23 +5631,23 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER26DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>AM27JULI2026</t>
+          <t>ER27DESEMBER2026</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5656,23 +5656,23 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER27DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>AM28JULI2026</t>
+          <t>ER28DESEMBER2026</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5681,23 +5681,23 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER28DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>AM29JULI2026</t>
+          <t>ER29DESEMBER2026</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5706,23 +5706,23 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER29DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>AM30JULI2026</t>
+          <t>ER30DESEMBER2026</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5731,23 +5731,23 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER30DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>AM31JULI2026</t>
+          <t>ER31DESEMBER2026</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>350778</v>
+        <v>350782</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5756,14 +5756,14 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER31DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>14655</v>
+        <v>14663</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5781,14 +5781,14 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5806,23 +5806,23 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FH01MARET2026</t>
+          <t>BS01AGUSTUS2026</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -5831,23 +5831,23 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH01MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FH02MARET2026</t>
+          <t>BS02AGUSTUS2026</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5856,23 +5856,23 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH02MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FH03MARET2026</t>
+          <t>BS03AGUSTUS2026</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5881,23 +5881,23 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH03MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FH04MARET2026</t>
+          <t>BS04AGUSTUS2026</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5906,23 +5906,23 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH04MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FH05MARET2026</t>
+          <t>BS05AGUSTUS2026</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5931,23 +5931,23 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH05MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FH06MARET2026</t>
+          <t>BS06AGUSTUS2026</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5956,23 +5956,23 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH06MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FH07MARET2026</t>
+          <t>BS07AGUSTUS2026</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5981,23 +5981,23 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH07MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FH08MARET2026</t>
+          <t>BS08AGUSTUS2026</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -6006,23 +6006,23 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH08MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FH09MARET2026</t>
+          <t>BS09AGUSTUS2026</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -6031,23 +6031,23 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH09MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FH10MARET2026</t>
+          <t>BS10AGUSTUS2026</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -6056,23 +6056,23 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH10MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FH11MARET2026</t>
+          <t>BS11AGUSTUS2026</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -6081,23 +6081,23 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH11MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FH12MARET2026</t>
+          <t>BS12AGUSTUS2026</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -6106,23 +6106,23 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH12MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FH13MARET2026</t>
+          <t>BS13AGUSTUS2026</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -6131,23 +6131,23 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH13MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FH14MARET2026</t>
+          <t>BS14AGUSTUS2026</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -6156,23 +6156,23 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH14MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FH15MARET2026</t>
+          <t>BS15AGUSTUS2026</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -6181,23 +6181,23 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH15MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FH16MARET2026</t>
+          <t>BS16AGUSTUS2026</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -6206,23 +6206,23 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH16MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FH17MARET2026</t>
+          <t>BS17AGUSTUS2026</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6231,23 +6231,23 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH17MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FH18MARET2026</t>
+          <t>BS18AGUSTUS2026</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -6256,23 +6256,23 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH18MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FH19MARET2026</t>
+          <t>BS19AGUSTUS2026</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -6281,23 +6281,23 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH19MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>FH20MARET2026</t>
+          <t>BS20AGUSTUS2026</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -6306,23 +6306,23 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH20MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FH21MARET2026</t>
+          <t>BS21AGUSTUS2026</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -6331,23 +6331,23 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH21MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS21AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FH22MARET2026</t>
+          <t>BS22AGUSTUS2026</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -6356,23 +6356,23 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH22MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS22AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>FH23MARET2026</t>
+          <t>BS23AGUSTUS2026</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -6381,23 +6381,23 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH23MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS23AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>FH24MARET2026</t>
+          <t>BS24AGUSTUS2026</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -6406,23 +6406,23 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH24MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS24AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>FH25MARET2026</t>
+          <t>BS25AGUSTUS2026</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6431,23 +6431,23 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH25MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS25AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>FH26MARET2026</t>
+          <t>BS26AGUSTUS2026</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -6456,23 +6456,23 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH26MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS26AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>FH27MARET2026</t>
+          <t>BS27AGUSTUS2026</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6481,23 +6481,23 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH27MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS27AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FH28MARET2026</t>
+          <t>BS28AGUSTUS2026</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6506,23 +6506,23 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH28MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS28AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FH29MARET2026</t>
+          <t>BS29AGUSTUS2026</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6531,23 +6531,23 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH29MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS29AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FH30MARET2026</t>
+          <t>BS30AGUSTUS2026</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6556,23 +6556,23 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH30MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS30AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FH31MARET2026</t>
+          <t>BS31AGUSTUS2026</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>350779</v>
+        <v>350781</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6581,14 +6581,14 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH31MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS31AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>14455</v>
+        <v>14664</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -9897,7 +9897,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>20348</v>
+        <v>20237</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -9947,7 +9947,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -9956,23 +9956,23 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>ST01APRIL2026</t>
+          <t>SA01JUNI2026</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -9981,23 +9981,23 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST01APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA01JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>ST02APRIL2026</t>
+          <t>SA02JUNI2026</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -10006,23 +10006,23 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST02APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA02JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>ST03APRIL2026</t>
+          <t>SA03JUNI2026</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -10031,23 +10031,23 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST03APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA03JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>ST04APRIL2026</t>
+          <t>SA04JUNI2026</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -10056,23 +10056,23 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST04APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA04JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>ST05APRIL2026</t>
+          <t>SA05JUNI2026</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -10081,23 +10081,23 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST05APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA05JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>ST06APRIL2026</t>
+          <t>SA06JUNI2026</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -10106,23 +10106,23 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST06APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA06JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>ST07APRIL2026</t>
+          <t>SA07JUNI2026</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -10131,23 +10131,23 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST07APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA07JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>ST08APRIL2026</t>
+          <t>SA08JUNI2026</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -10156,23 +10156,23 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST08APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA08JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>ST09APRIL2026</t>
+          <t>SA09JUNI2026</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -10181,23 +10181,23 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST09APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA09JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>ST10APRIL2026</t>
+          <t>SA10JUNI2026</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -10206,23 +10206,23 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST10APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA10JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ST11APRIL2026</t>
+          <t>SA11JUNI2026</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -10231,23 +10231,23 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST11APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA11JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>ST12APRIL2026</t>
+          <t>SA12JUNI2026</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -10256,23 +10256,23 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST12APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA12JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>ST13APRIL2026</t>
+          <t>SA13JUNI2026</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -10281,23 +10281,23 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST13APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA13JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>ST14APRIL2026</t>
+          <t>SA14JUNI2026</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -10306,23 +10306,23 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST14APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA14JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>ST15APRIL2026</t>
+          <t>SA15JUNI2026</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -10331,23 +10331,23 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST15APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA15JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>ST16APRIL2026</t>
+          <t>SA16JUNI2026</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -10356,23 +10356,23 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST16APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA16JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>ST17APRIL2026</t>
+          <t>SA17JUNI2026</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -10381,23 +10381,23 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST17APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA17JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>ST18APRIL2026</t>
+          <t>SA18JUNI2026</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -10406,23 +10406,23 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST18APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA18JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>ST19APRIL2026</t>
+          <t>SA19JUNI2026</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -10431,23 +10431,23 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST19APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA19JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>ST20APRIL2026</t>
+          <t>SA20JUNI2026</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -10456,23 +10456,23 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST20APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA20JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>ST21APRIL2026</t>
+          <t>SA21JUNI2026</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -10481,23 +10481,23 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST21APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA21JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>ST22APRIL2026</t>
+          <t>SA22JUNI2026</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -10506,23 +10506,23 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST22APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA22JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>ST23APRIL2026</t>
+          <t>SA23JUNI2026</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -10531,23 +10531,23 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST23APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA23JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ST24APRIL2026</t>
+          <t>SA24JUNI2026</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -10556,23 +10556,23 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST24APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA24JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>ST25APRIL2026</t>
+          <t>SA25JUNI2026</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -10581,23 +10581,23 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST25APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA25JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>ST26APRIL2026</t>
+          <t>SA26JUNI2026</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -10606,23 +10606,23 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST26APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA26JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>ST27APRIL2026</t>
+          <t>SA27JUNI2026</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -10631,23 +10631,23 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST27APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA27JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>ST28APRIL2026</t>
+          <t>SA28JUNI2026</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -10656,23 +10656,23 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST28APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA28JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>ST29APRIL2026</t>
+          <t>SA29JUNI2026</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -10681,23 +10681,23 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST29APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA29JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>ST30APRIL2026</t>
+          <t>SA30JUNI2026</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>350779</v>
+        <v>350778</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -10706,14 +10706,14 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST30APRIL2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA30JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>sintho</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -10722,7 +10722,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>14658</v>
+        <v>14659</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -11563,7 +11563,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -11572,7 +11572,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -11581,23 +11581,23 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>SA01JUNI2026</t>
+          <t>SH01SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -11606,23 +11606,23 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA01JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH01SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>SA02JUNI2026</t>
+          <t>SH02SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -11631,23 +11631,23 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA02JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH02SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>SA03JUNI2026</t>
+          <t>SH03SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -11656,23 +11656,23 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA03JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH03SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>SA04JUNI2026</t>
+          <t>SH04SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -11681,23 +11681,23 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA04JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH04SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>SA05JUNI2026</t>
+          <t>SH05SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -11706,23 +11706,23 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA05JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH05SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>SA06JUNI2026</t>
+          <t>SH06SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -11731,23 +11731,23 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA06JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH06SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>SA07JUNI2026</t>
+          <t>SH07SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -11756,23 +11756,23 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA07JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH07SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>SA08JUNI2026</t>
+          <t>SH08SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -11781,23 +11781,23 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA08JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH08SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>SA09JUNI2026</t>
+          <t>SH09SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -11806,23 +11806,23 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA09JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH09SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>SA10JUNI2026</t>
+          <t>SH10SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -11831,23 +11831,23 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA10JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH10SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>SA11JUNI2026</t>
+          <t>SH11SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -11856,23 +11856,23 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA11JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH11SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>SA12JUNI2026</t>
+          <t>SH12SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -11881,23 +11881,23 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA12JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH12SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>SA13JUNI2026</t>
+          <t>SH13SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -11906,23 +11906,23 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA13JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH13SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>SA14JUNI2026</t>
+          <t>SH14SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -11931,23 +11931,23 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA14JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH14SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>SA15JUNI2026</t>
+          <t>SH15SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -11956,23 +11956,23 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA15JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH15SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>SA16JUNI2026</t>
+          <t>SH16SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -11981,23 +11981,23 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA16JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH16SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>SA17JUNI2026</t>
+          <t>SH17SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -12006,23 +12006,23 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA17JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH17SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>SA18JUNI2026</t>
+          <t>SH18SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -12031,23 +12031,23 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA18JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH18SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>SA19JUNI2026</t>
+          <t>SH19SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -12056,23 +12056,23 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA19JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH19SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>SA20JUNI2026</t>
+          <t>SH20SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -12081,23 +12081,23 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA20JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH20SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>SA21JUNI2026</t>
+          <t>SH21SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -12106,23 +12106,23 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA21JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH21SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>SA22JUNI2026</t>
+          <t>SH22SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -12131,23 +12131,23 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA22JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH22SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>SA23JUNI2026</t>
+          <t>SH23SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -12156,23 +12156,23 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA23JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH23SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>SA24JUNI2026</t>
+          <t>SH24SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -12181,23 +12181,23 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA24JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH24SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>SA25JUNI2026</t>
+          <t>SH25SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -12206,23 +12206,23 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA25JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH25SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>SA26JUNI2026</t>
+          <t>SH26SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -12231,23 +12231,23 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA26JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH26SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>SA27JUNI2026</t>
+          <t>SH27SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -12256,23 +12256,23 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA27JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH27SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>SA28JUNI2026</t>
+          <t>SH28SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -12281,23 +12281,23 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA28JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH28SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>SA29JUNI2026</t>
+          <t>SH29SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -12306,23 +12306,23 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA29JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH29SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>SA30JUNI2026</t>
+          <t>SH30SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>350778</v>
+        <v>350783</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -12331,14 +12331,14 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA30JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH30SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>14659</v>
+        <v>14668</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -13188,7 +13188,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -13197,7 +13197,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -13206,23 +13206,23 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>SH01SEPTEMBER2026</t>
+          <t>WN01OKTOBER2026</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -13231,23 +13231,23 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH01SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN01OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>SH02SEPTEMBER2026</t>
+          <t>WN02OKTOBER2026</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -13256,23 +13256,23 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH02SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN02OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>SH03SEPTEMBER2026</t>
+          <t>WN03OKTOBER2026</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -13281,23 +13281,23 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH03SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN03OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>SH04SEPTEMBER2026</t>
+          <t>WN04OKTOBER2026</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -13306,23 +13306,23 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH04SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN04OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>SH05SEPTEMBER2026</t>
+          <t>WN05OKTOBER2026</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -13331,23 +13331,23 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH05SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN05OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>SH06SEPTEMBER2026</t>
+          <t>WN06OKTOBER2026</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -13356,23 +13356,23 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH06SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN06OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>SH07SEPTEMBER2026</t>
+          <t>WN07OKTOBER2026</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -13381,23 +13381,23 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH07SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN07OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>SH08SEPTEMBER2026</t>
+          <t>WN08OKTOBER2026</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -13406,23 +13406,23 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH08SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN08OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>SH09SEPTEMBER2026</t>
+          <t>WN09OKTOBER2026</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -13431,23 +13431,23 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH09SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN09OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>SH10SEPTEMBER2026</t>
+          <t>WN10OKTOBER2026</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -13456,23 +13456,23 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH10SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN10OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>SH11SEPTEMBER2026</t>
+          <t>WN11OKTOBER2026</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -13481,23 +13481,23 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH11SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN11OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>SH12SEPTEMBER2026</t>
+          <t>WN12OKTOBER2026</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -13506,23 +13506,23 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH12SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN12OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>SH13SEPTEMBER2026</t>
+          <t>WN13OKTOBER2026</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -13531,23 +13531,23 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH13SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN13OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>SH14SEPTEMBER2026</t>
+          <t>WN14OKTOBER2026</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -13556,23 +13556,23 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH14SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN14OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>SH15SEPTEMBER2026</t>
+          <t>WN15OKTOBER2026</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -13581,23 +13581,23 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH15SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN15OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>SH16SEPTEMBER2026</t>
+          <t>WN16OKTOBER2026</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -13606,23 +13606,23 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH16SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN16OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>SH17SEPTEMBER2026</t>
+          <t>WN17OKTOBER2026</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -13631,23 +13631,23 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH17SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN17OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>SH18SEPTEMBER2026</t>
+          <t>WN18OKTOBER2026</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -13656,23 +13656,23 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH18SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN18OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>SH19SEPTEMBER2026</t>
+          <t>WN19OKTOBER2026</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -13681,23 +13681,23 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH19SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN19OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>SH20SEPTEMBER2026</t>
+          <t>WN20OKTOBER2026</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -13706,23 +13706,23 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH20SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN20OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>SH21SEPTEMBER2026</t>
+          <t>WN21OKTOBER2026</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -13731,23 +13731,23 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH21SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN21OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>SH22SEPTEMBER2026</t>
+          <t>WN22OKTOBER2026</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -13756,23 +13756,23 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH22SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN22OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>SH23SEPTEMBER2026</t>
+          <t>WN23OKTOBER2026</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -13781,23 +13781,23 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH23SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN23OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>SH24SEPTEMBER2026</t>
+          <t>WN24OKTOBER2026</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -13806,23 +13806,23 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH24SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN24OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>SH25SEPTEMBER2026</t>
+          <t>WN25OKTOBER2026</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -13831,23 +13831,23 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH25SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN25OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>SH26SEPTEMBER2026</t>
+          <t>WN26OKTOBER2026</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -13856,23 +13856,23 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH26SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN26OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>SH27SEPTEMBER2026</t>
+          <t>WN27OKTOBER2026</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -13881,23 +13881,23 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH27SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN27OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>SH28SEPTEMBER2026</t>
+          <t>WN28OKTOBER2026</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -13906,23 +13906,23 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH28SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN28OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>SH29SEPTEMBER2026</t>
+          <t>WN29OKTOBER2026</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -13931,23 +13931,23 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH29SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN29OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>SH30SEPTEMBER2026</t>
+          <t>WN30OKTOBER2026</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -13956,23 +13956,23 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH30SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN30OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>WN31OKTOBER2026</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>14668</v>
+        <v>350781</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN31OKTOBER2026</t>
         </is>
       </c>
     </row>
@@ -13993,11 +13993,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>932</v>
+        <v>14661</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -14006,23 +14006,23 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>WN01OKTOBER2026</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>350781</v>
+        <v>934</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -14031,23 +14031,23 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN01OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>WN02OKTOBER2026</t>
+          <t>ST01APRIL2026</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -14056,23 +14056,23 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN02OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST01APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>WN03OKTOBER2026</t>
+          <t>ST02APRIL2026</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -14081,23 +14081,23 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN03OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST02APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>WN04OKTOBER2026</t>
+          <t>ST03APRIL2026</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -14106,23 +14106,23 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN04OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST03APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>WN05OKTOBER2026</t>
+          <t>ST04APRIL2026</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -14131,23 +14131,23 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN05OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST04APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>WN06OKTOBER2026</t>
+          <t>ST05APRIL2026</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -14156,23 +14156,23 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN06OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST05APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>WN07OKTOBER2026</t>
+          <t>ST06APRIL2026</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -14181,23 +14181,23 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN07OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST06APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>WN08OKTOBER2026</t>
+          <t>ST07APRIL2026</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -14206,23 +14206,23 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN08OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST07APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>WN09OKTOBER2026</t>
+          <t>ST08APRIL2026</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -14231,23 +14231,23 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN09OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST08APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>WN10OKTOBER2026</t>
+          <t>ST09APRIL2026</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -14256,23 +14256,23 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN10OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST09APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>WN11OKTOBER2026</t>
+          <t>ST10APRIL2026</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -14281,23 +14281,23 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN11OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST10APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>WN12OKTOBER2026</t>
+          <t>ST11APRIL2026</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -14306,23 +14306,23 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN12OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST11APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>WN13OKTOBER2026</t>
+          <t>ST12APRIL2026</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -14331,23 +14331,23 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN13OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST12APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>WN14OKTOBER2026</t>
+          <t>ST13APRIL2026</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -14356,23 +14356,23 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN14OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST13APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>WN15OKTOBER2026</t>
+          <t>ST14APRIL2026</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -14381,23 +14381,23 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN15OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST14APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>WN16OKTOBER2026</t>
+          <t>ST15APRIL2026</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -14406,23 +14406,23 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN16OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST15APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>WN17OKTOBER2026</t>
+          <t>ST16APRIL2026</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -14431,23 +14431,23 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN17OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST16APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>WN18OKTOBER2026</t>
+          <t>ST17APRIL2026</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -14456,23 +14456,23 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN18OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST17APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>WN19OKTOBER2026</t>
+          <t>ST18APRIL2026</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -14481,23 +14481,23 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN19OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST18APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>WN20OKTOBER2026</t>
+          <t>ST19APRIL2026</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -14506,23 +14506,23 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN20OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST19APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>WN21OKTOBER2026</t>
+          <t>ST20APRIL2026</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -14531,23 +14531,23 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN21OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST20APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>WN22OKTOBER2026</t>
+          <t>ST21APRIL2026</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -14556,23 +14556,23 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN22OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST21APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>WN23OKTOBER2026</t>
+          <t>ST22APRIL2026</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -14581,23 +14581,23 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN23OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST22APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>WN24OKTOBER2026</t>
+          <t>ST23APRIL2026</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -14606,23 +14606,23 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN24OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST23APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>WN25OKTOBER2026</t>
+          <t>ST24APRIL2026</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -14631,23 +14631,23 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN25OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST24APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>WN26OKTOBER2026</t>
+          <t>ST25APRIL2026</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -14656,23 +14656,23 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN26OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST25APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>WN27OKTOBER2026</t>
+          <t>ST26APRIL2026</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -14681,23 +14681,23 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN27OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST26APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>WN28OKTOBER2026</t>
+          <t>ST27APRIL2026</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -14706,23 +14706,23 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN28OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST27APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>WN29OKTOBER2026</t>
+          <t>ST28APRIL2026</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -14731,23 +14731,23 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN29OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST28APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>WN30OKTOBER2026</t>
+          <t>ST29APRIL2026</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -14756,23 +14756,23 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN30OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST29APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>WN31OKTOBER2026</t>
+          <t>ST30APRIL2026</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>350781</v>
+        <v>350779</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -14781,14 +14781,14 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN31OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/ST30APRIL2026</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>sintho</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -14797,7 +14797,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>14661</v>
+        <v>14658</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/sintho/main/update_github_file.py</t>
         </is>
       </c>
     </row>

--- a/data/uppermoon77_all_raw.xlsx
+++ b/data/uppermoon77_all_raw.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,23 +481,23 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JS01NOVEMBER2026</t>
+          <t>GG01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -506,23 +506,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS01NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JS02NOVEMBER2026</t>
+          <t>GG02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -531,23 +531,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS02NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JS03NOVEMBER2026</t>
+          <t>GG03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -556,23 +556,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS03NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JS04NOVEMBER2026</t>
+          <t>GG04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -581,23 +581,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS04NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JS05NOVEMBER2026</t>
+          <t>GG05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -606,23 +606,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS05NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JS06NOVEMBER2026</t>
+          <t>GG06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -631,23 +631,23 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS06NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JS07NOVEMBER2026</t>
+          <t>GG07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -656,23 +656,23 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS07NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JS08NOVEMBER2026</t>
+          <t>GG08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -681,23 +681,23 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS08NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JS09NOVEMBER2026</t>
+          <t>GG09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -706,23 +706,23 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS09NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JS10NOVEMBER2026</t>
+          <t>GG10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -731,23 +731,23 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS10NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>JS11NOVEMBER2026</t>
+          <t>GG11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -756,23 +756,23 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS11NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JS12NOVEMBER2026</t>
+          <t>GG12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -781,23 +781,23 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS12NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JS13NOVEMBER2026</t>
+          <t>GG13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -806,23 +806,23 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS13NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JS14NOVEMBER2026</t>
+          <t>GG14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>350782</v>
+        <v>3850</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS14NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JS15NOVEMBER2026</t>
+          <t>GG15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -856,19 +856,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS15NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JS16NOVEMBER2026</t>
+          <t>GG16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -881,19 +881,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS16NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JS17NOVEMBER2026</t>
+          <t>GG17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -906,19 +906,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS17NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JS18NOVEMBER2026</t>
+          <t>GG18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -931,19 +931,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS18NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JS19NOVEMBER2026</t>
+          <t>GG19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -956,19 +956,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS19NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JS20NOVEMBER2026</t>
+          <t>GG20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -981,19 +981,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS20NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>JS21NOVEMBER2026</t>
+          <t>GG21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1006,19 +1006,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS21NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JS22NOVEMBER2026</t>
+          <t>GG22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1031,19 +1031,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS22NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JS23NOVEMBER2026</t>
+          <t>GG23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1056,19 +1056,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS23NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>JS24NOVEMBER2026</t>
+          <t>GG24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1081,19 +1081,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS24NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JS25NOVEMBER2026</t>
+          <t>GG25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1106,19 +1106,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS25NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JS26NOVEMBER2026</t>
+          <t>GG26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1131,19 +1131,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS26NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JS27NOVEMBER2026</t>
+          <t>GG27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1156,19 +1156,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS27NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>JS28NOVEMBER2026</t>
+          <t>GG28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS28NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JS29NOVEMBER2026</t>
+          <t>GG29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS29NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>JS30NOVEMBER2026</t>
+          <t>GG30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1231,14 +1231,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS30NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2106,23 +2106,23 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GG01NOVEMBER2025</t>
+          <t>AM01JULI2026</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2131,23 +2131,23 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GG02NOVEMBER2025</t>
+          <t>AM02JULI2026</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2156,23 +2156,23 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GG03NOVEMBER2025</t>
+          <t>AM03JULI2026</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2181,23 +2181,23 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GG04NOVEMBER2025</t>
+          <t>AM04JULI2026</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2206,23 +2206,23 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GG05NOVEMBER2025</t>
+          <t>AM05JULI2026</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2231,23 +2231,23 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GG06NOVEMBER2025</t>
+          <t>AM06JULI2026</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2256,23 +2256,23 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GG07NOVEMBER2025</t>
+          <t>AM07JULI2026</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2281,23 +2281,23 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GG08NOVEMBER2025</t>
+          <t>AM08JULI2026</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2306,23 +2306,23 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GG09NOVEMBER2025</t>
+          <t>AM09JULI2026</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2331,23 +2331,23 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GG10NOVEMBER2025</t>
+          <t>AM10JULI2026</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2356,23 +2356,23 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GG11NOVEMBER2025</t>
+          <t>AM11JULI2026</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2381,23 +2381,23 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GG12NOVEMBER2025</t>
+          <t>AM12JULI2026</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2406,23 +2406,23 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GG13NOVEMBER2025</t>
+          <t>AM13JULI2026</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2431,23 +2431,23 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GG14NOVEMBER2025</t>
+          <t>AM14JULI2026</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3850</v>
+        <v>350778</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2456,23 +2456,23 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GG15NOVEMBER2025</t>
+          <t>AM15JULI2026</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2481,23 +2481,23 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GG16NOVEMBER2025</t>
+          <t>AM16JULI2026</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2506,23 +2506,23 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GG17NOVEMBER2025</t>
+          <t>AM17JULI2026</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2531,23 +2531,23 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GG18NOVEMBER2025</t>
+          <t>AM18JULI2026</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2556,23 +2556,23 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GG19NOVEMBER2025</t>
+          <t>AM19JULI2026</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2581,23 +2581,23 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GG20NOVEMBER2025</t>
+          <t>AM20JULI2026</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2606,23 +2606,23 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GG21NOVEMBER2025</t>
+          <t>AM21JULI2026</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2631,23 +2631,23 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GG22NOVEMBER2025</t>
+          <t>AM22JULI2026</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2656,23 +2656,23 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GG23NOVEMBER2025</t>
+          <t>AM23JULI2026</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2681,23 +2681,23 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GG24NOVEMBER2025</t>
+          <t>AM24JULI2026</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2706,23 +2706,23 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GG25NOVEMBER2025</t>
+          <t>AM25JULI2026</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2731,23 +2731,23 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GG26NOVEMBER2025</t>
+          <t>AM26JULI2026</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2756,23 +2756,23 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GG27NOVEMBER2025</t>
+          <t>AM27JULI2026</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2781,23 +2781,23 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GG28NOVEMBER2025</t>
+          <t>AM28JULI2026</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2806,23 +2806,23 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GG29NOVEMBER2025</t>
+          <t>AM29JULI2026</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2831,23 +2831,23 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GG30NOVEMBER2025</t>
+          <t>AM30JULI2026</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>350782</v>
+        <v>350778</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2856,23 +2856,23 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>AM31JULI2026</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>14664</v>
+        <v>350778</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2881,23 +2881,23 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>936</v>
+        <v>14655</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2906,23 +2906,23 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CD01NOVEMBER2025</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3850</v>
+        <v>934</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2931,23 +2931,23 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CD02NOVEMBER2025</t>
+          <t>JS01NOVEMBER2026</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2956,23 +2956,23 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS01NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CD03NOVEMBER2025</t>
+          <t>JS02NOVEMBER2026</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2981,23 +2981,23 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS02NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CD04NOVEMBER2025</t>
+          <t>JS03NOVEMBER2026</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3006,23 +3006,23 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS03NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CD05NOVEMBER2025</t>
+          <t>JS04NOVEMBER2026</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3031,23 +3031,23 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS04NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CD06NOVEMBER2025</t>
+          <t>JS05NOVEMBER2026</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3056,23 +3056,23 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS05NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CD07NOVEMBER2025</t>
+          <t>JS06NOVEMBER2026</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS06NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CD08NOVEMBER2025</t>
+          <t>JS07NOVEMBER2026</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3106,23 +3106,23 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS07NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CD09NOVEMBER2025</t>
+          <t>JS08NOVEMBER2026</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3131,23 +3131,23 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS08NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CD10NOVEMBER2025</t>
+          <t>JS09NOVEMBER2026</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3156,23 +3156,23 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS09NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CD11NOVEMBER2025</t>
+          <t>JS10NOVEMBER2026</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3181,23 +3181,23 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS10NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CD12NOVEMBER2025</t>
+          <t>JS11NOVEMBER2026</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3206,23 +3206,23 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS11NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CD13NOVEMBER2025</t>
+          <t>JS12NOVEMBER2026</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3231,23 +3231,23 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS12NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CD14NOVEMBER2025</t>
+          <t>JS13NOVEMBER2026</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3256,19 +3256,19 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS13NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CD15NOVEMBER2025</t>
+          <t>JS14NOVEMBER2026</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -3281,19 +3281,19 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS14NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CD16NOVEMBER2025</t>
+          <t>JS15NOVEMBER2026</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS15NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CD17NOVEMBER2025</t>
+          <t>JS16NOVEMBER2026</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -3331,19 +3331,19 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS16NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CD18NOVEMBER2025</t>
+          <t>JS17NOVEMBER2026</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -3356,19 +3356,19 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS17NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CD19NOVEMBER2025</t>
+          <t>JS18NOVEMBER2026</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -3381,19 +3381,19 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS18NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CD20NOVEMBER2025</t>
+          <t>JS19NOVEMBER2026</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -3406,19 +3406,19 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS19NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CD21NOVEMBER2025</t>
+          <t>JS20NOVEMBER2026</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -3431,19 +3431,19 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS20NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CD22NOVEMBER2025</t>
+          <t>JS21NOVEMBER2026</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -3456,19 +3456,19 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS21NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CD23NOVEMBER2025</t>
+          <t>JS22NOVEMBER2026</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -3481,19 +3481,19 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS22NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CD24NOVEMBER2025</t>
+          <t>JS23NOVEMBER2026</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -3506,19 +3506,19 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS23NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CD25NOVEMBER2025</t>
+          <t>JS24NOVEMBER2026</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -3531,19 +3531,19 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS24NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CD26NOVEMBER2025</t>
+          <t>JS25NOVEMBER2026</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -3556,19 +3556,19 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS25NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CD27NOVEMBER2025</t>
+          <t>JS26NOVEMBER2026</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3581,19 +3581,19 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS26NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CD28NOVEMBER2025</t>
+          <t>JS27NOVEMBER2026</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3606,19 +3606,19 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS27NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CD29NOVEMBER2025</t>
+          <t>JS28NOVEMBER2026</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3631,19 +3631,19 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS28NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CD30NOVEMBER2025</t>
+          <t>JS29NOVEMBER2026</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3656,23 +3656,23 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS29NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>JS30NOVEMBER2026</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>367702</v>
+        <v>350782</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3681,14 +3681,14 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS30NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>14666</v>
+        <v>14664</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3706,23 +3706,23 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3731,23 +3731,23 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ER01DESEMBER2026</t>
+          <t>LX19OKTOBER2025</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>350782</v>
+        <v>367820</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3756,23 +3756,23 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER01DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ER02DESEMBER2026</t>
+          <t>LX20OKTOBER2025</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3781,23 +3781,23 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER02DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ER03DESEMBER2026</t>
+          <t>LX21OKTOBER2025</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>350782</v>
+        <v>367820</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3806,23 +3806,23 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER03DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ER04DESEMBER2026</t>
+          <t>LX22OKTOBER2025</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3831,23 +3831,23 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER04DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ER05DESEMBER2026</t>
+          <t>LX23OKTOBER2025</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3856,23 +3856,23 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER05DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ER06DESEMBER2026</t>
+          <t>LX24OKTOBER2025</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3881,23 +3881,23 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER06DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ER07DESEMBER2026</t>
+          <t>LX25OKTOBER2025</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3906,23 +3906,23 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER07DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ER08DESEMBER2026</t>
+          <t>LX26OKTOBER2025</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3931,23 +3931,23 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER08DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ER09DESEMBER2026</t>
+          <t>LX27OKTOBER2025</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3956,23 +3956,23 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER09DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ER10DESEMBER2026</t>
+          <t>LX28OKTOBER2025</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3981,23 +3981,23 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER10DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ER11DESEMBER2026</t>
+          <t>LX29OKTOBER2025</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>350782</v>
+        <v>1</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4006,23 +4006,23 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER11DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ER12DESEMBER2026</t>
+          <t>LX30OKTOBER2025</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>350782</v>
+        <v>367766</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4031,23 +4031,23 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER12DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ER13DESEMBER2026</t>
+          <t>lazylazyloxy</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>350782</v>
+        <v>367763</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4056,23 +4056,23 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER13DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ER14DESEMBER2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>350782</v>
+        <v>7475</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4081,23 +4081,23 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER14DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ER15DESEMBER2026</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>350782</v>
+        <v>931</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4106,23 +4106,23 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER15DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ER16DESEMBER2026</t>
+          <t>DT01MEI2026</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4131,23 +4131,23 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER16DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ER17DESEMBER2026</t>
+          <t>DT02MEI2026</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4156,23 +4156,23 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER17DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ER18DESEMBER2026</t>
+          <t>DT03MEI2026</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4181,23 +4181,23 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER18DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ER19DESEMBER2026</t>
+          <t>DT04MEI2026</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4206,23 +4206,23 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER19DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ER20DESEMBER2026</t>
+          <t>DT05MEI2026</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4231,23 +4231,23 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER20DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ER21DESEMBER2026</t>
+          <t>DT06MEI2026</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4256,23 +4256,23 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER21DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ER22DESEMBER2026</t>
+          <t>DT07MEI2026</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4281,23 +4281,23 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER22DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ER23DESEMBER2026</t>
+          <t>DT08MEI2026</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4306,23 +4306,23 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER23DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ER24DESEMBER2026</t>
+          <t>DT09MEI2026</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4331,23 +4331,23 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER24DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ER25DESEMBER2026</t>
+          <t>DT10MEI2026</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4356,23 +4356,23 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER25DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ER26DESEMBER2026</t>
+          <t>DT11MEI2026</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4381,23 +4381,23 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER26DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ER27DESEMBER2026</t>
+          <t>DT12MEI2026</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4406,23 +4406,23 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER27DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ER28DESEMBER2026</t>
+          <t>DT13MEI2026</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4431,23 +4431,23 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER28DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ER29DESEMBER2026</t>
+          <t>DT14MEI2026</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4456,23 +4456,23 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER29DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ER30DESEMBER2026</t>
+          <t>DT15MEI2026</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4481,23 +4481,23 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER30DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ER31DESEMBER2026</t>
+          <t>DT16MEI2026</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>350782</v>
+        <v>350777</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4506,23 +4506,23 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER31DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>DT17MEI2026</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>14663</v>
+        <v>350777</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
         </is>
       </c>
     </row>
@@ -4543,11 +4543,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>DT18MEI2026</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>931</v>
+        <v>350777</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
         </is>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DT01MEI2026</t>
+          <t>DT19MEI2026</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DT02MEI2026</t>
+          <t>DT20MEI2026</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DT03MEI2026</t>
+          <t>DT21MEI2026</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
         </is>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DT04MEI2026</t>
+          <t>DT22MEI2026</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DT05MEI2026</t>
+          <t>DT23MEI2026</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DT06MEI2026</t>
+          <t>DT24MEI2026</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DT07MEI2026</t>
+          <t>DT25MEI2026</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DT08MEI2026</t>
+          <t>DT26MEI2026</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DT09MEI2026</t>
+          <t>DT27MEI2026</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DT10MEI2026</t>
+          <t>DT28MEI2026</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
         </is>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DT11MEI2026</t>
+          <t>DT29MEI2026</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DT12MEI2026</t>
+          <t>DT30MEI2026</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
         </is>
       </c>
     </row>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DT13MEI2026</t>
+          <t>DT31MEI2026</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
         </is>
       </c>
     </row>
@@ -4893,11 +4893,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DT14MEI2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>350777</v>
+        <v>14651</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4906,23 +4906,23 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DT15MEI2026</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>350777</v>
+        <v>940</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4931,23 +4931,23 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DT16MEI2026</t>
+          <t>DC01OKTOBER2025</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4956,23 +4956,23 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC01OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DT17MEI2026</t>
+          <t>DC02OKTOBER2025</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4981,23 +4981,23 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC02OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DT18MEI2026</t>
+          <t>DC03OKTOBER2025</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5006,23 +5006,23 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC03OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DT19MEI2026</t>
+          <t>DC04OKTOBER2025</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5031,23 +5031,23 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC04OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DT20MEI2026</t>
+          <t>DC05OKTOBER2025</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5056,23 +5056,23 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC05OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DT21MEI2026</t>
+          <t>DC06OKTOBER2025</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5081,23 +5081,23 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC06OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>DT22MEI2026</t>
+          <t>DC07OKTOBER2025</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5106,23 +5106,23 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC07OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>DT23MEI2026</t>
+          <t>DC08OKTOBER2025</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -5131,23 +5131,23 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC08OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DT24MEI2026</t>
+          <t>DC09OKTOBER2025</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -5156,23 +5156,23 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC09OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DT25MEI2026</t>
+          <t>DC10OKTOBER2025</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5181,23 +5181,23 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC10OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>DT26MEI2026</t>
+          <t>DC11OKTOBER2025</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5206,23 +5206,23 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC11OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DT27MEI2026</t>
+          <t>DC12OKTOBER2025</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -5231,23 +5231,23 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC12OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DT28MEI2026</t>
+          <t>DC13OKTOBER2025</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -5256,23 +5256,23 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC13OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DT29MEI2026</t>
+          <t>DC14OKTOBER2025</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5281,23 +5281,23 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC14OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DT30MEI2026</t>
+          <t>DC15OKTOBER2025</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -5306,23 +5306,23 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC15OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DT31MEI2026</t>
+          <t>DC16OKTOBER2025</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>350777</v>
+        <v>3850</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -5331,23 +5331,23 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC16OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>DC17OKTOBER2025</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>14651</v>
+        <v>3850</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC17OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5368,11 +5368,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>DC18OKTOBER2025</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>940</v>
+        <v>3850</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC18OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>DC01OKTOBER2025</t>
+          <t>DC19OKTOBER2025</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC01OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC19OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>DC02OKTOBER2025</t>
+          <t>DC20OKTOBER2025</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC02OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC20OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DC03OKTOBER2025</t>
+          <t>DC21OKTOBER2025</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC03OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC21OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>DC04OKTOBER2025</t>
+          <t>DC22OKTOBER2025</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC04OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC22OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>DC05OKTOBER2025</t>
+          <t>DC23OKTOBER2025</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC05OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC23OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DC06OKTOBER2025</t>
+          <t>DC24OKTOBER2025</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC06OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC24OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DC07OKTOBER2025</t>
+          <t>DC25OKTOBER2025</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC07OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC25OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DC08OKTOBER2025</t>
+          <t>DC26OKTOBER2025</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC08OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC26OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DC09OKTOBER2025</t>
+          <t>DC27OKTOBER2025</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC09OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC27OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DC10OKTOBER2025</t>
+          <t>DC28OKTOBER2025</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC10OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC28OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DC11OKTOBER2025</t>
+          <t>DC29OKTOBER2025</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC11OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC29OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DC12OKTOBER2025</t>
+          <t>DC30OKTOBER2025</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC12OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC30OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>DC13OKTOBER2025</t>
+          <t>DC31OKTOBER2025</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC13OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC31OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -5718,11 +5718,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>DC14OKTOBER2025</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3850</v>
+        <v>367705</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC14OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/dadangconelo</t>
         </is>
       </c>
     </row>
@@ -5743,11 +5743,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DC15OKTOBER2025</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3850</v>
+        <v>14427</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5756,23 +5756,23 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC15OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DC16OKTOBER2025</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>3850</v>
+        <v>933</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5781,23 +5781,23 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC16OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DC17OKTOBER2025</t>
+          <t>ER01DESEMBER2026</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5806,23 +5806,23 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC17OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER01DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DC18OKTOBER2025</t>
+          <t>ER02DESEMBER2026</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -5831,23 +5831,23 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC18OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER02DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DC19OKTOBER2025</t>
+          <t>ER03DESEMBER2026</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5856,23 +5856,23 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER03DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DC20OKTOBER2025</t>
+          <t>ER04DESEMBER2026</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5881,23 +5881,23 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER04DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>DC21OKTOBER2025</t>
+          <t>ER05DESEMBER2026</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5906,23 +5906,23 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER05DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DC22OKTOBER2025</t>
+          <t>ER06DESEMBER2026</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5931,23 +5931,23 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER06DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DC23OKTOBER2025</t>
+          <t>ER07DESEMBER2026</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5956,23 +5956,23 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER07DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>DC24OKTOBER2025</t>
+          <t>ER08DESEMBER2026</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5981,23 +5981,23 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER08DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DC25OKTOBER2025</t>
+          <t>ER09DESEMBER2026</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -6006,23 +6006,23 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER09DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DC26OKTOBER2025</t>
+          <t>ER10DESEMBER2026</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -6031,23 +6031,23 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER10DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>DC27OKTOBER2025</t>
+          <t>ER11DESEMBER2026</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -6056,23 +6056,23 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER11DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>DC28OKTOBER2025</t>
+          <t>ER12DESEMBER2026</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -6081,23 +6081,23 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER12DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>DC29OKTOBER2025</t>
+          <t>ER13DESEMBER2026</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -6106,23 +6106,23 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER13DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DC30OKTOBER2025</t>
+          <t>ER14DESEMBER2026</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -6131,23 +6131,23 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER14DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DC31OKTOBER2025</t>
+          <t>ER15DESEMBER2026</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3850</v>
+        <v>350782</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -6156,23 +6156,23 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC31OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER15DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ER16DESEMBER2026</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>367705</v>
+        <v>350782</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -6181,23 +6181,23 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/dadangconelo</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER16DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>ER17DESEMBER2026</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>14427</v>
+        <v>350782</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -6206,23 +6206,23 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER17DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>ER18DESEMBER2026</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>943</v>
+        <v>350782</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6231,23 +6231,23 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER18DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>LX19OKTOBER2025</t>
+          <t>ER19DESEMBER2026</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>367820</v>
+        <v>350782</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -6256,23 +6256,23 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER19DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>LX20OKTOBER2025</t>
+          <t>ER20DESEMBER2026</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -6281,23 +6281,23 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER20DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>LX21OKTOBER2025</t>
+          <t>ER21DESEMBER2026</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>367820</v>
+        <v>350782</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -6306,23 +6306,23 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER21DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>LX22OKTOBER2025</t>
+          <t>ER22DESEMBER2026</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -6331,23 +6331,23 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER22DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>LX23OKTOBER2025</t>
+          <t>ER23DESEMBER2026</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -6356,23 +6356,23 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER23DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>LX24OKTOBER2025</t>
+          <t>ER24DESEMBER2026</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -6381,23 +6381,23 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER24DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>LX25OKTOBER2025</t>
+          <t>ER25DESEMBER2026</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -6406,23 +6406,23 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER25DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>LX26OKTOBER2025</t>
+          <t>ER26DESEMBER2026</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6431,23 +6431,23 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER26DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>LX27OKTOBER2025</t>
+          <t>ER27DESEMBER2026</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -6456,23 +6456,23 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER27DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>LX28OKTOBER2025</t>
+          <t>ER28DESEMBER2026</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6481,23 +6481,23 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER28DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>LX29OKTOBER2025</t>
+          <t>ER29DESEMBER2026</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>350782</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6506,23 +6506,23 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER29DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>LX30OKTOBER2025</t>
+          <t>ER30DESEMBER2026</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>367766</v>
+        <v>350782</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6531,23 +6531,23 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER30DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>lazylazyloxy</t>
+          <t>ER31DESEMBER2026</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>367763</v>
+        <v>350782</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6556,14 +6556,14 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER31DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>7475</v>
+        <v>14663</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6581,14 +6581,14 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6606,23 +6606,23 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>FH01MARET2026</t>
+          <t>CD01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -6631,23 +6631,23 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH01MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FH02MARET2026</t>
+          <t>CD02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6656,23 +6656,23 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH02MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FH03MARET2026</t>
+          <t>CD03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -6681,23 +6681,23 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH03MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FH04MARET2026</t>
+          <t>CD04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6706,23 +6706,23 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH04MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FH05MARET2026</t>
+          <t>CD05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -6731,23 +6731,23 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH05MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FH06MARET2026</t>
+          <t>CD06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -6756,23 +6756,23 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH06MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FH07MARET2026</t>
+          <t>CD07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -6781,23 +6781,23 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH07MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FH08MARET2026</t>
+          <t>CD08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -6806,23 +6806,23 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH08MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>FH09MARET2026</t>
+          <t>CD09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -6831,23 +6831,23 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH09MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FH10MARET2026</t>
+          <t>CD10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -6856,23 +6856,23 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH10MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>FH11MARET2026</t>
+          <t>CD11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -6881,23 +6881,23 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH11MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>FH12MARET2026</t>
+          <t>CD12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -6906,23 +6906,23 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH12MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FH13MARET2026</t>
+          <t>CD13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -6931,23 +6931,23 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH13MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FH14MARET2026</t>
+          <t>CD14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>350779</v>
+        <v>3850</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -6956,23 +6956,23 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH14MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FH15MARET2026</t>
+          <t>CD15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -6981,23 +6981,23 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH15MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FH16MARET2026</t>
+          <t>CD16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -7006,23 +7006,23 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH16MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FH17MARET2026</t>
+          <t>CD17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -7031,23 +7031,23 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH17MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FH18MARET2026</t>
+          <t>CD18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -7056,23 +7056,23 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH18MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FH19MARET2026</t>
+          <t>CD19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -7081,23 +7081,23 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH19MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FH20MARET2026</t>
+          <t>CD20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -7106,23 +7106,23 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH20MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FH21MARET2026</t>
+          <t>CD21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -7131,23 +7131,23 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH21MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FH22MARET2026</t>
+          <t>CD22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -7156,23 +7156,23 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH22MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FH23MARET2026</t>
+          <t>CD23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -7181,23 +7181,23 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH23MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>FH24MARET2026</t>
+          <t>CD24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -7206,23 +7206,23 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH24MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FH25MARET2026</t>
+          <t>CD25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -7231,23 +7231,23 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH25MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FH26MARET2026</t>
+          <t>CD26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -7256,23 +7256,23 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH26MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FH27MARET2026</t>
+          <t>CD27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -7281,23 +7281,23 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH27MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FH28MARET2026</t>
+          <t>CD28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -7306,23 +7306,23 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH28MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FH29MARET2026</t>
+          <t>CD29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -7331,23 +7331,23 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH29MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FH30MARET2026</t>
+          <t>CD30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>350779</v>
+        <v>350782</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -7356,23 +7356,23 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH30MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FH31MARET2026</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>350779</v>
+        <v>367702</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -7381,14 +7381,14 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH31MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>14455</v>
+        <v>14666</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -7406,14 +7406,14 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -7431,23 +7431,23 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>AM01JULI2026</t>
+          <t>FH01MARET2026</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -7456,23 +7456,23 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH01MARET2026</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>AM02JULI2026</t>
+          <t>FH02MARET2026</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -7481,23 +7481,23 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH02MARET2026</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>AM03JULI2026</t>
+          <t>FH03MARET2026</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -7506,23 +7506,23 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH03MARET2026</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>AM04JULI2026</t>
+          <t>FH04MARET2026</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -7531,23 +7531,23 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH04MARET2026</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>AM05JULI2026</t>
+          <t>FH05MARET2026</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -7556,23 +7556,23 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH05MARET2026</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>AM06JULI2026</t>
+          <t>FH06MARET2026</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -7581,23 +7581,23 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH06MARET2026</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>AM07JULI2026</t>
+          <t>FH07MARET2026</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -7606,23 +7606,23 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH07MARET2026</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>AM08JULI2026</t>
+          <t>FH08MARET2026</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -7631,23 +7631,23 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH08MARET2026</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>AM09JULI2026</t>
+          <t>FH09MARET2026</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -7656,23 +7656,23 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH09MARET2026</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>AM10JULI2026</t>
+          <t>FH10MARET2026</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -7681,23 +7681,23 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH10MARET2026</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>AM11JULI2026</t>
+          <t>FH11MARET2026</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -7706,23 +7706,23 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH11MARET2026</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>AM12JULI2026</t>
+          <t>FH12MARET2026</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -7731,23 +7731,23 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH12MARET2026</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>AM13JULI2026</t>
+          <t>FH13MARET2026</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -7756,23 +7756,23 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH13MARET2026</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>AM14JULI2026</t>
+          <t>FH14MARET2026</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -7781,23 +7781,23 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH14MARET2026</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>AM15JULI2026</t>
+          <t>FH15MARET2026</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -7806,23 +7806,23 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH15MARET2026</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>AM16JULI2026</t>
+          <t>FH16MARET2026</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -7831,23 +7831,23 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH16MARET2026</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>AM17JULI2026</t>
+          <t>FH17MARET2026</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -7856,23 +7856,23 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH17MARET2026</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>AM18JULI2026</t>
+          <t>FH18MARET2026</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -7881,23 +7881,23 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH18MARET2026</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>AM19JULI2026</t>
+          <t>FH19MARET2026</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -7906,23 +7906,23 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH19MARET2026</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>AM20JULI2026</t>
+          <t>FH20MARET2026</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -7931,23 +7931,23 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH20MARET2026</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>AM21JULI2026</t>
+          <t>FH21MARET2026</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -7956,23 +7956,23 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH21MARET2026</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>AM22JULI2026</t>
+          <t>FH22MARET2026</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -7981,23 +7981,23 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH22MARET2026</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>AM23JULI2026</t>
+          <t>FH23MARET2026</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -8006,23 +8006,23 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH23MARET2026</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>AM24JULI2026</t>
+          <t>FH24MARET2026</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -8031,23 +8031,23 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH24MARET2026</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>AM25JULI2026</t>
+          <t>FH25MARET2026</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -8056,23 +8056,23 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH25MARET2026</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>AM26JULI2026</t>
+          <t>FH26MARET2026</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -8081,23 +8081,23 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH26MARET2026</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>AM27JULI2026</t>
+          <t>FH27MARET2026</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -8106,23 +8106,23 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH27MARET2026</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>AM28JULI2026</t>
+          <t>FH28MARET2026</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -8131,23 +8131,23 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH28MARET2026</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>AM29JULI2026</t>
+          <t>FH29MARET2026</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -8156,23 +8156,23 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH29MARET2026</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>AM30JULI2026</t>
+          <t>FH30MARET2026</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH30MARET2026</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>AM31JULI2026</t>
+          <t>FH31MARET2026</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>350778</v>
+        <v>350779</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -8206,14 +8206,14 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH31MARET2026</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -8222,7 +8222,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>14655</v>
+        <v>14455</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -9897,7 +9897,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>20223</v>
+        <v>20155</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -11547,7 +11547,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -11556,23 +11556,23 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>TT01JANUARI2026</t>
+          <t>SH01SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -11581,23 +11581,23 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT01JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH01SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>TT02JANUARI2026</t>
+          <t>SH02SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -11606,23 +11606,23 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT02JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH02SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>TT03JANUARI2026</t>
+          <t>SH03SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -11631,23 +11631,23 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT03JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH03SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>TT04JANUARI2026</t>
+          <t>SH04SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -11656,23 +11656,23 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT04JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH04SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>TT05JANUARI2026</t>
+          <t>SH05SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -11681,23 +11681,23 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT05JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH05SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>TT06JANUARI2026</t>
+          <t>SH06SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -11706,23 +11706,23 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT06JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH06SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>TT07JANUARI2026</t>
+          <t>SH07SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -11731,23 +11731,23 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT07JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH07SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>TT08JANUARI2026</t>
+          <t>SH08SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -11756,23 +11756,23 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT08JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH08SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TT09JANUARI2026</t>
+          <t>SH09SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -11781,23 +11781,23 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT09JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH09SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TT10JANUARI2026</t>
+          <t>SH10SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -11806,23 +11806,23 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT10JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH10SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>TT11JANUARI2026</t>
+          <t>SH11SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -11831,23 +11831,23 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT11JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH11SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TT12JANUARI2026</t>
+          <t>SH12SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -11856,23 +11856,23 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT12JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH12SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TT13JANUARI2026</t>
+          <t>SH13SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -11881,23 +11881,23 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT13JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH13SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>TT14JANUARI2026</t>
+          <t>SH14SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -11906,23 +11906,23 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT14JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH14SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TT15JANUARI2026</t>
+          <t>SH15SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -11931,23 +11931,23 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT15JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH15SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>TT16JANUARI2026</t>
+          <t>SH16SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -11956,23 +11956,23 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT16JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH16SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>TT17JANUARI2026</t>
+          <t>SH17SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -11981,23 +11981,23 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT17JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH17SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>TT18JANUARI2026</t>
+          <t>SH18SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -12006,23 +12006,23 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT18JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH18SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>TT19JANUARI2026</t>
+          <t>SH19SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -12031,23 +12031,23 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT19JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH19SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TT20JANUARI2026</t>
+          <t>SH20SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -12056,23 +12056,23 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT20JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH20SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>TT21JANUARI2026</t>
+          <t>SH21SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -12081,23 +12081,23 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT21JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH21SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>TT22JANUARI2026</t>
+          <t>SH22SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -12106,23 +12106,23 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT22JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH22SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>TT23JANUARI2026</t>
+          <t>SH23SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -12131,23 +12131,23 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT23JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH23SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>TT24JANUARI2026</t>
+          <t>SH24SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -12156,23 +12156,23 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT24JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH24SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>TT25JANUARI2026</t>
+          <t>SH25SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -12181,23 +12181,23 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT25JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH25SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>TT26JANUARI2026</t>
+          <t>SH26SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -12206,23 +12206,23 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT26JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH26SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>TT27JANUARI2026</t>
+          <t>SH27SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -12231,23 +12231,23 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT27JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH27SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>TT28JANUARI2026</t>
+          <t>SH28SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -12256,23 +12256,23 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT28JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH28SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>TT29JANUARI2026</t>
+          <t>SH29SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -12281,23 +12281,23 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT29JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH29SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>TT30JANUARI2026</t>
+          <t>SH30SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>350781</v>
+        <v>350783</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -12306,23 +12306,23 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT30JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH30SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>TT31JANUARI2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>350781</v>
+        <v>14668</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT31JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -12343,11 +12343,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>14459</v>
+        <v>935</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -12356,23 +12356,23 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>TT01JANUARI2026</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>936</v>
+        <v>350781</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -12381,23 +12381,23 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT01JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>SH01SEPTEMBER2026</t>
+          <t>TT02JANUARI2026</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -12406,23 +12406,23 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH01SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT02JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>SH02SEPTEMBER2026</t>
+          <t>TT03JANUARI2026</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -12431,23 +12431,23 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH02SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT03JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>SH03SEPTEMBER2026</t>
+          <t>TT04JANUARI2026</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -12456,23 +12456,23 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH03SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT04JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>SH04SEPTEMBER2026</t>
+          <t>TT05JANUARI2026</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -12481,23 +12481,23 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH04SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT05JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>SH05SEPTEMBER2026</t>
+          <t>TT06JANUARI2026</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -12506,23 +12506,23 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH05SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT06JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>SH06SEPTEMBER2026</t>
+          <t>TT07JANUARI2026</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -12531,23 +12531,23 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH06SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT07JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>SH07SEPTEMBER2026</t>
+          <t>TT08JANUARI2026</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -12556,23 +12556,23 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH07SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT08JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>SH08SEPTEMBER2026</t>
+          <t>TT09JANUARI2026</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -12581,23 +12581,23 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH08SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT09JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>SH09SEPTEMBER2026</t>
+          <t>TT10JANUARI2026</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -12606,23 +12606,23 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH09SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT10JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>SH10SEPTEMBER2026</t>
+          <t>TT11JANUARI2026</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -12631,23 +12631,23 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH10SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT11JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>SH11SEPTEMBER2026</t>
+          <t>TT12JANUARI2026</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -12656,23 +12656,23 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH11SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT12JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>SH12SEPTEMBER2026</t>
+          <t>TT13JANUARI2026</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -12681,23 +12681,23 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH12SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT13JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>SH13SEPTEMBER2026</t>
+          <t>TT14JANUARI2026</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -12706,23 +12706,23 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH13SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT14JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>SH14SEPTEMBER2026</t>
+          <t>TT15JANUARI2026</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -12731,23 +12731,23 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH14SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT15JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>SH15SEPTEMBER2026</t>
+          <t>TT16JANUARI2026</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -12756,23 +12756,23 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH15SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT16JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>SH16SEPTEMBER2026</t>
+          <t>TT17JANUARI2026</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -12781,23 +12781,23 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH16SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT17JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>SH17SEPTEMBER2026</t>
+          <t>TT18JANUARI2026</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -12806,23 +12806,23 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH17SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT18JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>SH18SEPTEMBER2026</t>
+          <t>TT19JANUARI2026</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -12831,23 +12831,23 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH18SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT19JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>SH19SEPTEMBER2026</t>
+          <t>TT20JANUARI2026</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -12856,23 +12856,23 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH19SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT20JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>SH20SEPTEMBER2026</t>
+          <t>TT21JANUARI2026</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -12881,23 +12881,23 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH20SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT21JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>SH21SEPTEMBER2026</t>
+          <t>TT22JANUARI2026</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -12906,23 +12906,23 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH21SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT22JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>SH22SEPTEMBER2026</t>
+          <t>TT23JANUARI2026</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -12931,23 +12931,23 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH22SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT23JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>SH23SEPTEMBER2026</t>
+          <t>TT24JANUARI2026</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -12956,23 +12956,23 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH23SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT24JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>SH24SEPTEMBER2026</t>
+          <t>TT25JANUARI2026</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -12981,23 +12981,23 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH24SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT25JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>SH25SEPTEMBER2026</t>
+          <t>TT26JANUARI2026</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -13006,23 +13006,23 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH25SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT26JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>SH26SEPTEMBER2026</t>
+          <t>TT27JANUARI2026</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -13031,23 +13031,23 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH26SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT27JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>SH27SEPTEMBER2026</t>
+          <t>TT28JANUARI2026</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -13056,23 +13056,23 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH27SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT28JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>SH28SEPTEMBER2026</t>
+          <t>TT29JANUARI2026</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -13081,23 +13081,23 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH28SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT29JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>SH29SEPTEMBER2026</t>
+          <t>TT30JANUARI2026</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -13106,23 +13106,23 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH29SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT30JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>SH30SEPTEMBER2026</t>
+          <t>TT31JANUARI2026</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>350783</v>
+        <v>350781</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -13131,14 +13131,14 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH30SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT31JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -13147,7 +13147,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>14668</v>
+        <v>14459</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/update_github_file.py</t>
         </is>
       </c>
     </row>

--- a/data/uppermoon77_all_raw.xlsx
+++ b/data/uppermoon77_all_raw.xlsx
@@ -2113,7 +2113,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2131,23 +2131,23 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DT01MEI2026</t>
+          <t>GG01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2156,23 +2156,23 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DT02MEI2026</t>
+          <t>GG02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2181,23 +2181,23 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DT03MEI2026</t>
+          <t>GG03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2206,23 +2206,23 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DT04MEI2026</t>
+          <t>GG04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2231,23 +2231,23 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DT05MEI2026</t>
+          <t>GG05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2256,23 +2256,23 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DT06MEI2026</t>
+          <t>GG06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2281,23 +2281,23 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DT07MEI2026</t>
+          <t>GG07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2306,23 +2306,23 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DT08MEI2026</t>
+          <t>GG08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2331,23 +2331,23 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DT09MEI2026</t>
+          <t>GG09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2356,23 +2356,23 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DT10MEI2026</t>
+          <t>GG10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2381,23 +2381,23 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DT11MEI2026</t>
+          <t>GG11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2406,23 +2406,23 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DT12MEI2026</t>
+          <t>GG12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2431,23 +2431,23 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DT13MEI2026</t>
+          <t>GG13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2456,23 +2456,23 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DT14MEI2026</t>
+          <t>GG14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2481,23 +2481,23 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DT15MEI2026</t>
+          <t>GG15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>350980</v>
+        <v>3850</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2506,23 +2506,23 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DT16MEI2026</t>
+          <t>GG16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2531,23 +2531,23 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DT17MEI2026</t>
+          <t>GG17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2556,23 +2556,23 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DT18MEI2026</t>
+          <t>GG18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2581,23 +2581,23 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DT19MEI2026</t>
+          <t>GG19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2606,23 +2606,23 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DT20MEI2026</t>
+          <t>GG20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2631,23 +2631,23 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DT21MEI2026</t>
+          <t>GG21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2656,23 +2656,23 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DT22MEI2026</t>
+          <t>GG22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2681,23 +2681,23 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DT23MEI2026</t>
+          <t>GG23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2706,23 +2706,23 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DT24MEI2026</t>
+          <t>GG24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2731,23 +2731,23 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DT25MEI2026</t>
+          <t>GG25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2756,23 +2756,23 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DT26MEI2026</t>
+          <t>GG26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2781,23 +2781,23 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DT27MEI2026</t>
+          <t>GG27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2806,23 +2806,23 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DT28MEI2026</t>
+          <t>GG28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2831,23 +2831,23 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DT29MEI2026</t>
+          <t>GG29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2856,23 +2856,23 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DT30MEI2026</t>
+          <t>GG30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>350980</v>
+        <v>350985</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2881,23 +2881,23 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DT31MEI2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>350980</v>
+        <v>14664</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2906,23 +2906,23 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>fhero</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>14651</v>
+        <v>933</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
@@ -2943,11 +2943,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>FH01MARET2026</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>933</v>
+        <v>350982</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH01MARET2026</t>
         </is>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FH01MARET2026</t>
+          <t>FH02MARET2026</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH01MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH02MARET2026</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FH02MARET2026</t>
+          <t>FH03MARET2026</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH02MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH03MARET2026</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FH03MARET2026</t>
+          <t>FH04MARET2026</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH03MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH04MARET2026</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FH04MARET2026</t>
+          <t>FH05MARET2026</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH04MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH05MARET2026</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FH05MARET2026</t>
+          <t>FH06MARET2026</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH05MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH06MARET2026</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FH06MARET2026</t>
+          <t>FH07MARET2026</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH06MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH07MARET2026</t>
         </is>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FH07MARET2026</t>
+          <t>FH08MARET2026</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH07MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH08MARET2026</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FH08MARET2026</t>
+          <t>FH09MARET2026</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH08MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH09MARET2026</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FH09MARET2026</t>
+          <t>FH10MARET2026</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH09MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH10MARET2026</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FH10MARET2026</t>
+          <t>FH11MARET2026</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH10MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH11MARET2026</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FH11MARET2026</t>
+          <t>FH12MARET2026</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH11MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH12MARET2026</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FH12MARET2026</t>
+          <t>FH13MARET2026</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH12MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH13MARET2026</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FH13MARET2026</t>
+          <t>FH14MARET2026</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH13MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH14MARET2026</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FH14MARET2026</t>
+          <t>FH15MARET2026</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH14MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH15MARET2026</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FH15MARET2026</t>
+          <t>FH16MARET2026</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH15MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH16MARET2026</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FH16MARET2026</t>
+          <t>FH17MARET2026</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH16MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH17MARET2026</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FH17MARET2026</t>
+          <t>FH18MARET2026</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH17MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH18MARET2026</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FH18MARET2026</t>
+          <t>FH19MARET2026</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH18MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH19MARET2026</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FH19MARET2026</t>
+          <t>FH20MARET2026</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH19MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH20MARET2026</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FH20MARET2026</t>
+          <t>FH21MARET2026</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH20MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH21MARET2026</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FH21MARET2026</t>
+          <t>FH22MARET2026</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH21MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH22MARET2026</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FH22MARET2026</t>
+          <t>FH23MARET2026</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH22MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH23MARET2026</t>
         </is>
       </c>
     </row>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FH23MARET2026</t>
+          <t>FH24MARET2026</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH23MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH24MARET2026</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FH24MARET2026</t>
+          <t>FH25MARET2026</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH24MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH25MARET2026</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FH25MARET2026</t>
+          <t>FH26MARET2026</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH25MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH26MARET2026</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FH26MARET2026</t>
+          <t>FH27MARET2026</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH26MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH27MARET2026</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FH27MARET2026</t>
+          <t>FH28MARET2026</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH27MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH28MARET2026</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FH28MARET2026</t>
+          <t>FH29MARET2026</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH28MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH29MARET2026</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FH29MARET2026</t>
+          <t>FH30MARET2026</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH29MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH30MARET2026</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FH30MARET2026</t>
+          <t>FH31MARET2026</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH30MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH31MARET2026</t>
         </is>
       </c>
     </row>
@@ -3718,11 +3718,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FH31MARET2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>350982</v>
+        <v>14455</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3731,23 +3731,23 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/FH31MARET2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>fhero</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>14455</v>
+        <v>936</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3756,23 +3756,23 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/fhero/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>CD01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>940</v>
+        <v>3850</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3781,19 +3781,19 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DC01OKTOBER2025</t>
+          <t>CD02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3806,19 +3806,19 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC01OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DC02OKTOBER2025</t>
+          <t>CD03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3831,19 +3831,19 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC02OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DC03OKTOBER2025</t>
+          <t>CD04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3856,19 +3856,19 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC03OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DC04OKTOBER2025</t>
+          <t>CD05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3881,19 +3881,19 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC04OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DC05OKTOBER2025</t>
+          <t>CD06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -3906,19 +3906,19 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC05OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DC06OKTOBER2025</t>
+          <t>CD07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3931,19 +3931,19 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC06OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DC07OKTOBER2025</t>
+          <t>CD08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3956,19 +3956,19 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC07OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DC08OKTOBER2025</t>
+          <t>CD09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -3981,19 +3981,19 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC08OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DC09OKTOBER2025</t>
+          <t>CD10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC09OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DC10OKTOBER2025</t>
+          <t>CD11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -4031,19 +4031,19 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC10OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DC11OKTOBER2025</t>
+          <t>CD12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -4056,19 +4056,19 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC11OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DC12OKTOBER2025</t>
+          <t>CD13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -4081,19 +4081,19 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC12OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DC13OKTOBER2025</t>
+          <t>CD14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -4106,19 +4106,19 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC13OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DC14OKTOBER2025</t>
+          <t>CD15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -4131,23 +4131,23 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC14OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DC15OKTOBER2025</t>
+          <t>CD16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4156,23 +4156,23 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC15OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DC16OKTOBER2025</t>
+          <t>CD17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4181,23 +4181,23 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC16OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DC17OKTOBER2025</t>
+          <t>CD18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4206,23 +4206,23 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC17OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DC18OKTOBER2025</t>
+          <t>CD19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4231,23 +4231,23 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC18OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DC19OKTOBER2025</t>
+          <t>CD20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4256,23 +4256,23 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DC20OKTOBER2025</t>
+          <t>CD21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4281,23 +4281,23 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DC21OKTOBER2025</t>
+          <t>CD22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4306,23 +4306,23 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DC22OKTOBER2025</t>
+          <t>CD23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4331,23 +4331,23 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DC23OKTOBER2025</t>
+          <t>CD24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4356,23 +4356,23 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DC24OKTOBER2025</t>
+          <t>CD25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4381,23 +4381,23 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DC25OKTOBER2025</t>
+          <t>CD26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4406,23 +4406,23 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DC26OKTOBER2025</t>
+          <t>CD27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4431,23 +4431,23 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DC27OKTOBER2025</t>
+          <t>CD28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4456,23 +4456,23 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DC28OKTOBER2025</t>
+          <t>CD29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4481,23 +4481,23 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DC29OKTOBER2025</t>
+          <t>CD30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4506,23 +4506,23 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DC30OKTOBER2025</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3850</v>
+        <v>367702</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4531,23 +4531,23 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DC31OKTOBER2025</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3850</v>
+        <v>14666</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4556,23 +4556,23 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC31OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>367705</v>
+        <v>943</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4581,23 +4581,23 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/dadangconelo</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>dadangconelo</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>LX19OKTOBER2025</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>14427</v>
+        <v>367820</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -4618,11 +4618,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>LX20OKTOBER2025</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>943</v>
+        <v>1</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>LX19OKTOBER2025</t>
+          <t>LX21OKTOBER2025</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>LX20OKTOBER2025</t>
+          <t>LX22OKTOBER2025</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -4693,11 +4693,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>LX21OKTOBER2025</t>
+          <t>LX23OKTOBER2025</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>367820</v>
+        <v>1</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>LX22OKTOBER2025</t>
+          <t>LX24OKTOBER2025</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>LX23OKTOBER2025</t>
+          <t>LX25OKTOBER2025</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>LX24OKTOBER2025</t>
+          <t>LX26OKTOBER2025</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>LX25OKTOBER2025</t>
+          <t>LX27OKTOBER2025</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>LX26OKTOBER2025</t>
+          <t>LX28OKTOBER2025</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>LX27OKTOBER2025</t>
+          <t>LX29OKTOBER2025</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -4868,11 +4868,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>LX28OKTOBER2025</t>
+          <t>LX30OKTOBER2025</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>367766</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
         </is>
       </c>
     </row>
@@ -4893,11 +4893,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>LX29OKTOBER2025</t>
+          <t>lazylazyloxy</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>367763</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
         </is>
       </c>
     </row>
@@ -4918,11 +4918,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>LX30OKTOBER2025</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>367766</v>
+        <v>7475</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4931,23 +4931,23 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>lazylazyloxy</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>367763</v>
+        <v>931</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4956,23 +4956,23 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>DT01MEI2026</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>7475</v>
+        <v>350980</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4981,23 +4981,23 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>DT02MEI2026</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>936</v>
+        <v>350980</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5006,23 +5006,23 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CD01NOVEMBER2025</t>
+          <t>DT03MEI2026</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5031,23 +5031,23 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CD02NOVEMBER2025</t>
+          <t>DT04MEI2026</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5056,23 +5056,23 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CD03NOVEMBER2025</t>
+          <t>DT05MEI2026</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5081,23 +5081,23 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CD04NOVEMBER2025</t>
+          <t>DT06MEI2026</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5106,23 +5106,23 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CD05NOVEMBER2025</t>
+          <t>DT07MEI2026</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -5131,23 +5131,23 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CD06NOVEMBER2025</t>
+          <t>DT08MEI2026</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -5156,23 +5156,23 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CD07NOVEMBER2025</t>
+          <t>DT09MEI2026</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5181,23 +5181,23 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CD08NOVEMBER2025</t>
+          <t>DT10MEI2026</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5206,23 +5206,23 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CD09NOVEMBER2025</t>
+          <t>DT11MEI2026</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -5231,23 +5231,23 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CD10NOVEMBER2025</t>
+          <t>DT12MEI2026</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -5256,23 +5256,23 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CD11NOVEMBER2025</t>
+          <t>DT13MEI2026</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5281,23 +5281,23 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>CD12NOVEMBER2025</t>
+          <t>DT14MEI2026</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -5306,23 +5306,23 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CD13NOVEMBER2025</t>
+          <t>DT15MEI2026</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -5331,23 +5331,23 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CD14NOVEMBER2025</t>
+          <t>DT16MEI2026</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5356,23 +5356,23 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CD15NOVEMBER2025</t>
+          <t>DT17MEI2026</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3850</v>
+        <v>350980</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5381,23 +5381,23 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CD16NOVEMBER2025</t>
+          <t>DT18MEI2026</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5406,23 +5406,23 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CD17NOVEMBER2025</t>
+          <t>DT19MEI2026</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5431,23 +5431,23 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>CD18NOVEMBER2025</t>
+          <t>DT20MEI2026</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5456,23 +5456,23 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>CD19NOVEMBER2025</t>
+          <t>DT21MEI2026</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5481,23 +5481,23 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>CD20NOVEMBER2025</t>
+          <t>DT22MEI2026</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5506,23 +5506,23 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>CD21NOVEMBER2025</t>
+          <t>DT23MEI2026</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5531,23 +5531,23 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CD22NOVEMBER2025</t>
+          <t>DT24MEI2026</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5556,23 +5556,23 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>CD23NOVEMBER2025</t>
+          <t>DT25MEI2026</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5581,23 +5581,23 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CD24NOVEMBER2025</t>
+          <t>DT26MEI2026</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5606,23 +5606,23 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>CD25NOVEMBER2025</t>
+          <t>DT27MEI2026</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5631,23 +5631,23 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>CD26NOVEMBER2025</t>
+          <t>DT28MEI2026</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5656,23 +5656,23 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>CD27NOVEMBER2025</t>
+          <t>DT29MEI2026</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5681,23 +5681,23 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>CD28NOVEMBER2025</t>
+          <t>DT30MEI2026</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5706,23 +5706,23 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CD29NOVEMBER2025</t>
+          <t>DT31MEI2026</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>350985</v>
+        <v>350980</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5731,23 +5731,23 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>CD30NOVEMBER2025</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>350985</v>
+        <v>14651</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5756,23 +5756,23 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>367702</v>
+        <v>940</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5781,23 +5781,23 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>DC01OKTOBER2025</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>14666</v>
+        <v>3850</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5806,23 +5806,23 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC01OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>DC02OKTOBER2025</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>934</v>
+        <v>3850</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -5831,23 +5831,23 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC02OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>JS01NOVEMBER2026</t>
+          <t>DC03OKTOBER2025</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5856,23 +5856,23 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS01NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC03OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>JS02NOVEMBER2026</t>
+          <t>DC04OKTOBER2025</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5881,23 +5881,23 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS02NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC04OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>JS03NOVEMBER2026</t>
+          <t>DC05OKTOBER2025</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5906,23 +5906,23 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS03NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC05OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>JS04NOVEMBER2026</t>
+          <t>DC06OKTOBER2025</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5931,23 +5931,23 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS04NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC06OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>JS05NOVEMBER2026</t>
+          <t>DC07OKTOBER2025</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5956,23 +5956,23 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS05NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC07OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>JS06NOVEMBER2026</t>
+          <t>DC08OKTOBER2025</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5981,23 +5981,23 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS06NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC08OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>JS07NOVEMBER2026</t>
+          <t>DC09OKTOBER2025</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -6006,23 +6006,23 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS07NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC09OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>JS08NOVEMBER2026</t>
+          <t>DC10OKTOBER2025</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -6031,23 +6031,23 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS08NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC10OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>JS09NOVEMBER2026</t>
+          <t>DC11OKTOBER2025</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -6056,23 +6056,23 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS09NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC11OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>JS10NOVEMBER2026</t>
+          <t>DC12OKTOBER2025</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -6081,23 +6081,23 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS10NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC12OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>JS11NOVEMBER2026</t>
+          <t>DC13OKTOBER2025</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -6106,23 +6106,23 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS11NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC13OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>JS12NOVEMBER2026</t>
+          <t>DC14OKTOBER2025</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -6131,23 +6131,23 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS12NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC14OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>JS13NOVEMBER2026</t>
+          <t>DC15OKTOBER2025</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -6156,23 +6156,23 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS13NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC15OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>JS14NOVEMBER2026</t>
+          <t>DC16OKTOBER2025</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -6181,23 +6181,23 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS14NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC16OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>JS15NOVEMBER2026</t>
+          <t>DC17OKTOBER2025</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -6206,23 +6206,23 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS15NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC17OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>JS16NOVEMBER2026</t>
+          <t>DC18OKTOBER2025</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6231,23 +6231,23 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS16NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC18OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>JS17NOVEMBER2026</t>
+          <t>DC19OKTOBER2025</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -6256,23 +6256,23 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS17NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>JS18NOVEMBER2026</t>
+          <t>DC20OKTOBER2025</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -6281,23 +6281,23 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS18NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>JS19NOVEMBER2026</t>
+          <t>DC21OKTOBER2025</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -6306,23 +6306,23 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS19NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>JS20NOVEMBER2026</t>
+          <t>DC22OKTOBER2025</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -6331,23 +6331,23 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS20NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>JS21NOVEMBER2026</t>
+          <t>DC23OKTOBER2025</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -6356,23 +6356,23 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS21NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>JS22NOVEMBER2026</t>
+          <t>DC24OKTOBER2025</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -6381,23 +6381,23 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS22NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>JS23NOVEMBER2026</t>
+          <t>DC25OKTOBER2025</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -6406,23 +6406,23 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS23NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>JS24NOVEMBER2026</t>
+          <t>DC26OKTOBER2025</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6431,23 +6431,23 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS24NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>JS25NOVEMBER2026</t>
+          <t>DC27OKTOBER2025</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -6456,23 +6456,23 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS25NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>JS26NOVEMBER2026</t>
+          <t>DC28OKTOBER2025</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6481,23 +6481,23 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS26NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>JS27NOVEMBER2026</t>
+          <t>DC29OKTOBER2025</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6506,23 +6506,23 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS27NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>JS28NOVEMBER2026</t>
+          <t>DC30OKTOBER2025</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6531,23 +6531,23 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS28NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>JS29NOVEMBER2026</t>
+          <t>DC31OKTOBER2025</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>350985</v>
+        <v>3850</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6556,23 +6556,23 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS29NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/DC31OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>JS30NOVEMBER2026</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>350985</v>
+        <v>367705</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6581,14 +6581,14 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS30NOVEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/dadangconelo</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>jarvis</t>
+          <t>dadangconelo</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>14664</v>
+        <v>14427</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6606,14 +6606,14 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dadangconelo/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -6631,23 +6631,23 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>GG01NOVEMBER2025</t>
+          <t>JS01NOVEMBER2026</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6656,23 +6656,23 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS01NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>GG02NOVEMBER2025</t>
+          <t>JS02NOVEMBER2026</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -6681,23 +6681,23 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS02NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>GG03NOVEMBER2025</t>
+          <t>JS03NOVEMBER2026</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6706,23 +6706,23 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS03NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>GG04NOVEMBER2025</t>
+          <t>JS04NOVEMBER2026</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -6731,23 +6731,23 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS04NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>GG05NOVEMBER2025</t>
+          <t>JS05NOVEMBER2026</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -6756,23 +6756,23 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS05NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>GG06NOVEMBER2025</t>
+          <t>JS06NOVEMBER2026</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -6781,23 +6781,23 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS06NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>GG07NOVEMBER2025</t>
+          <t>JS07NOVEMBER2026</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -6806,23 +6806,23 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS07NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>GG08NOVEMBER2025</t>
+          <t>JS08NOVEMBER2026</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -6831,23 +6831,23 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS08NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>GG09NOVEMBER2025</t>
+          <t>JS09NOVEMBER2026</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -6856,23 +6856,23 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS09NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>GG10NOVEMBER2025</t>
+          <t>JS10NOVEMBER2026</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -6881,23 +6881,23 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS10NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>GG11NOVEMBER2025</t>
+          <t>JS11NOVEMBER2026</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -6906,23 +6906,23 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS11NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>GG12NOVEMBER2025</t>
+          <t>JS12NOVEMBER2026</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -6931,23 +6931,23 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS12NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>GG13NOVEMBER2025</t>
+          <t>JS13NOVEMBER2026</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -6956,23 +6956,23 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS13NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>GG14NOVEMBER2025</t>
+          <t>JS14NOVEMBER2026</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -6981,23 +6981,23 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS14NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>GG15NOVEMBER2025</t>
+          <t>JS15NOVEMBER2026</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>3850</v>
+        <v>350985</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -7006,19 +7006,19 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS15NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>GG16NOVEMBER2025</t>
+          <t>JS16NOVEMBER2026</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -7031,19 +7031,19 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS16NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>GG17NOVEMBER2025</t>
+          <t>JS17NOVEMBER2026</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -7056,19 +7056,19 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS17NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>GG18NOVEMBER2025</t>
+          <t>JS18NOVEMBER2026</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -7081,19 +7081,19 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS18NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>GG19NOVEMBER2025</t>
+          <t>JS19NOVEMBER2026</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -7106,19 +7106,19 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS19NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>GG20NOVEMBER2025</t>
+          <t>JS20NOVEMBER2026</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -7131,19 +7131,19 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS20NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>GG21NOVEMBER2025</t>
+          <t>JS21NOVEMBER2026</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -7156,19 +7156,19 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS21NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>GG22NOVEMBER2025</t>
+          <t>JS22NOVEMBER2026</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -7181,19 +7181,19 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS22NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>GG23NOVEMBER2025</t>
+          <t>JS23NOVEMBER2026</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -7206,19 +7206,19 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS23NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>GG24NOVEMBER2025</t>
+          <t>JS24NOVEMBER2026</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -7231,19 +7231,19 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS24NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>GG25NOVEMBER2025</t>
+          <t>JS25NOVEMBER2026</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -7256,19 +7256,19 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS25NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>GG26NOVEMBER2025</t>
+          <t>JS26NOVEMBER2026</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -7281,19 +7281,19 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS26NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>GG27NOVEMBER2025</t>
+          <t>JS27NOVEMBER2026</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -7306,19 +7306,19 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS27NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>GG28NOVEMBER2025</t>
+          <t>JS28NOVEMBER2026</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -7331,19 +7331,19 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS28NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>GG29NOVEMBER2025</t>
+          <t>JS29NOVEMBER2026</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -7356,19 +7356,19 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS29NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>GG30NOVEMBER2025</t>
+          <t>JS30NOVEMBER2026</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -7381,14 +7381,14 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/JS30NOVEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>jarvis</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -7406,14 +7406,14 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/jarvis/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -7431,19 +7431,19 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ER01DESEMBER2026</t>
+          <t>MN01DESEMBER2025</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -7456,19 +7456,19 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER01DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN01DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ER02DESEMBER2026</t>
+          <t>MN02DESEMBER2025</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -7481,19 +7481,19 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER02DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN02DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ER03DESEMBER2026</t>
+          <t>MN03DESEMBER2025</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -7506,19 +7506,19 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER03DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN03DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ER04DESEMBER2026</t>
+          <t>MN04DESEMBER2025</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -7531,19 +7531,19 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER04DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN04DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ER05DESEMBER2026</t>
+          <t>MN05DESEMBER2025</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -7556,19 +7556,19 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER05DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN05DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ER06DESEMBER2026</t>
+          <t>MN06DESEMBER2025</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -7581,19 +7581,19 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER06DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN06DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ER07DESEMBER2026</t>
+          <t>MN07DESEMBER2025</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -7606,19 +7606,19 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER07DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN07DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ER08DESEMBER2026</t>
+          <t>MN08DESEMBER2025</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -7631,19 +7631,19 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER08DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN08DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ER09DESEMBER2026</t>
+          <t>MN09DESEMBER2025</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -7656,19 +7656,19 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER09DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN09DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ER10DESEMBER2026</t>
+          <t>MN10DESEMBER2025</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -7681,19 +7681,19 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER10DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN10DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ER11DESEMBER2026</t>
+          <t>MN11DESEMBER2025</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -7706,19 +7706,19 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER11DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN11DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ER12DESEMBER2026</t>
+          <t>MN12DESEMBER2025</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -7731,19 +7731,19 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER12DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN12DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ER13DESEMBER2026</t>
+          <t>MN13DESEMBER2025</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -7756,19 +7756,19 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER13DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN13DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ER14DESEMBER2026</t>
+          <t>MN14DESEMBER2025</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -7781,19 +7781,19 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER14DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN14DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ER15DESEMBER2026</t>
+          <t>MN15DESEMBER2025</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -7806,19 +7806,19 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER15DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN15DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ER16DESEMBER2026</t>
+          <t>MN16DESEMBER2025</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -7831,19 +7831,19 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER16DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN16DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ER17DESEMBER2026</t>
+          <t>MN17DESEMBER2025</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -7856,19 +7856,19 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER17DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN17DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ER18DESEMBER2026</t>
+          <t>MN18DESEMBER2025</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -7881,19 +7881,19 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER18DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN18DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ER19DESEMBER2026</t>
+          <t>MN19DESEMBER2025</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -7906,19 +7906,19 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER19DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN19DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ER20DESEMBER2026</t>
+          <t>MN20DESEMBER2025</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -7931,19 +7931,19 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER20DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN20DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>ER21DESEMBER2026</t>
+          <t>MN21DESEMBER2025</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -7956,19 +7956,19 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER21DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN21DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ER22DESEMBER2026</t>
+          <t>MN22DESEMBER2025</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -7981,19 +7981,19 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER22DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN22DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>ER23DESEMBER2026</t>
+          <t>MN23DESEMBER2025</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -8006,19 +8006,19 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER23DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN23DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>ER24DESEMBER2026</t>
+          <t>MN24DESEMBER2025</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -8031,19 +8031,19 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER24DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN24DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ER25DESEMBER2026</t>
+          <t>MN25DESEMBER2025</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -8056,19 +8056,19 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER25DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN25DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ER26DESEMBER2026</t>
+          <t>MN26DESEMBER2025</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -8081,19 +8081,19 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER26DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN26DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>ER27DESEMBER2026</t>
+          <t>MN27DESEMBER2025</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -8106,19 +8106,19 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER27DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN27DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>ER28DESEMBER2026</t>
+          <t>MN28DESEMBER2025</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -8131,19 +8131,19 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER28DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN28DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>ER29DESEMBER2026</t>
+          <t>MN29DESEMBER2025</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -8156,19 +8156,19 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER29DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN29DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ER30DESEMBER2026</t>
+          <t>MN30DESEMBER2025</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -8181,19 +8181,19 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER30DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN30DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ER31DESEMBER2026</t>
+          <t>MN31DESEMBER2025</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -8206,14 +8206,14 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER31DESEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN31DESEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ester</t>
+          <t>marieann</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -8222,7 +8222,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>14663</v>
+        <v>14666</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -9013,7 +9013,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -9022,7 +9022,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -9031,19 +9031,19 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>MN01DESEMBER2025</t>
+          <t>ER01DESEMBER2026</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -9056,19 +9056,19 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN01DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER01DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>MN02DESEMBER2025</t>
+          <t>ER02DESEMBER2026</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -9081,19 +9081,19 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN02DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER02DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>MN03DESEMBER2025</t>
+          <t>ER03DESEMBER2026</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -9106,19 +9106,19 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN03DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER03DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>MN04DESEMBER2025</t>
+          <t>ER04DESEMBER2026</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -9131,19 +9131,19 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN04DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER04DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>MN05DESEMBER2025</t>
+          <t>ER05DESEMBER2026</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -9156,19 +9156,19 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN05DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER05DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>MN06DESEMBER2025</t>
+          <t>ER06DESEMBER2026</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -9181,19 +9181,19 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN06DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER06DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>MN07DESEMBER2025</t>
+          <t>ER07DESEMBER2026</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -9206,19 +9206,19 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN07DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER07DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>MN08DESEMBER2025</t>
+          <t>ER08DESEMBER2026</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -9231,19 +9231,19 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN08DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER08DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>MN09DESEMBER2025</t>
+          <t>ER09DESEMBER2026</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -9256,19 +9256,19 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN09DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER09DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>MN10DESEMBER2025</t>
+          <t>ER10DESEMBER2026</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -9281,19 +9281,19 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN10DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER10DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>MN11DESEMBER2025</t>
+          <t>ER11DESEMBER2026</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -9306,19 +9306,19 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN11DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER11DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>MN12DESEMBER2025</t>
+          <t>ER12DESEMBER2026</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -9331,19 +9331,19 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN12DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER12DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MN13DESEMBER2025</t>
+          <t>ER13DESEMBER2026</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -9356,19 +9356,19 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN13DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER13DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>MN14DESEMBER2025</t>
+          <t>ER14DESEMBER2026</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -9381,19 +9381,19 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN14DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER14DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MN15DESEMBER2025</t>
+          <t>ER15DESEMBER2026</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -9406,19 +9406,19 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN15DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER15DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>MN16DESEMBER2025</t>
+          <t>ER16DESEMBER2026</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -9431,19 +9431,19 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN16DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER16DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>MN17DESEMBER2025</t>
+          <t>ER17DESEMBER2026</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -9456,19 +9456,19 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN17DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER17DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>MN18DESEMBER2025</t>
+          <t>ER18DESEMBER2026</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -9481,19 +9481,19 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN18DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER18DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MN19DESEMBER2025</t>
+          <t>ER19DESEMBER2026</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -9506,19 +9506,19 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN19DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER19DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>MN20DESEMBER2025</t>
+          <t>ER20DESEMBER2026</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -9531,19 +9531,19 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN20DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER20DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>MN21DESEMBER2025</t>
+          <t>ER21DESEMBER2026</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -9556,19 +9556,19 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN21DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER21DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MN22DESEMBER2025</t>
+          <t>ER22DESEMBER2026</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -9581,19 +9581,19 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN22DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER22DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>MN23DESEMBER2025</t>
+          <t>ER23DESEMBER2026</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -9606,19 +9606,19 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN23DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER23DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>MN24DESEMBER2025</t>
+          <t>ER24DESEMBER2026</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -9631,19 +9631,19 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN24DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER24DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>MN25DESEMBER2025</t>
+          <t>ER25DESEMBER2026</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -9656,19 +9656,19 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN25DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER25DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>MN26DESEMBER2025</t>
+          <t>ER26DESEMBER2026</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -9681,19 +9681,19 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN26DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER26DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>MN27DESEMBER2025</t>
+          <t>ER27DESEMBER2026</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -9706,19 +9706,19 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN27DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER27DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>MN28DESEMBER2025</t>
+          <t>ER28DESEMBER2026</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -9731,19 +9731,19 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN28DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER28DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>MN29DESEMBER2025</t>
+          <t>ER29DESEMBER2026</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -9756,19 +9756,19 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN29DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER29DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>MN30DESEMBER2025</t>
+          <t>ER30DESEMBER2026</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -9781,19 +9781,19 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN30DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER30DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>MN31DESEMBER2025</t>
+          <t>ER31DESEMBER2026</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -9806,14 +9806,14 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/MN31DESEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/ER31DESEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>marieann</t>
+          <t>ester</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>14666</v>
+        <v>14663</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/marieann/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/ester/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -9897,7 +9897,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>20161</v>
+        <v>20180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -12356,23 +12356,23 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>WN01OKTOBER2026</t>
+          <t>UC01OKTOBER2025</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -12381,23 +12381,23 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN01OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC01OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>WN02OKTOBER2026</t>
+          <t>UC02OKTOBER2025</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -12406,23 +12406,23 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN02OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC02OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>WN03OKTOBER2026</t>
+          <t>UC03OKTOBER2025</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -12431,23 +12431,23 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN03OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC03OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>WN04OKTOBER2026</t>
+          <t>UC04OKTOBER2025</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -12456,23 +12456,23 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN04OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC04OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>WN05OKTOBER2026</t>
+          <t>UC05OKTOBER2025</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -12481,23 +12481,23 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN05OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC05OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>WN06OKTOBER2026</t>
+          <t>UC06OKTOBER2025</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -12506,23 +12506,23 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN06OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC06OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>WN07OKTOBER2026</t>
+          <t>UC07OKTOBER2025</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -12531,23 +12531,23 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN07OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC07OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>WN08OKTOBER2026</t>
+          <t>UC08OKTOBER2025</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -12556,23 +12556,23 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN08OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC08OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>WN09OKTOBER2026</t>
+          <t>UC09OKTOBER2025</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -12581,23 +12581,23 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN09OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC09OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>WN10OKTOBER2026</t>
+          <t>UC10OKTOBER2025</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -12606,23 +12606,23 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN10OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC10OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>WN11OKTOBER2026</t>
+          <t>UC11OKTOBER2025</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -12631,23 +12631,23 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN11OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC11OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>WN12OKTOBER2026</t>
+          <t>UC12OKTOBER2025</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -12656,23 +12656,23 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN12OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC12OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>WN13OKTOBER2026</t>
+          <t>UC13OKTOBER2025</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -12681,23 +12681,23 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN13OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC13OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>WN14OKTOBER2026</t>
+          <t>UC14OKTOBER2025</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -12706,23 +12706,23 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN14OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC14OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>WN15OKTOBER2026</t>
+          <t>UC15OKTOBER2025</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -12731,23 +12731,23 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN15OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC15OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>WN16OKTOBER2026</t>
+          <t>UC16OKTOBER2025</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -12756,23 +12756,23 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN16OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC16OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>WN17OKTOBER2026</t>
+          <t>UC17OKTOBER2025</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -12781,23 +12781,23 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN17OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC17OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>WN18OKTOBER2026</t>
+          <t>UC18OKTOBER2025</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -12806,23 +12806,23 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN18OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC18OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>WN19OKTOBER2026</t>
+          <t>UC19OKTOBER2025</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -12831,23 +12831,23 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN19OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>WN20OKTOBER2026</t>
+          <t>UC20OKTOBER2025</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -12856,23 +12856,23 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN20OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>WN21OKTOBER2026</t>
+          <t>UC21OKTOBER2025</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -12881,23 +12881,23 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN21OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>WN22OKTOBER2026</t>
+          <t>UC22OKTOBER2025</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -12906,23 +12906,23 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN22OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>WN23OKTOBER2026</t>
+          <t>UC23OKTOBER2025</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -12931,23 +12931,23 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN23OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>WN24OKTOBER2026</t>
+          <t>UC24OKTOBER2025</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -12956,23 +12956,23 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN24OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>WN25OKTOBER2026</t>
+          <t>UC25OKTOBER2025</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -12981,23 +12981,23 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN25OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>WN26OKTOBER2026</t>
+          <t>UC26OKTOBER2025</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -13006,23 +13006,23 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN26OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>WN27OKTOBER2026</t>
+          <t>UC27OKTOBER2025</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -13031,23 +13031,23 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN27OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>WN28OKTOBER2026</t>
+          <t>UC28OKTOBER2025</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -13056,23 +13056,23 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN28OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>WN29OKTOBER2026</t>
+          <t>UC29OKTOBER2025</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -13081,23 +13081,23 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN29OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>WN30OKTOBER2026</t>
+          <t>UC30OKTOBER2025</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -13106,23 +13106,23 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN30OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>WN31OKTOBER2026</t>
+          <t>UC31OKTOBER2025</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>350984</v>
+        <v>3850</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -13131,14 +13131,14 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN31OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC31OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -13147,7 +13147,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>14661</v>
+        <v>14664</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -13988,7 +13988,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -13997,7 +13997,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -14006,23 +14006,23 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>UC01OKTOBER2025</t>
+          <t>WN01OKTOBER2026</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -14031,23 +14031,23 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC01OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN01OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>UC02OKTOBER2025</t>
+          <t>WN02OKTOBER2026</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -14056,23 +14056,23 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC02OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN02OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>UC03OKTOBER2025</t>
+          <t>WN03OKTOBER2026</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -14081,23 +14081,23 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC03OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN03OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>UC04OKTOBER2025</t>
+          <t>WN04OKTOBER2026</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -14106,23 +14106,23 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC04OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN04OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>UC05OKTOBER2025</t>
+          <t>WN05OKTOBER2026</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -14131,23 +14131,23 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC05OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN05OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>UC06OKTOBER2025</t>
+          <t>WN06OKTOBER2026</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -14156,23 +14156,23 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC06OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN06OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>UC07OKTOBER2025</t>
+          <t>WN07OKTOBER2026</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -14181,23 +14181,23 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC07OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN07OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>UC08OKTOBER2025</t>
+          <t>WN08OKTOBER2026</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -14206,23 +14206,23 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC08OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN08OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>UC09OKTOBER2025</t>
+          <t>WN09OKTOBER2026</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -14231,23 +14231,23 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC09OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN09OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>UC10OKTOBER2025</t>
+          <t>WN10OKTOBER2026</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -14256,23 +14256,23 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC10OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN10OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>UC11OKTOBER2025</t>
+          <t>WN11OKTOBER2026</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -14281,23 +14281,23 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC11OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN11OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>UC12OKTOBER2025</t>
+          <t>WN12OKTOBER2026</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -14306,23 +14306,23 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC12OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN12OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>UC13OKTOBER2025</t>
+          <t>WN13OKTOBER2026</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -14331,23 +14331,23 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC13OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN13OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>UC14OKTOBER2025</t>
+          <t>WN14OKTOBER2026</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -14356,23 +14356,23 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC14OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN14OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>UC15OKTOBER2025</t>
+          <t>WN15OKTOBER2026</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -14381,23 +14381,23 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC15OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN15OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>UC16OKTOBER2025</t>
+          <t>WN16OKTOBER2026</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -14406,23 +14406,23 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC16OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN16OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>UC17OKTOBER2025</t>
+          <t>WN17OKTOBER2026</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -14431,23 +14431,23 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC17OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN17OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>UC18OKTOBER2025</t>
+          <t>WN18OKTOBER2026</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -14456,23 +14456,23 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC18OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN18OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>UC19OKTOBER2025</t>
+          <t>WN19OKTOBER2026</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -14481,23 +14481,23 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN19OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>UC20OKTOBER2025</t>
+          <t>WN20OKTOBER2026</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -14506,23 +14506,23 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN20OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>UC21OKTOBER2025</t>
+          <t>WN21OKTOBER2026</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -14531,23 +14531,23 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN21OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>UC22OKTOBER2025</t>
+          <t>WN22OKTOBER2026</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -14556,23 +14556,23 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN22OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>UC23OKTOBER2025</t>
+          <t>WN23OKTOBER2026</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -14581,23 +14581,23 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN23OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>UC24OKTOBER2025</t>
+          <t>WN24OKTOBER2026</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -14606,23 +14606,23 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN24OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>UC25OKTOBER2025</t>
+          <t>WN25OKTOBER2026</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -14631,23 +14631,23 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN25OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>UC26OKTOBER2025</t>
+          <t>WN26OKTOBER2026</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -14656,23 +14656,23 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN26OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>UC27OKTOBER2025</t>
+          <t>WN27OKTOBER2026</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -14681,23 +14681,23 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN27OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>UC28OKTOBER2025</t>
+          <t>WN28OKTOBER2026</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -14706,23 +14706,23 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN28OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>UC29OKTOBER2025</t>
+          <t>WN29OKTOBER2026</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -14731,23 +14731,23 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN29OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>UC30OKTOBER2025</t>
+          <t>WN30OKTOBER2026</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -14756,23 +14756,23 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN30OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>UC31OKTOBER2025</t>
+          <t>WN31OKTOBER2026</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>3850</v>
+        <v>350984</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -14781,14 +14781,14 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC31OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN31OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -14797,7 +14797,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>14664</v>
+        <v>14661</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/update_github_file.py</t>
         </is>
       </c>
     </row>

--- a/data/uppermoon77_all_raw.xlsx
+++ b/data/uppermoon77_all_raw.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -481,23 +481,23 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AM01JULI2026</t>
+          <t>BS01AGUSTUS2026</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -506,23 +506,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AM02JULI2026</t>
+          <t>BS02AGUSTUS2026</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -531,23 +531,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AM03JULI2026</t>
+          <t>BS03AGUSTUS2026</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -556,23 +556,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AM04JULI2026</t>
+          <t>BS04AGUSTUS2026</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -581,23 +581,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AM05JULI2026</t>
+          <t>BS05AGUSTUS2026</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -606,23 +606,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AM06JULI2026</t>
+          <t>BS06AGUSTUS2026</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -631,23 +631,23 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AM07JULI2026</t>
+          <t>BS07AGUSTUS2026</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -656,23 +656,23 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AM08JULI2026</t>
+          <t>BS08AGUSTUS2026</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -681,23 +681,23 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AM09JULI2026</t>
+          <t>BS09AGUSTUS2026</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -706,23 +706,23 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AM10JULI2026</t>
+          <t>BS10AGUSTUS2026</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -731,23 +731,23 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AM11JULI2026</t>
+          <t>BS11AGUSTUS2026</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -756,23 +756,23 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AM12JULI2026</t>
+          <t>BS12AGUSTUS2026</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -781,23 +781,23 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AM13JULI2026</t>
+          <t>BS13AGUSTUS2026</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -806,23 +806,23 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AM14JULI2026</t>
+          <t>BS14AGUSTUS2026</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -831,23 +831,23 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AM15JULI2026</t>
+          <t>BS15AGUSTUS2026</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -856,23 +856,23 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AM16JULI2026</t>
+          <t>BS16AGUSTUS2026</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -881,23 +881,23 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AM17JULI2026</t>
+          <t>BS17AGUSTUS2026</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -906,23 +906,23 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AM18JULI2026</t>
+          <t>BS18AGUSTUS2026</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -931,23 +931,23 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AM19JULI2026</t>
+          <t>BS19AGUSTUS2026</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -956,23 +956,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AM20JULI2026</t>
+          <t>BS20AGUSTUS2026</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -981,23 +981,23 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AM21JULI2026</t>
+          <t>BS21AGUSTUS2026</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1006,23 +1006,23 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS21AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AM22JULI2026</t>
+          <t>BS22AGUSTUS2026</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1031,23 +1031,23 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS22AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AM23JULI2026</t>
+          <t>BS23AGUSTUS2026</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1056,23 +1056,23 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS23AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AM24JULI2026</t>
+          <t>BS24AGUSTUS2026</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1081,23 +1081,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS24AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AM25JULI2026</t>
+          <t>BS25AGUSTUS2026</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1106,23 +1106,23 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS25AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AM26JULI2026</t>
+          <t>BS26AGUSTUS2026</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1131,23 +1131,23 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS26AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AM27JULI2026</t>
+          <t>BS27AGUSTUS2026</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1156,23 +1156,23 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS27AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AM28JULI2026</t>
+          <t>BS28AGUSTUS2026</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1181,23 +1181,23 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS28AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AM29JULI2026</t>
+          <t>BS29AGUSTUS2026</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1206,23 +1206,23 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS29AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AM30JULI2026</t>
+          <t>BS30AGUSTUS2026</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1231,23 +1231,23 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS30AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AM31JULI2026</t>
+          <t>BS31AGUSTUS2026</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1256,14 +1256,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS31AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>14655</v>
+        <v>14664</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1306,23 +1306,23 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BS01AGUSTUS2026</t>
+          <t>AM01JULI2026</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1331,23 +1331,23 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BS02AGUSTUS2026</t>
+          <t>AM02JULI2026</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1356,23 +1356,23 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BS03AGUSTUS2026</t>
+          <t>AM03JULI2026</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1381,23 +1381,23 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BS04AGUSTUS2026</t>
+          <t>AM04JULI2026</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1406,23 +1406,23 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BS05AGUSTUS2026</t>
+          <t>AM05JULI2026</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1431,23 +1431,23 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BS06AGUSTUS2026</t>
+          <t>AM06JULI2026</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1456,23 +1456,23 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BS07AGUSTUS2026</t>
+          <t>AM07JULI2026</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1481,23 +1481,23 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BS08AGUSTUS2026</t>
+          <t>AM08JULI2026</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1506,23 +1506,23 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BS09AGUSTUS2026</t>
+          <t>AM09JULI2026</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1531,23 +1531,23 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BS10AGUSTUS2026</t>
+          <t>AM10JULI2026</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1556,23 +1556,23 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BS11AGUSTUS2026</t>
+          <t>AM11JULI2026</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1581,23 +1581,23 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BS12AGUSTUS2026</t>
+          <t>AM12JULI2026</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1606,23 +1606,23 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BS13AGUSTUS2026</t>
+          <t>AM13JULI2026</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1631,23 +1631,23 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BS14AGUSTUS2026</t>
+          <t>AM14JULI2026</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1656,23 +1656,23 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BS15AGUSTUS2026</t>
+          <t>AM15JULI2026</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1681,23 +1681,23 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BS16AGUSTUS2026</t>
+          <t>AM16JULI2026</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1706,23 +1706,23 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BS17AGUSTUS2026</t>
+          <t>AM17JULI2026</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1731,23 +1731,23 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BS18AGUSTUS2026</t>
+          <t>AM18JULI2026</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1756,23 +1756,23 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BS19AGUSTUS2026</t>
+          <t>AM19JULI2026</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1781,23 +1781,23 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BS20AGUSTUS2026</t>
+          <t>AM20JULI2026</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1806,23 +1806,23 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BS21AGUSTUS2026</t>
+          <t>AM21JULI2026</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1831,23 +1831,23 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS21AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BS22AGUSTUS2026</t>
+          <t>AM22JULI2026</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1856,23 +1856,23 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS22AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BS23AGUSTUS2026</t>
+          <t>AM23JULI2026</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1881,23 +1881,23 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS23AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BS24AGUSTUS2026</t>
+          <t>AM24JULI2026</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1906,23 +1906,23 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS24AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BS25AGUSTUS2026</t>
+          <t>AM25JULI2026</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1931,23 +1931,23 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS25AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BS26AGUSTUS2026</t>
+          <t>AM26JULI2026</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1956,23 +1956,23 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS26AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BS27AGUSTUS2026</t>
+          <t>AM27JULI2026</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1981,23 +1981,23 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS27AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BS28AGUSTUS2026</t>
+          <t>AM28JULI2026</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2006,23 +2006,23 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS28AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BS29AGUSTUS2026</t>
+          <t>AM29JULI2026</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2031,23 +2031,23 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS29AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BS30AGUSTUS2026</t>
+          <t>AM30JULI2026</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2056,23 +2056,23 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS30AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BS31AGUSTUS2026</t>
+          <t>AM31JULI2026</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2081,14 +2081,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS31AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>14664</v>
+        <v>14655</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -4588,16 +4588,16 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4606,23 +4606,23 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DT01MEI2026</t>
+          <t>LX19OKTOBER2025</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>361892</v>
+        <v>367820</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4631,23 +4631,23 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DT02MEI2026</t>
+          <t>LX20OKTOBER2025</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>361892</v>
+        <v>1</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4656,23 +4656,23 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DT03MEI2026</t>
+          <t>LX21OKTOBER2025</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>361892</v>
+        <v>367820</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4681,23 +4681,23 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DT04MEI2026</t>
+          <t>LX22OKTOBER2025</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>361892</v>
+        <v>1</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4706,23 +4706,23 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DT05MEI2026</t>
+          <t>LX23OKTOBER2025</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>361892</v>
+        <v>1</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4731,23 +4731,23 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DT06MEI2026</t>
+          <t>LX24OKTOBER2025</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>361892</v>
+        <v>1</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4756,23 +4756,23 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DT07MEI2026</t>
+          <t>LX25OKTOBER2025</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>361892</v>
+        <v>1</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4781,23 +4781,23 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DT08MEI2026</t>
+          <t>LX26OKTOBER2025</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>361892</v>
+        <v>1</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4806,23 +4806,23 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DT09MEI2026</t>
+          <t>LX27OKTOBER2025</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>361892</v>
+        <v>1</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4831,23 +4831,23 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DT10MEI2026</t>
+          <t>LX28OKTOBER2025</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>361892</v>
+        <v>1</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4856,23 +4856,23 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DT11MEI2026</t>
+          <t>LX29OKTOBER2025</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>361892</v>
+        <v>1</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4881,23 +4881,23 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DT12MEI2026</t>
+          <t>LX30OKTOBER2025</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>361892</v>
+        <v>367766</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4906,23 +4906,23 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DT13MEI2026</t>
+          <t>lazylazyloxy</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>361892</v>
+        <v>367763</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4931,23 +4931,23 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>lazyloxy</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DT14MEI2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>361892</v>
+        <v>7475</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4956,23 +4956,23 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DT15MEI2026</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>361892</v>
+        <v>934</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4981,23 +4981,23 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DT16MEI2026</t>
+          <t>GG01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5006,23 +5006,23 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DT17MEI2026</t>
+          <t>GG02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5031,23 +5031,23 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DT18MEI2026</t>
+          <t>GG03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5056,23 +5056,23 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DT19MEI2026</t>
+          <t>GG04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5081,23 +5081,23 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>DT20MEI2026</t>
+          <t>GG05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5106,23 +5106,23 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>DT21MEI2026</t>
+          <t>GG06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -5131,23 +5131,23 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DT22MEI2026</t>
+          <t>GG07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -5156,23 +5156,23 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DT23MEI2026</t>
+          <t>GG08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5181,23 +5181,23 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>DT24MEI2026</t>
+          <t>GG09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5206,23 +5206,23 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DT25MEI2026</t>
+          <t>GG10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -5231,23 +5231,23 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DT26MEI2026</t>
+          <t>GG11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -5256,23 +5256,23 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DT27MEI2026</t>
+          <t>GG12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5281,23 +5281,23 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DT28MEI2026</t>
+          <t>GG13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -5306,23 +5306,23 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DT29MEI2026</t>
+          <t>GG14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -5331,23 +5331,23 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DT30MEI2026</t>
+          <t>GG15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5356,23 +5356,23 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>DT31MEI2026</t>
+          <t>GG16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>361892</v>
+        <v>3850</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5381,23 +5381,23 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>dtk</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>GG17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>14651</v>
+        <v>3850</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5418,11 +5418,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>GG18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>934</v>
+        <v>3850</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5443,11 +5443,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>GG01NOVEMBER2025</t>
+          <t>GG19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3850</v>
+        <v>361897</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5468,11 +5468,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>GG02NOVEMBER2025</t>
+          <t>GG20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3850</v>
+        <v>361897</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5493,11 +5493,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>GG03NOVEMBER2025</t>
+          <t>GG21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3850</v>
+        <v>361897</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5518,11 +5518,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>GG04NOVEMBER2025</t>
+          <t>GG22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3850</v>
+        <v>361897</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5543,11 +5543,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>GG05NOVEMBER2025</t>
+          <t>GG23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3850</v>
+        <v>361897</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5568,11 +5568,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>GG06NOVEMBER2025</t>
+          <t>GG24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>3850</v>
+        <v>361897</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5593,11 +5593,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>GG07NOVEMBER2025</t>
+          <t>GG25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3850</v>
+        <v>361897</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5618,11 +5618,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>GG08NOVEMBER2025</t>
+          <t>GG26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3850</v>
+        <v>361897</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5643,11 +5643,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>GG09NOVEMBER2025</t>
+          <t>GG27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3850</v>
+        <v>361897</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5668,11 +5668,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>GG10NOVEMBER2025</t>
+          <t>GG28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3850</v>
+        <v>361897</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5693,11 +5693,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>GG11NOVEMBER2025</t>
+          <t>GG29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3850</v>
+        <v>361897</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5718,11 +5718,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>GG12NOVEMBER2025</t>
+          <t>GG30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3850</v>
+        <v>361897</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
         </is>
       </c>
     </row>
@@ -5743,11 +5743,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>GG13NOVEMBER2025</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3850</v>
+        <v>14664</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5756,23 +5756,23 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>GG14NOVEMBER2025</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>3850</v>
+        <v>936</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5781,19 +5781,19 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>GG15NOVEMBER2025</t>
+          <t>CD01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -5806,19 +5806,19 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>GG16NOVEMBER2025</t>
+          <t>CD02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -5831,19 +5831,19 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>GG17NOVEMBER2025</t>
+          <t>CD03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -5856,19 +5856,19 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>GG18NOVEMBER2025</t>
+          <t>CD04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -5881,23 +5881,23 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>GG19NOVEMBER2025</t>
+          <t>CD05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>361897</v>
+        <v>3850</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5906,23 +5906,23 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>GG20NOVEMBER2025</t>
+          <t>CD06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>361897</v>
+        <v>3850</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5931,23 +5931,23 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>GG21NOVEMBER2025</t>
+          <t>CD07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>361897</v>
+        <v>3850</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5956,23 +5956,23 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>GG22NOVEMBER2025</t>
+          <t>CD08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>361897</v>
+        <v>3850</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5981,23 +5981,23 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>GG23NOVEMBER2025</t>
+          <t>CD09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>361897</v>
+        <v>3850</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -6006,23 +6006,23 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>GG24NOVEMBER2025</t>
+          <t>CD10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>361897</v>
+        <v>3850</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -6031,23 +6031,23 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>GG25NOVEMBER2025</t>
+          <t>CD11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>361897</v>
+        <v>3850</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -6056,23 +6056,23 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>GG26NOVEMBER2025</t>
+          <t>CD12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>361897</v>
+        <v>3850</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -6081,23 +6081,23 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>GG27NOVEMBER2025</t>
+          <t>CD13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>361897</v>
+        <v>3850</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -6106,23 +6106,23 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>GG28NOVEMBER2025</t>
+          <t>CD14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>361897</v>
+        <v>3850</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -6131,23 +6131,23 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>GG29NOVEMBER2025</t>
+          <t>CD15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>361897</v>
+        <v>3850</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -6156,23 +6156,23 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>GG30NOVEMBER2025</t>
+          <t>CD16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>361897</v>
+        <v>3850</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -6181,23 +6181,23 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>CD17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>14664</v>
+        <v>3850</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -6206,23 +6206,23 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>CD18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>943</v>
+        <v>3850</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6231,23 +6231,23 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/.github/workflows/LX19OKTOBER2025.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>LX19OKTOBER2025</t>
+          <t>CD19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>367820</v>
+        <v>361897</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -6256,23 +6256,23 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>LX20OKTOBER2025</t>
+          <t>CD20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>361897</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -6281,23 +6281,23 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>LX21OKTOBER2025</t>
+          <t>CD21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>367820</v>
+        <v>361897</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -6306,23 +6306,23 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>LX22OKTOBER2025</t>
+          <t>CD22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>361897</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -6331,23 +6331,23 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>LX23OKTOBER2025</t>
+          <t>CD23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>361897</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -6356,23 +6356,23 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>LX24OKTOBER2025</t>
+          <t>CD24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>361897</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -6381,23 +6381,23 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>LX25OKTOBER2025</t>
+          <t>CD25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>361897</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -6406,23 +6406,23 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>LX26OKTOBER2025</t>
+          <t>CD26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>361897</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6431,23 +6431,23 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>LX27OKTOBER2025</t>
+          <t>CD27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>361897</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -6456,23 +6456,23 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>LX28OKTOBER2025</t>
+          <t>CD28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>361897</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6481,23 +6481,23 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>LX29OKTOBER2025</t>
+          <t>CD29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>361897</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6506,23 +6506,23 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>LX30OKTOBER2025</t>
+          <t>CD30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>367766</v>
+        <v>361897</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6531,23 +6531,23 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/LX30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>lazylazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>367763</v>
+        <v>367702</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6556,14 +6556,14 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/lazylazyloxy</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>lazyloxy</t>
+          <t>cdguntee</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>7475</v>
+        <v>14666</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/lazyloxy/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -7431,23 +7431,23 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>CD01NOVEMBER2025</t>
+          <t>DT01MEI2026</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -7456,23 +7456,23 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>CD02NOVEMBER2025</t>
+          <t>DT02MEI2026</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -7481,23 +7481,23 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>CD03NOVEMBER2025</t>
+          <t>DT03MEI2026</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -7506,23 +7506,23 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>CD04NOVEMBER2025</t>
+          <t>DT04MEI2026</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -7531,23 +7531,23 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>CD05NOVEMBER2025</t>
+          <t>DT05MEI2026</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -7556,23 +7556,23 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>CD06NOVEMBER2025</t>
+          <t>DT06MEI2026</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -7581,23 +7581,23 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>CD07NOVEMBER2025</t>
+          <t>DT07MEI2026</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -7606,23 +7606,23 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>CD08NOVEMBER2025</t>
+          <t>DT08MEI2026</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -7631,23 +7631,23 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>CD09NOVEMBER2025</t>
+          <t>DT09MEI2026</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -7656,23 +7656,23 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>CD10NOVEMBER2025</t>
+          <t>DT10MEI2026</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -7681,23 +7681,23 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>CD11NOVEMBER2025</t>
+          <t>DT11MEI2026</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -7706,23 +7706,23 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>CD12NOVEMBER2025</t>
+          <t>DT12MEI2026</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -7731,23 +7731,23 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>CD13NOVEMBER2025</t>
+          <t>DT13MEI2026</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -7756,23 +7756,23 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>CD14NOVEMBER2025</t>
+          <t>DT14MEI2026</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -7781,23 +7781,23 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>CD15NOVEMBER2025</t>
+          <t>DT15MEI2026</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -7806,23 +7806,23 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>CD16NOVEMBER2025</t>
+          <t>DT16MEI2026</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -7831,23 +7831,23 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>CD17NOVEMBER2025</t>
+          <t>DT17MEI2026</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -7856,23 +7856,23 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>CD18NOVEMBER2025</t>
+          <t>DT18MEI2026</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3850</v>
+        <v>361892</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -7881,23 +7881,23 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>CD19NOVEMBER2025</t>
+          <t>DT19MEI2026</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>361897</v>
+        <v>361892</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -7906,23 +7906,23 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>CD20NOVEMBER2025</t>
+          <t>DT20MEI2026</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>361897</v>
+        <v>361892</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -7931,23 +7931,23 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>CD21NOVEMBER2025</t>
+          <t>DT21MEI2026</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>361897</v>
+        <v>361892</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -7956,23 +7956,23 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>CD22NOVEMBER2025</t>
+          <t>DT22MEI2026</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>361897</v>
+        <v>361892</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -7981,23 +7981,23 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>CD23NOVEMBER2025</t>
+          <t>DT23MEI2026</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>361897</v>
+        <v>361892</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -8006,23 +8006,23 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>CD24NOVEMBER2025</t>
+          <t>DT24MEI2026</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>361897</v>
+        <v>361892</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -8031,23 +8031,23 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>CD25NOVEMBER2025</t>
+          <t>DT25MEI2026</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>361897</v>
+        <v>361892</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -8056,23 +8056,23 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>CD26NOVEMBER2025</t>
+          <t>DT26MEI2026</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>361897</v>
+        <v>361892</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -8081,23 +8081,23 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>CD27NOVEMBER2025</t>
+          <t>DT27MEI2026</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>361897</v>
+        <v>361892</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -8106,23 +8106,23 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>CD28NOVEMBER2025</t>
+          <t>DT28MEI2026</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>361897</v>
+        <v>361892</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -8131,23 +8131,23 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>CD29NOVEMBER2025</t>
+          <t>DT29MEI2026</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>361897</v>
+        <v>361892</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -8156,23 +8156,23 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>CD30NOVEMBER2025</t>
+          <t>DT30MEI2026</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>361897</v>
+        <v>361892</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>DT31MEI2026</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>367702</v>
+        <v>361892</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -8206,14 +8206,14 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/cdguntee</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -8222,7 +8222,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>14666</v>
+        <v>14651</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -9897,7 +9897,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>20179</v>
+        <v>20158</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -10756,23 +10756,23 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>WN01OKTOBER2026</t>
+          <t>SA01JUNI2026</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -10781,23 +10781,23 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN01OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA01JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>WN02OKTOBER2026</t>
+          <t>SA02JUNI2026</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -10806,23 +10806,23 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN02OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA02JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>WN03OKTOBER2026</t>
+          <t>SA03JUNI2026</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -10831,23 +10831,23 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN03OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA03JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>WN04OKTOBER2026</t>
+          <t>SA04JUNI2026</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -10856,23 +10856,23 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN04OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA04JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>WN05OKTOBER2026</t>
+          <t>SA05JUNI2026</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -10881,23 +10881,23 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN05OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA05JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>WN06OKTOBER2026</t>
+          <t>SA06JUNI2026</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -10906,23 +10906,23 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN06OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA06JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>WN07OKTOBER2026</t>
+          <t>SA07JUNI2026</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -10931,23 +10931,23 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN07OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA07JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>WN08OKTOBER2026</t>
+          <t>SA08JUNI2026</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -10956,23 +10956,23 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN08OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA08JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>WN09OKTOBER2026</t>
+          <t>SA09JUNI2026</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -10981,23 +10981,23 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN09OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA09JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>WN10OKTOBER2026</t>
+          <t>SA10JUNI2026</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -11006,23 +11006,23 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN10OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA10JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>WN11OKTOBER2026</t>
+          <t>SA11JUNI2026</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -11031,23 +11031,23 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN11OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA11JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>WN12OKTOBER2026</t>
+          <t>SA12JUNI2026</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -11056,23 +11056,23 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN12OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA12JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>WN13OKTOBER2026</t>
+          <t>SA13JUNI2026</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -11081,23 +11081,23 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN13OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA13JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>WN14OKTOBER2026</t>
+          <t>SA14JUNI2026</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -11106,23 +11106,23 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN14OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA14JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>WN15OKTOBER2026</t>
+          <t>SA15JUNI2026</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -11131,23 +11131,23 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN15OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA15JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>WN16OKTOBER2026</t>
+          <t>SA16JUNI2026</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -11156,23 +11156,23 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN16OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA16JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>WN17OKTOBER2026</t>
+          <t>SA17JUNI2026</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -11181,23 +11181,23 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN17OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA17JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>WN18OKTOBER2026</t>
+          <t>SA18JUNI2026</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -11206,23 +11206,23 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN18OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA18JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>WN19OKTOBER2026</t>
+          <t>SA19JUNI2026</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -11231,23 +11231,23 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN19OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA19JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>WN20OKTOBER2026</t>
+          <t>SA20JUNI2026</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -11256,23 +11256,23 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN20OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA20JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>WN21OKTOBER2026</t>
+          <t>SA21JUNI2026</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -11281,23 +11281,23 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN21OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA21JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>WN22OKTOBER2026</t>
+          <t>SA22JUNI2026</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -11306,23 +11306,23 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN22OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA22JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>WN23OKTOBER2026</t>
+          <t>SA23JUNI2026</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -11331,23 +11331,23 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN23OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA23JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>WN24OKTOBER2026</t>
+          <t>SA24JUNI2026</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -11356,23 +11356,23 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN24OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA24JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>WN25OKTOBER2026</t>
+          <t>SA25JUNI2026</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -11381,23 +11381,23 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN25OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA25JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>WN26OKTOBER2026</t>
+          <t>SA26JUNI2026</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -11406,23 +11406,23 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN26OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA26JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>WN27OKTOBER2026</t>
+          <t>SA27JUNI2026</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -11431,23 +11431,23 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN27OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA27JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>WN28OKTOBER2026</t>
+          <t>SA28JUNI2026</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -11456,23 +11456,23 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN28OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA28JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>WN29OKTOBER2026</t>
+          <t>SA29JUNI2026</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -11481,23 +11481,23 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN29OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA29JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>WN30OKTOBER2026</t>
+          <t>SA30JUNI2026</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>361896</v>
+        <v>361893</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -11506,23 +11506,23 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN30OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA30JUNI2026</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>suppasara</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>WN31OKTOBER2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>361896</v>
+        <v>14659</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -11531,23 +11531,23 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN31OKTOBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>wasan</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>14661</v>
+        <v>935</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -11556,23 +11556,23 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>TT01JANUARI2026</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>937</v>
+        <v>361896</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -11581,23 +11581,23 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT01JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>SA01JUNI2026</t>
+          <t>TT02JANUARI2026</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -11606,23 +11606,23 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA01JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT02JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>SA02JUNI2026</t>
+          <t>TT03JANUARI2026</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -11631,23 +11631,23 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA02JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT03JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>SA03JUNI2026</t>
+          <t>TT04JANUARI2026</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -11656,23 +11656,23 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA03JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT04JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>SA04JUNI2026</t>
+          <t>TT05JANUARI2026</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -11681,23 +11681,23 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA04JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT05JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>SA05JUNI2026</t>
+          <t>TT06JANUARI2026</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -11706,23 +11706,23 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA05JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT06JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>SA06JUNI2026</t>
+          <t>TT07JANUARI2026</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -11731,23 +11731,23 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA06JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT07JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>SA07JUNI2026</t>
+          <t>TT08JANUARI2026</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -11756,23 +11756,23 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA07JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT08JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>SA08JUNI2026</t>
+          <t>TT09JANUARI2026</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -11781,23 +11781,23 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA08JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT09JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>SA09JUNI2026</t>
+          <t>TT10JANUARI2026</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -11806,23 +11806,23 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA09JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT10JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>SA10JUNI2026</t>
+          <t>TT11JANUARI2026</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -11831,23 +11831,23 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA10JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT11JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>SA11JUNI2026</t>
+          <t>TT12JANUARI2026</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -11856,23 +11856,23 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA11JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT12JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>SA12JUNI2026</t>
+          <t>TT13JANUARI2026</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -11881,23 +11881,23 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA12JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT13JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>SA13JUNI2026</t>
+          <t>TT14JANUARI2026</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -11906,23 +11906,23 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA13JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT14JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>SA14JUNI2026</t>
+          <t>TT15JANUARI2026</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -11931,23 +11931,23 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA14JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT15JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>SA15JUNI2026</t>
+          <t>TT16JANUARI2026</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -11956,23 +11956,23 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA15JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT16JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>SA16JUNI2026</t>
+          <t>TT17JANUARI2026</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -11981,23 +11981,23 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA16JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT17JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>SA17JUNI2026</t>
+          <t>TT18JANUARI2026</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -12006,23 +12006,23 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA17JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT18JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>SA18JUNI2026</t>
+          <t>TT19JANUARI2026</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -12031,23 +12031,23 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA18JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT19JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>SA19JUNI2026</t>
+          <t>TT20JANUARI2026</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -12056,23 +12056,23 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA19JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT20JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>SA20JUNI2026</t>
+          <t>TT21JANUARI2026</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -12081,23 +12081,23 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA20JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT21JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>SA21JUNI2026</t>
+          <t>TT22JANUARI2026</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -12106,23 +12106,23 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA21JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT22JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>SA22JUNI2026</t>
+          <t>TT23JANUARI2026</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -12131,23 +12131,23 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA22JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT23JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>SA23JUNI2026</t>
+          <t>TT24JANUARI2026</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -12156,23 +12156,23 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA23JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT24JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>SA24JUNI2026</t>
+          <t>TT25JANUARI2026</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -12181,23 +12181,23 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA24JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT25JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>SA25JUNI2026</t>
+          <t>TT26JANUARI2026</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -12206,23 +12206,23 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA25JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT26JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>SA26JUNI2026</t>
+          <t>TT27JANUARI2026</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -12231,23 +12231,23 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA26JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT27JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>SA27JUNI2026</t>
+          <t>TT28JANUARI2026</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -12256,23 +12256,23 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA27JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT28JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>SA28JUNI2026</t>
+          <t>TT29JANUARI2026</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -12281,23 +12281,23 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA28JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT29JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>SA29JUNI2026</t>
+          <t>TT30JANUARI2026</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -12306,23 +12306,23 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA29JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT30JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>SA30JUNI2026</t>
+          <t>TT31JANUARI2026</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>361893</v>
+        <v>361896</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -12331,14 +12331,14 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/SA30JUNI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT31JANUARI2026</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>suppasara</t>
+          <t>thetoys</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>14659</v>
+        <v>14459</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -12356,14 +12356,14 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppasara/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -12381,23 +12381,23 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>SH01SEPTEMBER2026</t>
+          <t>UC01OKTOBER2025</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -12406,23 +12406,23 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH01SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC01OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>SH02SEPTEMBER2026</t>
+          <t>UC02OKTOBER2025</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -12431,23 +12431,23 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH02SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC02OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>SH03SEPTEMBER2026</t>
+          <t>UC03OKTOBER2025</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -12456,23 +12456,23 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH03SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC03OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>SH04SEPTEMBER2026</t>
+          <t>UC04OKTOBER2025</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -12481,23 +12481,23 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH04SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC04OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>SH05SEPTEMBER2026</t>
+          <t>UC05OKTOBER2025</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -12506,23 +12506,23 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH05SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC05OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>SH06SEPTEMBER2026</t>
+          <t>UC06OKTOBER2025</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -12531,23 +12531,23 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH06SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC06OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>SH07SEPTEMBER2026</t>
+          <t>UC07OKTOBER2025</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -12556,23 +12556,23 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH07SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC07OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>SH08SEPTEMBER2026</t>
+          <t>UC08OKTOBER2025</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -12581,23 +12581,23 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH08SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC08OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>SH09SEPTEMBER2026</t>
+          <t>UC09OKTOBER2025</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -12606,23 +12606,23 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH09SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC09OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>SH10SEPTEMBER2026</t>
+          <t>UC10OKTOBER2025</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -12631,23 +12631,23 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH10SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC10OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>SH11SEPTEMBER2026</t>
+          <t>UC11OKTOBER2025</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -12656,23 +12656,23 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH11SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC11OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>SH12SEPTEMBER2026</t>
+          <t>UC12OKTOBER2025</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -12681,23 +12681,23 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH12SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC12OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>SH13SEPTEMBER2026</t>
+          <t>UC13OKTOBER2025</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -12706,23 +12706,23 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH13SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC13OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>SH14SEPTEMBER2026</t>
+          <t>UC14OKTOBER2025</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -12731,23 +12731,23 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH14SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC14OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>SH15SEPTEMBER2026</t>
+          <t>UC15OKTOBER2025</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -12756,23 +12756,23 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH15SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC15OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>SH16SEPTEMBER2026</t>
+          <t>UC16OKTOBER2025</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -12781,23 +12781,23 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH16SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC16OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>SH17SEPTEMBER2026</t>
+          <t>UC17OKTOBER2025</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -12806,23 +12806,23 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH17SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC17OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>SH18SEPTEMBER2026</t>
+          <t>UC18OKTOBER2025</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -12831,23 +12831,23 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH18SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC18OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>SH19SEPTEMBER2026</t>
+          <t>UC19OKTOBER2025</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -12856,23 +12856,23 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH19SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC19OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>SH20SEPTEMBER2026</t>
+          <t>UC20OKTOBER2025</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -12881,23 +12881,23 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH20SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC20OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>SH21SEPTEMBER2026</t>
+          <t>UC21OKTOBER2025</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -12906,23 +12906,23 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH21SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC21OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>SH22SEPTEMBER2026</t>
+          <t>UC22OKTOBER2025</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -12931,23 +12931,23 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH22SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC22OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>SH23SEPTEMBER2026</t>
+          <t>UC23OKTOBER2025</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -12956,23 +12956,23 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH23SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC23OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>SH24SEPTEMBER2026</t>
+          <t>UC24OKTOBER2025</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -12981,23 +12981,23 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH24SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC24OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>SH25SEPTEMBER2026</t>
+          <t>UC25OKTOBER2025</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -13006,23 +13006,23 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH25SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC25OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>SH26SEPTEMBER2026</t>
+          <t>UC26OKTOBER2025</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -13031,23 +13031,23 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH26SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC26OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>SH27SEPTEMBER2026</t>
+          <t>UC27OKTOBER2025</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -13056,23 +13056,23 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH27SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC27OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>SH28SEPTEMBER2026</t>
+          <t>UC28OKTOBER2025</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -13081,23 +13081,23 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH28SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC28OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>SH29SEPTEMBER2026</t>
+          <t>UC29OKTOBER2025</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -13106,23 +13106,23 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH29SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC29OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>SH30SEPTEMBER2026</t>
+          <t>UC30OKTOBER2025</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>361898</v>
+        <v>3850</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -13131,23 +13131,23 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH30SEPTEMBER2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC30OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>suppacha</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>UC31OKTOBER2025</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>14668</v>
+        <v>3850</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -13156,23 +13156,23 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC31OKTOBER2025</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>uppercut</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>935</v>
+        <v>14664</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -13181,23 +13181,23 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>TT01JANUARI2026</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>361896</v>
+        <v>936</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -13206,23 +13206,23 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT01JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>TT02JANUARI2026</t>
+          <t>SH01SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -13231,23 +13231,23 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT02JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH01SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>TT03JANUARI2026</t>
+          <t>SH02SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -13256,23 +13256,23 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT03JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH02SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>TT04JANUARI2026</t>
+          <t>SH03SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -13281,23 +13281,23 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT04JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH03SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>TT05JANUARI2026</t>
+          <t>SH04SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -13306,23 +13306,23 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT05JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH04SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>TT06JANUARI2026</t>
+          <t>SH05SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -13331,23 +13331,23 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT06JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH05SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>TT07JANUARI2026</t>
+          <t>SH06SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -13356,23 +13356,23 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT07JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH06SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>TT08JANUARI2026</t>
+          <t>SH07SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -13381,23 +13381,23 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT08JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH07SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>TT09JANUARI2026</t>
+          <t>SH08SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -13406,23 +13406,23 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT09JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH08SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>TT10JANUARI2026</t>
+          <t>SH09SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -13431,23 +13431,23 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT10JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH09SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>TT11JANUARI2026</t>
+          <t>SH10SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -13456,23 +13456,23 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT11JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH10SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>TT12JANUARI2026</t>
+          <t>SH11SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -13481,23 +13481,23 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT12JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH11SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>TT13JANUARI2026</t>
+          <t>SH12SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -13506,23 +13506,23 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT13JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH12SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>TT14JANUARI2026</t>
+          <t>SH13SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -13531,23 +13531,23 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT14JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH13SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>TT15JANUARI2026</t>
+          <t>SH14SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -13556,23 +13556,23 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT15JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH14SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>TT16JANUARI2026</t>
+          <t>SH15SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -13581,23 +13581,23 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT16JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH15SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>TT17JANUARI2026</t>
+          <t>SH16SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -13606,23 +13606,23 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT17JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH16SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>TT18JANUARI2026</t>
+          <t>SH17SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -13631,23 +13631,23 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT18JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH17SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>TT19JANUARI2026</t>
+          <t>SH18SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -13656,23 +13656,23 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT19JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH18SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>TT20JANUARI2026</t>
+          <t>SH19SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -13681,23 +13681,23 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT20JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH19SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>TT21JANUARI2026</t>
+          <t>SH20SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -13706,23 +13706,23 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT21JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH20SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>TT22JANUARI2026</t>
+          <t>SH21SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -13731,23 +13731,23 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT22JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH21SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>TT23JANUARI2026</t>
+          <t>SH22SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -13756,23 +13756,23 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT23JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH22SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>TT24JANUARI2026</t>
+          <t>SH23SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -13781,23 +13781,23 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT24JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH23SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>TT25JANUARI2026</t>
+          <t>SH24SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -13806,23 +13806,23 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT25JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH24SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>TT26JANUARI2026</t>
+          <t>SH25SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -13831,23 +13831,23 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT26JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH25SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>TT27JANUARI2026</t>
+          <t>SH26SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -13856,23 +13856,23 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT27JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH26SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>TT28JANUARI2026</t>
+          <t>SH27SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -13881,23 +13881,23 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT28JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH27SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>TT29JANUARI2026</t>
+          <t>SH28SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -13906,23 +13906,23 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT29JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH28SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>TT30JANUARI2026</t>
+          <t>SH29SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -13931,23 +13931,23 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT30JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH29SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>TT31JANUARI2026</t>
+          <t>SH30SEPTEMBER2026</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>361896</v>
+        <v>361898</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -13956,14 +13956,14 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/TT31JANUARI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/SH30SEPTEMBER2026</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>thetoys</t>
+          <t>suppacha</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -13972,7 +13972,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>14459</v>
+        <v>14668</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -13981,14 +13981,14 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/thetoys/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/suppacha/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -13997,7 +13997,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -14006,23 +14006,23 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>UC01OKTOBER2025</t>
+          <t>WN01OKTOBER2026</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -14031,23 +14031,23 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC01OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN01OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>UC02OKTOBER2025</t>
+          <t>WN02OKTOBER2026</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -14056,23 +14056,23 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC02OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN02OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>UC03OKTOBER2025</t>
+          <t>WN03OKTOBER2026</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -14081,23 +14081,23 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC03OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN03OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>UC04OKTOBER2025</t>
+          <t>WN04OKTOBER2026</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -14106,23 +14106,23 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC04OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN04OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>UC05OKTOBER2025</t>
+          <t>WN05OKTOBER2026</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -14131,23 +14131,23 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC05OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN05OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>UC06OKTOBER2025</t>
+          <t>WN06OKTOBER2026</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -14156,23 +14156,23 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC06OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN06OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>UC07OKTOBER2025</t>
+          <t>WN07OKTOBER2026</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -14181,23 +14181,23 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC07OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN07OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>UC08OKTOBER2025</t>
+          <t>WN08OKTOBER2026</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -14206,23 +14206,23 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC08OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN08OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>UC09OKTOBER2025</t>
+          <t>WN09OKTOBER2026</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -14231,23 +14231,23 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC09OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN09OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>UC10OKTOBER2025</t>
+          <t>WN10OKTOBER2026</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -14256,23 +14256,23 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC10OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN10OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>UC11OKTOBER2025</t>
+          <t>WN11OKTOBER2026</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -14281,23 +14281,23 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC11OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN11OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>UC12OKTOBER2025</t>
+          <t>WN12OKTOBER2026</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -14306,23 +14306,23 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC12OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN12OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>UC13OKTOBER2025</t>
+          <t>WN13OKTOBER2026</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -14331,23 +14331,23 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC13OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN13OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>UC14OKTOBER2025</t>
+          <t>WN14OKTOBER2026</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -14356,23 +14356,23 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC14OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN14OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>UC15OKTOBER2025</t>
+          <t>WN15OKTOBER2026</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -14381,23 +14381,23 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC15OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN15OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>UC16OKTOBER2025</t>
+          <t>WN16OKTOBER2026</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -14406,23 +14406,23 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC16OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN16OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>UC17OKTOBER2025</t>
+          <t>WN17OKTOBER2026</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -14431,23 +14431,23 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC17OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN17OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>UC18OKTOBER2025</t>
+          <t>WN18OKTOBER2026</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -14456,23 +14456,23 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC18OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN18OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>UC19OKTOBER2025</t>
+          <t>WN19OKTOBER2026</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -14481,23 +14481,23 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC19OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN19OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>UC20OKTOBER2025</t>
+          <t>WN20OKTOBER2026</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -14506,23 +14506,23 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC20OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN20OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>UC21OKTOBER2025</t>
+          <t>WN21OKTOBER2026</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -14531,23 +14531,23 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC21OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN21OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>UC22OKTOBER2025</t>
+          <t>WN22OKTOBER2026</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -14556,23 +14556,23 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC22OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN22OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>UC23OKTOBER2025</t>
+          <t>WN23OKTOBER2026</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -14581,23 +14581,23 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC23OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN23OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>UC24OKTOBER2025</t>
+          <t>WN24OKTOBER2026</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -14606,23 +14606,23 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC24OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN24OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>UC25OKTOBER2025</t>
+          <t>WN25OKTOBER2026</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -14631,23 +14631,23 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC25OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN25OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>UC26OKTOBER2025</t>
+          <t>WN26OKTOBER2026</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -14656,23 +14656,23 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC26OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN26OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>UC27OKTOBER2025</t>
+          <t>WN27OKTOBER2026</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -14681,23 +14681,23 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC27OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN27OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>UC28OKTOBER2025</t>
+          <t>WN28OKTOBER2026</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -14706,23 +14706,23 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC28OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN28OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>UC29OKTOBER2025</t>
+          <t>WN29OKTOBER2026</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -14731,23 +14731,23 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC29OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN29OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>UC30OKTOBER2025</t>
+          <t>WN30OKTOBER2026</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -14756,23 +14756,23 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC30OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN30OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>UC31OKTOBER2025</t>
+          <t>WN31OKTOBER2026</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>3850</v>
+        <v>361896</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -14781,14 +14781,14 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/UC31OKTOBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/WN31OKTOBER2026</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>uppercut</t>
+          <t>wasan</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -14797,7 +14797,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>14664</v>
+        <v>14661</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/uppercut/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/wasan/main/update_github_file.py</t>
         </is>
       </c>
     </row>

--- a/data/uppermoon77_all_raw.xlsx
+++ b/data/uppermoon77_all_raw.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -481,23 +481,23 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AM01JULI2026</t>
+          <t>GG01NOVEMBER2025</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -506,23 +506,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AM02JULI2026</t>
+          <t>GG02NOVEMBER2025</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -531,23 +531,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AM03JULI2026</t>
+          <t>GG03NOVEMBER2025</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -556,23 +556,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AM04JULI2026</t>
+          <t>GG04NOVEMBER2025</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -581,23 +581,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AM05JULI2026</t>
+          <t>GG05NOVEMBER2025</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -606,23 +606,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AM06JULI2026</t>
+          <t>GG06NOVEMBER2025</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -631,23 +631,23 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AM07JULI2026</t>
+          <t>GG07NOVEMBER2025</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -656,23 +656,23 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AM08JULI2026</t>
+          <t>GG08NOVEMBER2025</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -681,23 +681,23 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AM09JULI2026</t>
+          <t>GG09NOVEMBER2025</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -706,23 +706,23 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AM10JULI2026</t>
+          <t>GG10NOVEMBER2025</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -731,23 +731,23 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AM11JULI2026</t>
+          <t>GG11NOVEMBER2025</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -756,23 +756,23 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AM12JULI2026</t>
+          <t>GG12NOVEMBER2025</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -781,23 +781,23 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AM13JULI2026</t>
+          <t>GG13NOVEMBER2025</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -806,23 +806,23 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AM14JULI2026</t>
+          <t>GG14NOVEMBER2025</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -831,23 +831,23 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AM15JULI2026</t>
+          <t>GG15NOVEMBER2025</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -856,23 +856,23 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AM16JULI2026</t>
+          <t>GG16NOVEMBER2025</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -881,23 +881,23 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AM17JULI2026</t>
+          <t>GG17NOVEMBER2025</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -906,23 +906,23 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AM18JULI2026</t>
+          <t>GG18NOVEMBER2025</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -931,23 +931,23 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AM19JULI2026</t>
+          <t>GG19NOVEMBER2025</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -956,23 +956,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AM20JULI2026</t>
+          <t>GG20NOVEMBER2025</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -981,23 +981,23 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AM21JULI2026</t>
+          <t>GG21NOVEMBER2025</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1006,23 +1006,23 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AM22JULI2026</t>
+          <t>GG22NOVEMBER2025</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1031,23 +1031,23 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AM23JULI2026</t>
+          <t>GG23NOVEMBER2025</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>335525</v>
+        <v>3850</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1056,23 +1056,23 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AM24JULI2026</t>
+          <t>GG24NOVEMBER2025</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>335525</v>
+        <v>335529</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1081,23 +1081,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AM25JULI2026</t>
+          <t>GG25NOVEMBER2025</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>335525</v>
+        <v>335529</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1106,23 +1106,23 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AM26JULI2026</t>
+          <t>GG26NOVEMBER2025</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>335525</v>
+        <v>335529</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1131,23 +1131,23 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AM27JULI2026</t>
+          <t>GG27NOVEMBER2025</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>335525</v>
+        <v>335529</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1156,23 +1156,23 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AM28JULI2026</t>
+          <t>GG28NOVEMBER2025</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>335525</v>
+        <v>335529</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1181,23 +1181,23 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AM29JULI2026</t>
+          <t>GG29NOVEMBER2025</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>335525</v>
+        <v>335529</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1206,23 +1206,23 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AM30JULI2026</t>
+          <t>GG30NOVEMBER2025</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>335525</v>
+        <v>335529</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1231,23 +1231,23 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>guygee</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AM31JULI2026</t>
+          <t>update_github_file.py</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>335525</v>
+        <v>14664</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1256,23 +1256,23 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aomam</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>update_github_file.py</t>
+          <t>.github/workflows/main.yml</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>14655</v>
+        <v>931</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1281,23 +1281,23 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>.github/workflows/main.yml</t>
+          <t>DT01MEI2026</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>934</v>
+        <v>335524</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1306,23 +1306,23 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT01MEI2026</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GG01NOVEMBER2025</t>
+          <t>DT02MEI2026</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1331,23 +1331,23 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT02MEI2026</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GG02NOVEMBER2025</t>
+          <t>DT03MEI2026</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1356,23 +1356,23 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT03MEI2026</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GG03NOVEMBER2025</t>
+          <t>DT04MEI2026</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1381,23 +1381,23 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT04MEI2026</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GG04NOVEMBER2025</t>
+          <t>DT05MEI2026</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1406,23 +1406,23 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT05MEI2026</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GG05NOVEMBER2025</t>
+          <t>DT06MEI2026</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1431,23 +1431,23 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT06MEI2026</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GG06NOVEMBER2025</t>
+          <t>DT07MEI2026</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1456,23 +1456,23 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT07MEI2026</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GG07NOVEMBER2025</t>
+          <t>DT08MEI2026</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1481,23 +1481,23 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT08MEI2026</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GG08NOVEMBER2025</t>
+          <t>DT09MEI2026</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1506,23 +1506,23 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT09MEI2026</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GG09NOVEMBER2025</t>
+          <t>DT10MEI2026</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1531,23 +1531,23 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT10MEI2026</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GG10NOVEMBER2025</t>
+          <t>DT11MEI2026</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1556,23 +1556,23 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT11MEI2026</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GG11NOVEMBER2025</t>
+          <t>DT12MEI2026</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1581,23 +1581,23 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT12MEI2026</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GG12NOVEMBER2025</t>
+          <t>DT13MEI2026</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1606,23 +1606,23 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT13MEI2026</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GG13NOVEMBER2025</t>
+          <t>DT14MEI2026</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1631,23 +1631,23 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT14MEI2026</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GG14NOVEMBER2025</t>
+          <t>DT15MEI2026</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1656,23 +1656,23 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT15MEI2026</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GG15NOVEMBER2025</t>
+          <t>DT16MEI2026</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1681,23 +1681,23 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT16MEI2026</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GG16NOVEMBER2025</t>
+          <t>DT17MEI2026</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1706,23 +1706,23 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT17MEI2026</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GG17NOVEMBER2025</t>
+          <t>DT18MEI2026</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1731,23 +1731,23 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT18MEI2026</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GG18NOVEMBER2025</t>
+          <t>DT19MEI2026</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1756,23 +1756,23 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT19MEI2026</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GG19NOVEMBER2025</t>
+          <t>DT20MEI2026</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1781,23 +1781,23 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT20MEI2026</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GG20NOVEMBER2025</t>
+          <t>DT21MEI2026</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1806,23 +1806,23 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT21MEI2026</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GG21NOVEMBER2025</t>
+          <t>DT22MEI2026</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1831,23 +1831,23 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG21NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT22MEI2026</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GG22NOVEMBER2025</t>
+          <t>DT23MEI2026</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1856,23 +1856,23 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG22NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT23MEI2026</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GG23NOVEMBER2025</t>
+          <t>DT24MEI2026</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3850</v>
+        <v>335524</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1881,23 +1881,23 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG23NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT24MEI2026</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GG24NOVEMBER2025</t>
+          <t>DT25MEI2026</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>335529</v>
+        <v>335524</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1906,23 +1906,23 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG24NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT25MEI2026</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GG25NOVEMBER2025</t>
+          <t>DT26MEI2026</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>335529</v>
+        <v>335524</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1931,23 +1931,23 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG25NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT26MEI2026</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GG26NOVEMBER2025</t>
+          <t>DT27MEI2026</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>335529</v>
+        <v>335524</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1956,23 +1956,23 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG26NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT27MEI2026</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GG27NOVEMBER2025</t>
+          <t>DT28MEI2026</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>335529</v>
+        <v>335524</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1981,23 +1981,23 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG27NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT28MEI2026</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GG28NOVEMBER2025</t>
+          <t>DT29MEI2026</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>335529</v>
+        <v>335524</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2006,23 +2006,23 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG28NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT29MEI2026</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GG29NOVEMBER2025</t>
+          <t>DT30MEI2026</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>335529</v>
+        <v>335524</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2031,23 +2031,23 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG29NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT30MEI2026</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GG30NOVEMBER2025</t>
+          <t>DT31MEI2026</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>335529</v>
+        <v>335524</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2056,14 +2056,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/GG30NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/DT31MEI2026</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>guygee</t>
+          <t>dtk</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>14664</v>
+        <v>14651</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2081,14 +2081,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/guygee/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/dtk/main/update_github_file.py</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2106,23 +2106,23 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BS01AGUSTUS2026</t>
+          <t>AM01JULI2026</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2131,23 +2131,23 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM01JULI2026</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BS02AGUSTUS2026</t>
+          <t>AM02JULI2026</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2156,23 +2156,23 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM02JULI2026</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BS03AGUSTUS2026</t>
+          <t>AM03JULI2026</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2181,23 +2181,23 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM03JULI2026</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BS04AGUSTUS2026</t>
+          <t>AM04JULI2026</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2206,23 +2206,23 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM04JULI2026</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BS05AGUSTUS2026</t>
+          <t>AM05JULI2026</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2231,23 +2231,23 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM05JULI2026</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BS06AGUSTUS2026</t>
+          <t>AM06JULI2026</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2256,23 +2256,23 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM06JULI2026</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BS07AGUSTUS2026</t>
+          <t>AM07JULI2026</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2281,23 +2281,23 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM07JULI2026</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BS08AGUSTUS2026</t>
+          <t>AM08JULI2026</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2306,23 +2306,23 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM08JULI2026</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BS09AGUSTUS2026</t>
+          <t>AM09JULI2026</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2331,23 +2331,23 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM09JULI2026</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BS10AGUSTUS2026</t>
+          <t>AM10JULI2026</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2356,23 +2356,23 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM10JULI2026</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BS11AGUSTUS2026</t>
+          <t>AM11JULI2026</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2381,23 +2381,23 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM11JULI2026</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BS12AGUSTUS2026</t>
+          <t>AM12JULI2026</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2406,23 +2406,23 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM12JULI2026</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BS13AGUSTUS2026</t>
+          <t>AM13JULI2026</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2431,23 +2431,23 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM13JULI2026</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BS14AGUSTUS2026</t>
+          <t>AM14JULI2026</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2456,23 +2456,23 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM14JULI2026</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BS15AGUSTUS2026</t>
+          <t>AM15JULI2026</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2481,23 +2481,23 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM15JULI2026</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BS16AGUSTUS2026</t>
+          <t>AM16JULI2026</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2506,23 +2506,23 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM16JULI2026</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BS17AGUSTUS2026</t>
+          <t>AM17JULI2026</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2531,23 +2531,23 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM17JULI2026</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BS18AGUSTUS2026</t>
+          <t>AM18JULI2026</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2556,23 +2556,23 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM18JULI2026</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BS19AGUSTUS2026</t>
+          <t>AM19JULI2026</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2581,23 +2581,23 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM19JULI2026</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BS20AGUSTUS2026</t>
+          <t>AM20JULI2026</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2606,23 +2606,23 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM20JULI2026</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BS21AGUSTUS2026</t>
+          <t>AM21JULI2026</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2631,23 +2631,23 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS21AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM21JULI2026</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BS22AGUSTUS2026</t>
+          <t>AM22JULI2026</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2656,23 +2656,23 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS22AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM22JULI2026</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BS23AGUSTUS2026</t>
+          <t>AM23JULI2026</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2681,23 +2681,23 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS23AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM23JULI2026</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BS24AGUSTUS2026</t>
+          <t>AM24JULI2026</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2706,23 +2706,23 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS24AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM24JULI2026</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BS25AGUSTUS2026</t>
+          <t>AM25JULI2026</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2731,23 +2731,23 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS25AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM25JULI2026</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BS26AGUSTUS2026</t>
+          <t>AM26JULI2026</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2756,23 +2756,23 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS26AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM26JULI2026</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BS27AGUSTUS2026</t>
+          <t>AM27JULI2026</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2781,23 +2781,23 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS27AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM27JULI2026</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BS28AGUSTUS2026</t>
+          <t>AM28JULI2026</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2806,23 +2806,23 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS28AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM28JULI2026</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BS29AGUSTUS2026</t>
+          <t>AM29JULI2026</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2831,23 +2831,23 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS29AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM29JULI2026</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BS30AGUSTUS2026</t>
+          <t>AM30JULI2026</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2856,23 +2856,23 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS30AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM30JULI2026</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BS31AGUSTUS2026</t>
+          <t>AM31JULI2026</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>335528</v>
+        <v>335525</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2881,14 +2881,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS31AGUSTUS2026</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/AM31JULI2026</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>bodyslam</t>
+          <t>aomam</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>14664</v>
+        <v>14655</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/update_github_file.py</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/aomam/main/update_github_file.py</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3781,23 +3781,23 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/.github/workflows/main.yml</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/.github/workflows/main.yml</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CD01NOVEMBER2025</t>
+          <t>BS01AGUSTUS2026</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3806,23 +3806,23 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD01NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS01AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CD02NOVEMBER2025</t>
+          <t>BS02AGUSTUS2026</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3831,23 +3831,23 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD02NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS02AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CD03NOVEMBER2025</t>
+          <t>BS03AGUSTUS2026</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3856,23 +3856,23 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD03NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS03AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CD04NOVEMBER2025</t>
+          <t>BS04AGUSTUS2026</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3881,23 +3881,23 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD04NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS04AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CD05NOVEMBER2025</t>
+          <t>BS05AGUSTUS2026</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3906,23 +3906,23 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD05NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS05AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CD06NOVEMBER2025</t>
+          <t>BS06AGUSTUS2026</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3931,23 +3931,23 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD06NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS06AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CD07NOVEMBER2025</t>
+          <t>BS07AGUSTUS2026</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3956,23 +3956,23 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD07NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS07AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CD08NOVEMBER2025</t>
+          <t>BS08AGUSTUS2026</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3981,23 +3981,23 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD08NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS08AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CD09NOVEMBER2025</t>
+          <t>BS09AGUSTUS2026</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4006,23 +4006,23 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD09NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS09AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CD10NOVEMBER2025</t>
+          <t>BS10AGUSTUS2026</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4031,23 +4031,23 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD10NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS10AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CD11NOVEMBER2025</t>
+          <t>BS11AGUSTUS2026</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4056,23 +4056,23 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD11NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS11AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CD12NOVEMBER2025</t>
+          <t>BS12AGUSTUS2026</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4081,23 +4081,23 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD12NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS12AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CD13NOVEMBER2025</t>
+          <t>BS13AGUSTUS2026</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4106,23 +4106,23 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD13NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS13AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CD14NOVEMBER2025</t>
+          <t>BS14AGUSTUS2026</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4131,23 +4131,23 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD14NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS14AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CD15NOVEMBER2025</t>
+          <t>BS15AGUSTUS2026</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4156,23 +4156,23 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD15NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS15AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CD16NOVEMBER2025</t>
+          <t>BS16AGUSTUS2026</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4181,23 +4181,23 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD16NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS16AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CD17NOVEMBER2025</t>
+          <t>BS17AGUSTUS2026</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4206,23 +4206,23 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD17NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS17AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CD18NOVEMBER2025</t>
+          <t>BS18AGUSTUS2026</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4231,23 +4231,23 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD18NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS18AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CD19NOVEMBER2025</t>
+          <t>BS19AGUSTUS2026</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4256,23 +4256,23 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD19NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS19AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CD20NOVEMBER2025</t>
+          <t>BS20AGUSTUS2026</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4281,23 +4281,23 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/uppermoon77/cdguntee/main/CD20NOVEMBER2025</t>
+          <t>https://raw.githubusercontent.com/uppermoon77/bodyslam/main/BS20AGUSTUS2026</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>cdguntee</t>
+          <t>bodyslam</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CD21NOVEMBER2025</t>
+          <t>BS21AGUSTUS2026</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3850</v>
+        <v>335528</v>
       </c>
       <c r="D155" t="inlineStr">
         <is